--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>2.56</v>
+        <v>2.05</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.33</v>
+        <v>2.08</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>02/09/2023 20:29</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>2.84</v>
+        <v>3.13</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.02</v>
+        <v>3.25</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>02/09/2023 18:31</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.8</v>
+        <v>3.53</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>3.36</v>
+        <v>3.7</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>02/09/2023 20:29</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-merida-ad/CS3Naz5E/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.05</v>
+        <v>2.56</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.08</v>
+        <v>2.33</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:29</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.13</v>
+        <v>2.84</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>3.02</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 18:31</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.53</v>
+        <v>2.8</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.7</v>
+        <v>3.36</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:29</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-merida-ad/CS3Naz5E/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.58</v>
+        <v>2.17</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>03/09/2023 12:15</t>
+          <t>03/09/2023 11:09</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>03/09/2023 18:34</t>
+          <t>03/09/2023 18:31</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.68</v>
+        <v>3.04</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.52</v>
+        <v>3.26</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>03/09/2023 12:15</t>
+          <t>03/09/2023 11:09</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-castellon/I9KKuFDr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-recreativo-huelva/G0Yhpe5R/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.17</v>
+        <v>2.58</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>03/09/2023 11:09</t>
+          <t>03/09/2023 12:15</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.12</v>
+        <v>3.01</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>03/09/2023 18:31</t>
+          <t>03/09/2023 18:34</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.04</v>
+        <v>2.68</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.26</v>
+        <v>2.52</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>03/09/2023 11:09</t>
+          <t>03/09/2023 12:15</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-recreativo-huelva/G0Yhpe5R/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-castellon/I9KKuFDr/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,48 +2712,48 @@
         </is>
       </c>
       <c r="L25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>10/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>07/09/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
         <v>3</v>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>10/09/2023 10:03</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>10/09/2023 10:05</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S25" t="inlineStr">
         <is>
           <t>07/09/2023 09:13</t>
         </is>
       </c>
-      <c r="P25" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>10/09/2023 10:03</t>
-        </is>
-      </c>
-      <c r="R25" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>07/09/2023 09:13</t>
-        </is>
-      </c>
       <c r="T25" t="n">
-        <v>2.46</v>
+        <v>3.02</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>10/09/2023 10:03</t>
+          <t>10/09/2023 11:42</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-malaga/0hxBjWR0/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-ud-ibiza/8fcWcEZQ/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>10/09/2023 11:42</t>
+          <t>09/09/2023 14:59</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>10/09/2023 10:05</t>
+          <t>10/09/2023 10:02</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.91</v>
+        <v>3.18</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.02</v>
+        <v>3.57</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>10/09/2023 11:42</t>
+          <t>09/09/2023 14:59</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-ud-ibiza/8fcWcEZQ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ad-ceuta/QZqbgYsr/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,63 +2881,63 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>07/09/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
         <v>3</v>
       </c>
-      <c r="J27" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K27" t="inlineStr">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>10/09/2023 10:03</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>07/09/2023 09:13</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>09/09/2023 14:59</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>10/09/2023 10:03</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S27" t="inlineStr">
         <is>
           <t>07/09/2023 09:13</t>
         </is>
       </c>
-      <c r="P27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>10/09/2023 10:02</t>
-        </is>
-      </c>
-      <c r="R27" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>07/09/2023 09:13</t>
-        </is>
-      </c>
       <c r="T27" t="n">
-        <v>3.57</v>
+        <v>2.46</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>09/09/2023 14:59</t>
+          <t>10/09/2023 10:03</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ad-ceuta/QZqbgYsr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-malaga/0hxBjWR0/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.12</v>
+        <v>3.36</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.56</v>
+        <v>3.36</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:57</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.24</v>
+        <v>4.29</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.15</v>
+        <v>3.79</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.36</v>
+        <v>3.56</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:57</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.29</v>
+        <v>3.24</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.79</v>
+        <v>5.15</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
         </is>
       </c>
     </row>
@@ -5882,6 +5882,374 @@
       <c r="V59" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-cd-san-fernando/Gz76GJoN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45206.75</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Algeciras</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:29</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:01</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:29</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-cordoba/llRqUxGM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45206.8125</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sanluqueno</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>05/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:01</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>05/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:31</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>05/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:01</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-ud-ibiza/dflBpb03/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45206.83333333334</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Real Madrid B</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:03</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-real-madrid/2XSyWboA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45206.83333333334</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Merida AD</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Antequera</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:41</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:41</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:41</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-antequera/I3k7ovoc/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.14</v>
+        <v>2.63</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.52</v>
+        <v>2.86</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>03/09/2023 19:01</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>03/09/2023 19:31</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.36</v>
+        <v>2.51</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.02</v>
+        <v>2.6</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>03/09/2023 19:01</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-alcoyano/nqPOvZSl/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Real Madrid B</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
       <c r="J19" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.86</v>
+        <v>2.1</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>02/09/2023 21:43</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2180,11 +2180,11 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>03/09/2023 19:32</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.51</v>
+        <v>3.16</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.6</v>
+        <v>3.79</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>02/09/2023 21:43</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-cd-san-fernando/KYvpnHzF/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>02/09/2023 21:43</t>
+          <t>03/09/2023 19:01</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.04</v>
+        <v>2.97</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>03/09/2023 19:32</t>
+          <t>03/09/2023 19:31</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.16</v>
+        <v>3.36</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.79</v>
+        <v>3.02</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>02/09/2023 21:43</t>
+          <t>03/09/2023 19:01</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-cd-san-fernando/KYvpnHzF/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-alcoyano/nqPOvZSl/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.29</v>
+        <v>1.51</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.9</v>
+        <v>1.49</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>2.89</v>
+        <v>3.71</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.22</v>
+        <v>4.07</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.14</v>
+        <v>6.28</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.54</v>
+        <v>7.11</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.01</v>
+        <v>2.29</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.04</v>
+        <v>2.89</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.49</v>
+        <v>3.22</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.64</v>
+        <v>3.14</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.62</v>
+        <v>4.54</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-baleares/fR5AFw1T/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.51</v>
+        <v>2.01</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.71</v>
+        <v>3.04</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.07</v>
+        <v>3.49</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>6.28</v>
+        <v>3.64</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>7.11</v>
+        <v>4.62</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-baleares/fR5AFw1T/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,63 +5641,63 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.68</v>
+        <v>3.11</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.5</v>
+        <v>3.82</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.47</v>
+        <v>4.93</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,63 +5733,63 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.08</v>
+        <v>3.26</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.11</v>
+        <v>3.68</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.82</v>
+        <v>4.5</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.93</v>
+        <v>5.47</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
         </is>
       </c>
     </row>
@@ -6250,6 +6250,374 @@
       <c r="V63" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-antequera/I3k7ovoc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45207.5</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:26</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>08/10/2023 10:51</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:26</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45207.5</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Baleares</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:28</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>08/10/2023 10:02</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:53</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45207.5</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Melilla</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cf-intercity/tn6OMf8d/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45207.66666666666</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Granada CF B</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Alcoyano</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:38</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:38</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:38</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-alcoyano/2e7KNzgj/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.49</v>
+        <v>2.98</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.48</v>
+        <v>3.68</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>27/08/2023 15:05</t>
+          <t>27/08/2023 21:10</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2.93</v>
+        <v>3.01</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>27/08/2023 19:30</t>
+          <t>27/08/2023 21:10</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.88</v>
+        <v>2.36</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.14</v>
+        <v>2.21</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>27/08/2023 15:05</t>
+          <t>27/08/2023 16:20</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/recreativo-huelva-cf-intercity/0CYlSeqq/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-murcia/fVeMWyyS/</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Murcia</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
       <c r="J10" t="n">
-        <v>2.98</v>
+        <v>2.49</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3.68</v>
+        <v>2.48</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>27/08/2023 21:10</t>
+          <t>27/08/2023 15:05</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.01</v>
+        <v>2.93</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>27/08/2023 21:10</t>
+          <t>27/08/2023 19:30</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.36</v>
+        <v>2.88</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.21</v>
+        <v>3.14</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>27/08/2023 16:20</t>
+          <t>27/08/2023 15:05</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-murcia/fVeMWyyS/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/recreativo-huelva-cf-intercity/0CYlSeqq/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.05</v>
+        <v>2.56</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.08</v>
+        <v>2.33</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:29</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.13</v>
+        <v>2.84</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.25</v>
+        <v>3.02</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 18:31</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.53</v>
+        <v>2.8</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>3.7</v>
+        <v>3.36</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:29</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-merida-ad/CS3Naz5E/</t>
         </is>
       </c>
     </row>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.64</v>
+        <v>2.08</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:21</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>02/09/2023 18:33</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.44</v>
+        <v>3.53</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.76</v>
+        <v>3.7</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:21</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-granada-cf/KYGyxXC7/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.56</v>
+        <v>2.01</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.33</v>
+        <v>2.64</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:29</t>
+          <t>02/09/2023 20:21</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.02</v>
+        <v>3.16</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>02/09/2023 18:31</t>
+          <t>02/09/2023 18:33</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.8</v>
+        <v>3.44</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.36</v>
+        <v>2.76</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:29</t>
+          <t>02/09/2023 20:21</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-merida-ad/CS3Naz5E/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-granada-cf/KYGyxXC7/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.96</v>
+        <v>3.31</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.89</v>
+        <v>3.2</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>6.63</v>
+        <v>4.4</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>5.77</v>
+        <v>4.61</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-atl-madrid/QZNSwgre/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-baleares/Yy5J0Gk8/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Atl. Madrid B</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Baleares</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.2</v>
+        <v>3.89</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.4</v>
+        <v>6.63</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.61</v>
+        <v>5.77</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-baleares/Yy5J0Gk8/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-atl-madrid/QZNSwgre/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Real Madrid B</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
       <c r="J18" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.86</v>
+        <v>2.1</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>02/09/2023 21:43</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2088,11 +2088,11 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>03/09/2023 19:32</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.51</v>
+        <v>3.16</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.6</v>
+        <v>3.79</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>02/09/2023 21:43</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-cd-san-fernando/KYvpnHzF/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>02/09/2023 21:43</t>
+          <t>03/09/2023 19:01</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.04</v>
+        <v>2.97</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>03/09/2023 19:32</t>
+          <t>03/09/2023 19:31</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.16</v>
+        <v>3.36</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.79</v>
+        <v>3.02</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>02/09/2023 21:43</t>
+          <t>03/09/2023 19:01</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-cd-san-fernando/KYvpnHzF/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-alcoyano/nqPOvZSl/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.14</v>
+        <v>2.63</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.52</v>
+        <v>2.86</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>03/09/2023 19:01</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>03/09/2023 19:31</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.36</v>
+        <v>2.51</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.02</v>
+        <v>2.6</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>03/09/2023 19:01</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-alcoyano/nqPOvZSl/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1.35</v>
+        <v>1.79</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>16/09/2023 21:14</t>
+          <t>16/09/2023 21:19</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>4.36</v>
+        <v>3.39</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>4.09</v>
+        <v>3.74</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>16/09/2023 21:14</t>
+          <t>16/09/2023 21:19</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>7.75</v>
+        <v>4.03</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>7.48</v>
+        <v>4.91</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>16/09/2023 21:14</t>
+          <t>16/09/2023 21:19</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-granada-cf/8x401mtJ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-linares/2ZDu6BRm/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Granada CF B</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Linares</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
       <c r="J34" t="n">
-        <v>1.79</v>
+        <v>1.35</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16/09/2023 21:19</t>
+          <t>16/09/2023 21:14</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.39</v>
+        <v>4.36</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.74</v>
+        <v>4.09</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>16/09/2023 21:19</t>
+          <t>16/09/2023 21:14</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>4.03</v>
+        <v>7.75</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.91</v>
+        <v>7.48</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>16/09/2023 21:19</t>
+          <t>16/09/2023 21:14</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-linares/2ZDu6BRm/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-granada-cf/8x401mtJ/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.65</v>
+        <v>1.72</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>17/09/2023 11:29</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>2.88</v>
+        <v>3.12</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>2.78</v>
+        <v>3.56</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>17/09/2023 11:29</t>
+          <t>17/09/2023 11:57</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.84</v>
+        <v>3.24</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.12</v>
+        <v>5.15</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>17/09/2023 11:29</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-recreativo-huelva/fRL79pYu/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.12</v>
+        <v>2.46</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.72</v>
+        <v>2.65</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:29</t>
         </is>
       </c>
       <c r="N37" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>14/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>17/09/2023 11:29</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>14/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
         <v>3.12</v>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>14/09/2023 15:43</t>
-        </is>
-      </c>
-      <c r="P37" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>17/09/2023 11:57</t>
-        </is>
-      </c>
-      <c r="R37" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>14/09/2023 15:43</t>
-        </is>
-      </c>
-      <c r="T37" t="n">
-        <v>5.15</v>
-      </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:29</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-recreativo-huelva/fRL79pYu/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.51</v>
+        <v>2.29</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.49</v>
+        <v>1.9</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.71</v>
+        <v>2.89</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.07</v>
+        <v>3.22</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>6.28</v>
+        <v>3.14</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>7.11</v>
+        <v>4.54</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2.29</v>
+        <v>2.01</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.22</v>
+        <v>3.49</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.14</v>
+        <v>3.64</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.54</v>
+        <v>4.62</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-baleares/fR5AFw1T/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2.01</v>
+        <v>1.51</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.8</v>
+        <v>1.49</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.04</v>
+        <v>3.71</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.49</v>
+        <v>4.07</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.64</v>
+        <v>6.28</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>4.62</v>
+        <v>7.11</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-baleares/fR5AFw1T/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>3.5</v>
+        <v>3.21</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3.19</v>
+        <v>3.42</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>07/10/2023 13:28</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.15</v>
+        <v>3.04</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>08/10/2023 10:51</t>
+          <t>08/10/2023 10:02</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.09</v>
+        <v>2.23</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>08/10/2023 06:53</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>3.21</v>
+        <v>3.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.42</v>
+        <v>3.19</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>07/10/2023 13:28</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.04</v>
+        <v>3.15</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>08/10/2023 10:02</t>
+          <t>08/10/2023 10:51</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.23</v>
+        <v>2.09</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>08/10/2023 06:53</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
         </is>
       </c>
     </row>
@@ -6618,6 +6618,190 @@
       <c r="V67" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-alcoyano/2e7KNzgj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45207.75</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Atl. Madrid B</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>4</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:49</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:02</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:02</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-cd-san-fernando/AcSuVI0G/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45207.83333333334</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Recreativo Huelva</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:05</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/recreativo-huelva-malaga/WCGlTdVS/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.17</v>
+        <v>2.58</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>03/09/2023 11:09</t>
+          <t>03/09/2023 12:15</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.12</v>
+        <v>3.01</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>03/09/2023 18:31</t>
+          <t>03/09/2023 18:34</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.04</v>
+        <v>2.68</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.26</v>
+        <v>2.52</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>03/09/2023 11:09</t>
+          <t>03/09/2023 12:15</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-recreativo-huelva/G0Yhpe5R/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-castellon/I9KKuFDr/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.58</v>
+        <v>2.17</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>03/09/2023 12:15</t>
+          <t>03/09/2023 11:09</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>03/09/2023 18:34</t>
+          <t>03/09/2023 18:31</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.68</v>
+        <v>3.04</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.52</v>
+        <v>3.26</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>03/09/2023 12:15</t>
+          <t>03/09/2023 11:09</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-castellon/I9KKuFDr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-recreativo-huelva/G0Yhpe5R/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>02/09/2023 21:43</t>
+          <t>03/09/2023 19:01</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.04</v>
+        <v>2.97</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>03/09/2023 19:32</t>
+          <t>03/09/2023 19:31</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.16</v>
+        <v>3.36</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.79</v>
+        <v>3.02</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>02/09/2023 21:43</t>
+          <t>03/09/2023 19:01</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-cd-san-fernando/KYvpnHzF/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-alcoyano/nqPOvZSl/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.14</v>
+        <v>2.63</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.52</v>
+        <v>2.86</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>03/09/2023 19:01</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>03/09/2023 19:31</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.36</v>
+        <v>2.51</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.02</v>
+        <v>2.6</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>03/09/2023 19:01</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-alcoyano/nqPOvZSl/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Real Madrid B</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
       <c r="J20" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.86</v>
+        <v>2.1</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>02/09/2023 21:43</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2272,11 +2272,11 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>03/09/2023 19:32</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.51</v>
+        <v>3.16</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.6</v>
+        <v>3.79</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>02/09/2023 21:43</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-cd-san-fernando/KYvpnHzF/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.2</v>
+        <v>1.86</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16/09/2023 19:03</t>
+          <t>16/09/2023 17:33</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.26</v>
+        <v>3.64</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.22</v>
+        <v>3.81</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16/09/2023 19:03</t>
+          <t>16/09/2023 17:33</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.54</v>
+        <v>4.8</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.41</v>
+        <v>3.89</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16/09/2023 19:03</t>
+          <t>16/09/2023 17:33</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-cd-san-fernando/rkX8BX3Q/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-atl-madrid/Uo5d2TQC/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>16/09/2023 17:33</t>
+          <t>16/09/2023 19:03</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.64</v>
+        <v>3.26</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.81</v>
+        <v>3.22</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>16/09/2023 17:33</t>
+          <t>16/09/2023 19:03</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.8</v>
+        <v>3.54</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.89</v>
+        <v>3.41</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>16/09/2023 17:33</t>
+          <t>16/09/2023 19:03</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-atl-madrid/Uo5d2TQC/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-cd-san-fernando/rkX8BX3Q/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Granada CF B</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Linares</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
       <c r="J33" t="n">
-        <v>1.79</v>
+        <v>1.35</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>16/09/2023 21:19</t>
+          <t>16/09/2023 21:14</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.39</v>
+        <v>4.36</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.74</v>
+        <v>4.09</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>16/09/2023 21:19</t>
+          <t>16/09/2023 21:14</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>4.03</v>
+        <v>7.75</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>4.91</v>
+        <v>7.48</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>16/09/2023 21:19</t>
+          <t>16/09/2023 21:14</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-linares/2ZDu6BRm/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-granada-cf/8x401mtJ/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1.35</v>
+        <v>1.79</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16/09/2023 21:14</t>
+          <t>16/09/2023 21:19</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.36</v>
+        <v>3.39</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>4.09</v>
+        <v>3.74</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>16/09/2023 21:14</t>
+          <t>16/09/2023 21:19</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>7.75</v>
+        <v>4.03</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>7.48</v>
+        <v>4.91</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>16/09/2023 21:14</t>
+          <t>16/09/2023 21:19</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-granada-cf/8x401mtJ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-linares/2ZDu6BRm/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.12</v>
+        <v>2.46</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.72</v>
+        <v>2.65</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:29</t>
         </is>
       </c>
       <c r="N36" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>14/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>17/09/2023 11:29</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>14/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
         <v>3.12</v>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>14/09/2023 15:43</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>17/09/2023 11:57</t>
-        </is>
-      </c>
-      <c r="R36" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>14/09/2023 15:43</t>
-        </is>
-      </c>
-      <c r="T36" t="n">
-        <v>5.15</v>
-      </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:29</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-recreativo-huelva/fRL79pYu/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.65</v>
+        <v>1.72</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:29</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>2.88</v>
+        <v>3.12</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2.78</v>
+        <v>3.56</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:29</t>
+          <t>17/09/2023 11:57</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.84</v>
+        <v>3.24</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.12</v>
+        <v>5.15</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:29</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-recreativo-huelva/fRL79pYu/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3.96</v>
+        <v>2.15</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 14:55</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 17:33</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.92</v>
+        <v>3.45</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.36</v>
+        <v>3.62</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 15:15</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.15</v>
+        <v>3.96</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.22</v>
+        <v>3.05</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>17/09/2023 14:55</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2.99</v>
+        <v>3.26</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>17/09/2023 17:33</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.45</v>
+        <v>1.92</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.62</v>
+        <v>2.36</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>17/09/2023 15:15</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.41</v>
+        <v>2.81</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.9</v>
+        <v>2.71</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 14:45</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2.91</v>
+        <v>3.01</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 14:01</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.93</v>
+        <v>2.48</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.65</v>
+        <v>2.84</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 14:45</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-cf-intercity/O6DO52X4/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ud-ibiza/UqEK6rIb/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.81</v>
+        <v>2.41</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.71</v>
+        <v>2.9</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 14:45</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.01</v>
+        <v>2.91</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 14:01</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.48</v>
+        <v>2.93</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.84</v>
+        <v>2.65</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 14:45</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ud-ibiza/UqEK6rIb/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-cf-intercity/O6DO52X4/</t>
         </is>
       </c>
     </row>
@@ -6802,6 +6802,98 @@
       <c r="V69" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/recreativo-huelva-malaga/WCGlTdVS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45210.875</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>3</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>14/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:55</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>14/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>14/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:55</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-murcia/zmCm4kd0/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,63 +5641,63 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.08</v>
+        <v>3.26</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.11</v>
+        <v>3.68</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.82</v>
+        <v>4.5</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.93</v>
+        <v>5.47</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,63 +5733,63 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.68</v>
+        <v>3.11</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.5</v>
+        <v>3.82</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>5.47</v>
+        <v>4.93</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
         </is>
       </c>
     </row>
@@ -6894,6 +6894,98 @@
       <c r="V70" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-murcia/zmCm4kd0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45211.5</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Melilla</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>10/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>12/10/2023 11:11</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>10/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>12/10/2023 11:56</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>10/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>12/10/2023 11:56</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-melilla/GbXgxz8q/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.58</v>
+        <v>2.17</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>03/09/2023 12:15</t>
+          <t>03/09/2023 11:09</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>03/09/2023 18:34</t>
+          <t>03/09/2023 18:31</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.68</v>
+        <v>3.04</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.52</v>
+        <v>3.26</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>03/09/2023 12:15</t>
+          <t>03/09/2023 11:09</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-castellon/I9KKuFDr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-recreativo-huelva/G0Yhpe5R/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.17</v>
+        <v>2.58</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>03/09/2023 11:09</t>
+          <t>03/09/2023 12:15</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.12</v>
+        <v>3.01</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>03/09/2023 18:31</t>
+          <t>03/09/2023 18:34</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.04</v>
+        <v>2.68</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.26</v>
+        <v>2.52</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>03/09/2023 11:09</t>
+          <t>03/09/2023 12:15</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-recreativo-huelva/G0Yhpe5R/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-castellon/I9KKuFDr/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.36</v>
+        <v>3.56</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:57</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.29</v>
+        <v>3.24</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.79</v>
+        <v>5.15</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.12</v>
+        <v>3.36</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.56</v>
+        <v>3.36</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:57</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.24</v>
+        <v>4.29</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>5.15</v>
+        <v>3.79</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.15</v>
+        <v>3.96</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.22</v>
+        <v>3.05</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>17/09/2023 14:55</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2.99</v>
+        <v>3.26</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>17/09/2023 17:33</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.45</v>
+        <v>1.92</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.62</v>
+        <v>2.36</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>17/09/2023 15:15</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>3.96</v>
+        <v>2.15</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 14:55</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 17:33</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1.92</v>
+        <v>3.45</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.36</v>
+        <v>3.62</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 15:15</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.81</v>
+        <v>2.41</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.71</v>
+        <v>2.9</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 14:45</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.01</v>
+        <v>2.91</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 14:01</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.48</v>
+        <v>2.93</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.84</v>
+        <v>2.65</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 14:45</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ud-ibiza/UqEK6rIb/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-cf-intercity/O6DO52X4/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.41</v>
+        <v>2.81</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.9</v>
+        <v>2.71</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 14:45</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2.91</v>
+        <v>3.01</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 14:01</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.93</v>
+        <v>2.48</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.65</v>
+        <v>2.84</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 14:45</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-cf-intercity/O6DO52X4/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ud-ibiza/UqEK6rIb/</t>
         </is>
       </c>
     </row>
@@ -6986,6 +6986,190 @@
       <c r="V71" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-melilla/GbXgxz8q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45213.66666666666</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Alcoyano</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:32</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:32</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:32</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-linares/2iiJrxVF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45213.66666666666</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Baleares</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Atl. Madrid B</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:36</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:36</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:36</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-atl-madrid/jHP6ZXi2/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.08</v>
+        <v>2.64</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:21</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 18:33</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.53</v>
+        <v>3.44</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.7</v>
+        <v>2.76</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:21</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-granada-cf/KYGyxXC7/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.64</v>
+        <v>2.08</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:21</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>02/09/2023 18:33</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.44</v>
+        <v>3.53</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.76</v>
+        <v>3.7</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:21</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-granada-cf/KYGyxXC7/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.17</v>
+        <v>2.58</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>03/09/2023 11:09</t>
+          <t>03/09/2023 12:15</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.12</v>
+        <v>3.01</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>03/09/2023 18:31</t>
+          <t>03/09/2023 18:34</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.04</v>
+        <v>2.68</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.26</v>
+        <v>2.52</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>03/09/2023 11:09</t>
+          <t>03/09/2023 12:15</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-recreativo-huelva/G0Yhpe5R/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-castellon/I9KKuFDr/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.58</v>
+        <v>2.17</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>03/09/2023 12:15</t>
+          <t>03/09/2023 11:09</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>03/09/2023 18:34</t>
+          <t>03/09/2023 18:31</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.68</v>
+        <v>3.04</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.52</v>
+        <v>3.26</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>03/09/2023 12:15</t>
+          <t>03/09/2023 11:09</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-castellon/I9KKuFDr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-recreativo-huelva/G0Yhpe5R/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.12</v>
+        <v>3.36</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.56</v>
+        <v>3.36</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:57</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.24</v>
+        <v>4.29</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.15</v>
+        <v>3.79</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.36</v>
+        <v>3.56</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:57</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.29</v>
+        <v>3.24</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.79</v>
+        <v>5.15</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3.96</v>
+        <v>2.15</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 14:55</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 17:33</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.92</v>
+        <v>3.45</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.36</v>
+        <v>3.62</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 15:15</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.15</v>
+        <v>3.96</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.22</v>
+        <v>3.05</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>17/09/2023 14:55</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2.99</v>
+        <v>3.26</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>17/09/2023 17:33</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.45</v>
+        <v>1.92</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.62</v>
+        <v>2.36</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>17/09/2023 15:15</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.41</v>
+        <v>2.81</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.9</v>
+        <v>2.71</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 14:45</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2.91</v>
+        <v>3.01</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 14:01</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.93</v>
+        <v>2.48</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.65</v>
+        <v>2.84</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 14:45</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-cf-intercity/O6DO52X4/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ud-ibiza/UqEK6rIb/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.81</v>
+        <v>2.41</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.71</v>
+        <v>2.9</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 14:45</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.01</v>
+        <v>2.91</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 14:01</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.48</v>
+        <v>2.93</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.84</v>
+        <v>2.65</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 14:45</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ud-ibiza/UqEK6rIb/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-cf-intercity/O6DO52X4/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J72" t="n">
-        <v>1.79</v>
+        <v>2.9</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.94</v>
+        <v>2.53</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>14/10/2023 15:32</t>
+          <t>14/10/2023 15:36</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.18</v>
+        <v>3.04</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.21</v>
+        <v>3.05</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>14/10/2023 15:32</t>
+          <t>14/10/2023 15:36</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>4.6</v>
+        <v>2.39</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>4.3</v>
+        <v>2.99</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>14/10/2023 15:32</t>
+          <t>14/10/2023 15:36</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-linares/2iiJrxVF/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-atl-madrid/jHP6ZXi2/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.9</v>
+        <v>1.79</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.53</v>
+        <v>1.94</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>14/10/2023 15:36</t>
+          <t>14/10/2023 15:32</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.04</v>
+        <v>3.18</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.05</v>
+        <v>3.21</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>14/10/2023 15:36</t>
+          <t>14/10/2023 15:32</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.39</v>
+        <v>4.6</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,108 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.99</v>
+        <v>4.3</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>14/10/2023 15:36</t>
+          <t>14/10/2023 15:32</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-atl-madrid/jHP6ZXi2/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-linares/2iiJrxVF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45213.75</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Merida AD</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:56</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:56</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:56</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-merida-ad/O6uStGaS/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.64</v>
+        <v>2.08</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:21</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>02/09/2023 18:33</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.44</v>
+        <v>3.53</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.76</v>
+        <v>3.7</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:21</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-granada-cf/KYGyxXC7/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.08</v>
+        <v>2.64</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:21</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 18:33</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.53</v>
+        <v>3.44</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.7</v>
+        <v>2.76</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:21</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-granada-cf/KYGyxXC7/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Atl. Madrid B</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Baleares</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.2</v>
+        <v>3.89</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.4</v>
+        <v>6.63</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>4.61</v>
+        <v>5.77</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-baleares/Yy5J0Gk8/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-atl-madrid/QZNSwgre/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.96</v>
+        <v>3.31</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.89</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>6.63</v>
+        <v>4.4</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.77</v>
+        <v>4.61</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-atl-madrid/QZNSwgre/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-baleares/Yy5J0Gk8/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.58</v>
+        <v>2.17</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>03/09/2023 12:15</t>
+          <t>03/09/2023 11:09</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>03/09/2023 18:34</t>
+          <t>03/09/2023 18:31</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.68</v>
+        <v>3.04</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.52</v>
+        <v>3.26</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>03/09/2023 12:15</t>
+          <t>03/09/2023 11:09</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-castellon/I9KKuFDr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-recreativo-huelva/G0Yhpe5R/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.17</v>
+        <v>2.58</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>03/09/2023 11:09</t>
+          <t>03/09/2023 12:15</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.12</v>
+        <v>3.01</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>03/09/2023 18:31</t>
+          <t>03/09/2023 18:34</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.04</v>
+        <v>2.68</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.26</v>
+        <v>2.52</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>03/09/2023 11:09</t>
+          <t>03/09/2023 12:15</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-recreativo-huelva/G0Yhpe5R/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-castellon/I9KKuFDr/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.36</v>
+        <v>3.56</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:57</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.29</v>
+        <v>3.24</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.79</v>
+        <v>5.15</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.12</v>
+        <v>3.36</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.56</v>
+        <v>3.36</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:57</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.24</v>
+        <v>4.29</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>5.15</v>
+        <v>3.79</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.15</v>
+        <v>3.96</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.22</v>
+        <v>3.05</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>17/09/2023 14:55</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2.99</v>
+        <v>3.26</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>17/09/2023 17:33</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.45</v>
+        <v>1.92</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.62</v>
+        <v>2.36</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>17/09/2023 15:15</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>3.96</v>
+        <v>2.15</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 14:55</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 17:33</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1.92</v>
+        <v>3.45</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.36</v>
+        <v>3.62</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 15:15</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.81</v>
+        <v>2.41</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.71</v>
+        <v>2.9</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 14:45</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.01</v>
+        <v>2.91</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 14:01</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.48</v>
+        <v>2.93</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.84</v>
+        <v>2.65</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 14:45</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ud-ibiza/UqEK6rIb/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-cf-intercity/O6DO52X4/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.41</v>
+        <v>2.81</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.9</v>
+        <v>2.71</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 14:45</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2.91</v>
+        <v>3.01</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 14:01</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.93</v>
+        <v>2.48</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.65</v>
+        <v>2.84</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 14:45</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-cf-intercity/O6DO52X4/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ud-ibiza/UqEK6rIb/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.72</v>
+        <v>2.27</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.65</v>
+        <v>2.59</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>07/10/2023 17:28</t>
+          <t>07/10/2023 19:41</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.4</v>
+        <v>2.93</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.03</v>
+        <v>2.93</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>07/10/2023 18:03</t>
+          <t>07/10/2023 19:41</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>4.37</v>
+        <v>3.14</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.82</v>
+        <v>3.03</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>07/10/2023 17:28</t>
+          <t>07/10/2023 19:41</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-real-madrid/2XSyWboA/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-antequera/I3k7ovoc/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.27</v>
+        <v>1.72</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.59</v>
+        <v>1.65</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>07/10/2023 19:41</t>
+          <t>07/10/2023 17:28</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>2.93</v>
+        <v>3.4</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>2.93</v>
+        <v>4.03</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>07/10/2023 19:41</t>
+          <t>07/10/2023 18:03</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.14</v>
+        <v>4.37</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.03</v>
+        <v>4.82</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>07/10/2023 19:41</t>
+          <t>07/10/2023 17:28</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-antequera/I3k7ovoc/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-real-madrid/2XSyWboA/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.9</v>
+        <v>1.79</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.53</v>
+        <v>1.94</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>14/10/2023 15:36</t>
+          <t>14/10/2023 15:32</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.04</v>
+        <v>3.18</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.05</v>
+        <v>3.21</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>14/10/2023 15:36</t>
+          <t>14/10/2023 15:32</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.39</v>
+        <v>4.6</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.99</v>
+        <v>4.3</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>14/10/2023 15:36</t>
+          <t>14/10/2023 15:32</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-atl-madrid/jHP6ZXi2/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-linares/2iiJrxVF/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
-        <v>1.79</v>
+        <v>2.9</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.94</v>
+        <v>2.53</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>14/10/2023 15:32</t>
+          <t>14/10/2023 15:36</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.18</v>
+        <v>3.04</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.21</v>
+        <v>3.05</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>14/10/2023 15:32</t>
+          <t>14/10/2023 15:36</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>4.6</v>
+        <v>2.39</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>4.3</v>
+        <v>2.99</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>14/10/2023 15:32</t>
+          <t>14/10/2023 15:36</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-linares/2iiJrxVF/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-atl-madrid/jHP6ZXi2/</t>
         </is>
       </c>
     </row>
@@ -7262,6 +7262,374 @@
       <c r="V74" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-merida-ad/O6uStGaS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45214.5</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>15/10/2023 11:54</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>15/10/2023 11:54</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>15/10/2023 11:54</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-castellon/xEL2zExd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45214.5</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Algeciras</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>15/10/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>15/10/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>15/10/2023 11:58</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-algeciras/4KDlbHU2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45214.5</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>5</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Recreativo Huelva</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>15/10/2023 11:54</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>15/10/2023 11:54</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>15/10/2023 11:54</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-recreativo-huelva/AXrkdeaF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45214.66666666666</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Granada CF B</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>15/10/2023 09:49</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:04</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>15/10/2023 09:54</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-granada-cf/rBChcyp9/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.96</v>
+        <v>3.31</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.89</v>
+        <v>3.2</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>6.63</v>
+        <v>4.4</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>5.77</v>
+        <v>4.61</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-atl-madrid/QZNSwgre/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-baleares/Yy5J0Gk8/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Atl. Madrid B</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Baleares</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.2</v>
+        <v>3.89</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.4</v>
+        <v>6.63</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.61</v>
+        <v>5.77</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-baleares/Yy5J0Gk8/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-atl-madrid/QZNSwgre/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.17</v>
+        <v>2.58</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>03/09/2023 11:09</t>
+          <t>03/09/2023 12:15</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.12</v>
+        <v>3.01</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>03/09/2023 18:31</t>
+          <t>03/09/2023 18:34</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.04</v>
+        <v>2.68</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.26</v>
+        <v>2.52</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>03/09/2023 11:09</t>
+          <t>03/09/2023 12:15</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-recreativo-huelva/G0Yhpe5R/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-castellon/I9KKuFDr/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.58</v>
+        <v>2.17</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>03/09/2023 12:15</t>
+          <t>03/09/2023 11:09</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>03/09/2023 18:34</t>
+          <t>03/09/2023 18:31</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.68</v>
+        <v>3.04</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.52</v>
+        <v>3.26</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>03/09/2023 12:15</t>
+          <t>03/09/2023 11:09</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-castellon/I9KKuFDr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-recreativo-huelva/G0Yhpe5R/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.14</v>
+        <v>2.63</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.52</v>
+        <v>2.86</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>03/09/2023 19:01</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>03/09/2023 19:31</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.36</v>
+        <v>2.51</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.02</v>
+        <v>2.6</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>03/09/2023 19:01</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-alcoyano/nqPOvZSl/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.63</v>
+        <v>2.14</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.86</v>
+        <v>2.52</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>03/09/2023 19:01</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>03/09/2023 19:31</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.51</v>
+        <v>3.36</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.6</v>
+        <v>3.02</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>03/09/2023 19:01</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-alcoyano/nqPOvZSl/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,14 +2513,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.7</v>
+        <v>3.19</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.69</v>
+        <v>2.76</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>09/09/2023 17:50</t>
+          <t>09/09/2023 19:40</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.29</v>
+        <v>2.95</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.57</v>
+        <v>3.33</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>09/09/2023 19:48</t>
+          <t>09/09/2023 19:40</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.74</v>
+        <v>2.22</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>5.36</v>
+        <v>2.53</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>09/09/2023 19:48</t>
+          <t>09/09/2023 19:40</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-sanluqueno/M1w7iCCf/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-real-madrid/vwl2hhcl/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.19</v>
+        <v>1.7</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.76</v>
+        <v>1.69</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>09/09/2023 19:40</t>
+          <t>09/09/2023 17:50</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2.95</v>
+        <v>3.29</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.33</v>
+        <v>3.57</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>09/09/2023 19:40</t>
+          <t>09/09/2023 19:48</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.22</v>
+        <v>4.74</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.53</v>
+        <v>5.36</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>09/09/2023 19:40</t>
+          <t>09/09/2023 19:48</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-real-madrid/vwl2hhcl/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-sanluqueno/M1w7iCCf/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10/09/2023 11:42</t>
+          <t>09/09/2023 14:59</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10/09/2023 10:05</t>
+          <t>10/09/2023 10:02</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.91</v>
+        <v>3.18</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.02</v>
+        <v>3.57</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>10/09/2023 11:42</t>
+          <t>09/09/2023 14:59</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-ud-ibiza/8fcWcEZQ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ad-ceuta/QZqbgYsr/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>07/09/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>10/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>07/09/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
         <v>3</v>
       </c>
-      <c r="J26" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>10/09/2023 10:05</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S26" t="inlineStr">
         <is>
           <t>07/09/2023 09:13</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>09/09/2023 14:59</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>07/09/2023 09:13</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>10/09/2023 10:02</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>07/09/2023 09:13</t>
-        </is>
-      </c>
       <c r="T26" t="n">
-        <v>3.57</v>
+        <v>3.02</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>09/09/2023 14:59</t>
+          <t>10/09/2023 11:42</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ad-ceuta/QZqbgYsr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-ud-ibiza/8fcWcEZQ/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.54</v>
+        <v>1.92</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>10/09/2023 10:03</t>
+          <t>10/09/2023 08:28</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>10/09/2023 10:03</t>
+          <t>10/09/2023 10:05</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.78</v>
+        <v>3.89</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.46</v>
+        <v>3.79</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>10/09/2023 10:03</t>
+          <t>10/09/2023 08:28</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-malaga/0hxBjWR0/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-melilla/lSX4CDlK/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>2</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Melilla</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
-        <v>1.92</v>
+        <v>2.54</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>10/09/2023 08:28</t>
+          <t>10/09/2023 10:03</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>10/09/2023 10:05</t>
+          <t>10/09/2023 10:03</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.89</v>
+        <v>2.78</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.79</v>
+        <v>2.46</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>10/09/2023 08:28</t>
+          <t>10/09/2023 10:03</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-melilla/lSX4CDlK/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-malaga/0hxBjWR0/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3.96</v>
+        <v>2.15</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 14:55</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 17:33</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.92</v>
+        <v>3.45</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.36</v>
+        <v>3.62</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 15:15</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.15</v>
+        <v>3.96</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.22</v>
+        <v>3.05</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>17/09/2023 14:55</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2.99</v>
+        <v>3.26</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>17/09/2023 17:33</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.45</v>
+        <v>1.92</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.62</v>
+        <v>2.36</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>17/09/2023 15:15</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.41</v>
+        <v>2.81</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.9</v>
+        <v>2.71</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 14:45</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2.91</v>
+        <v>3.01</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 14:01</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.93</v>
+        <v>2.48</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.65</v>
+        <v>2.84</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 14:45</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-cf-intercity/O6DO52X4/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ud-ibiza/UqEK6rIb/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.81</v>
+        <v>2.41</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.71</v>
+        <v>2.9</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 14:45</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.01</v>
+        <v>2.91</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 14:01</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.48</v>
+        <v>2.93</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.84</v>
+        <v>2.65</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 14:45</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ud-ibiza/UqEK6rIb/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-cf-intercity/O6DO52X4/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2.29</v>
+        <v>2.01</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.22</v>
+        <v>3.49</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.14</v>
+        <v>3.64</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.54</v>
+        <v>4.62</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-baleares/fR5AFw1T/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.01</v>
+        <v>1.51</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.8</v>
+        <v>1.49</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.04</v>
+        <v>3.71</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.49</v>
+        <v>4.07</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.64</v>
+        <v>6.28</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.62</v>
+        <v>7.11</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-baleares/fR5AFw1T/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.51</v>
+        <v>2.29</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.49</v>
+        <v>1.9</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.71</v>
+        <v>2.89</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.07</v>
+        <v>3.22</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>6.28</v>
+        <v>3.14</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>7.11</v>
+        <v>4.54</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,63 +5641,63 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.68</v>
+        <v>3.11</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.5</v>
+        <v>3.82</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.47</v>
+        <v>4.93</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,63 +5733,63 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.08</v>
+        <v>3.26</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.11</v>
+        <v>3.68</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.82</v>
+        <v>4.5</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.93</v>
+        <v>5.47</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.27</v>
+        <v>1.72</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.59</v>
+        <v>1.65</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>07/10/2023 19:41</t>
+          <t>07/10/2023 17:28</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>2.93</v>
+        <v>3.4</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2.93</v>
+        <v>4.03</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>07/10/2023 19:41</t>
+          <t>07/10/2023 18:03</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.14</v>
+        <v>4.37</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.03</v>
+        <v>4.82</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>07/10/2023 19:41</t>
+          <t>07/10/2023 17:28</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-antequera/I3k7ovoc/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-real-madrid/2XSyWboA/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.72</v>
+        <v>2.27</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.65</v>
+        <v>2.59</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>07/10/2023 17:28</t>
+          <t>07/10/2023 19:41</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.4</v>
+        <v>2.93</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.03</v>
+        <v>2.93</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>07/10/2023 18:03</t>
+          <t>07/10/2023 19:41</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>4.37</v>
+        <v>3.14</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>4.82</v>
+        <v>3.03</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>07/10/2023 17:28</t>
+          <t>07/10/2023 19:41</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-real-madrid/2XSyWboA/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-antequera/I3k7ovoc/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>3.21</v>
+        <v>2.43</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3.42</v>
+        <v>2.62</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>07/10/2023 13:28</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.94</v>
+        <v>2.87</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.04</v>
+        <v>2.88</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>08/10/2023 10:02</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.23</v>
+        <v>2.93</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.24</v>
+        <v>3.05</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>08/10/2023 06:53</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cf-intercity/tn6OMf8d/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>CF Intercity</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>2</v>
-      </c>
       <c r="J66" t="n">
-        <v>2.43</v>
+        <v>3.21</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.62</v>
+        <v>3.42</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>07/10/2023 13:28</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>2.88</v>
+        <v>3.04</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>08/10/2023 10:02</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.93</v>
+        <v>2.23</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.05</v>
+        <v>2.24</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>08/10/2023 06:53</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cf-intercity/tn6OMf8d/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
         </is>
       </c>
     </row>
@@ -7630,6 +7630,190 @@
       <c r="V78" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-granada-cf/rBChcyp9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45214.75</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Antequera</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:32</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:32</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:32</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-cf-intercity/fkWcyfNk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45214.83333333334</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Real Madrid B</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Sanluqueno</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>15/10/2023 19:04</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>15/10/2023 19:55</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>15/10/2023 19:00</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-sanluqueno/pGtOsdpM/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>3.5</v>
+        <v>3.21</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.19</v>
+        <v>3.42</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>07/10/2023 13:28</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.15</v>
+        <v>3.04</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>08/10/2023 10:51</t>
+          <t>08/10/2023 10:02</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.09</v>
+        <v>2.23</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>08/10/2023 06:53</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>3.21</v>
+        <v>3.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.42</v>
+        <v>3.19</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>07/10/2023 13:28</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.04</v>
+        <v>3.15</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>08/10/2023 10:02</t>
+          <t>08/10/2023 10:51</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.23</v>
+        <v>2.09</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>08/10/2023 06:53</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
         </is>
       </c>
     </row>
@@ -7814,6 +7814,98 @@
       <c r="V80" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-sanluqueno/pGtOsdpM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Algeciras</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:17</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:03</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:17</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-ad-ceuta/nc6IvTTs/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>26/08/2023 13:54</t>
+          <t>27/08/2023 18:38</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.12</v>
+        <v>3.26</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.12</v>
+        <v>3.02</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>27/08/2023 18:31</t>
+          <t>27/08/2023 18:38</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.25</v>
+        <v>4.81</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>26/08/2023 13:03</t>
+          <t>27/08/2023 18:38</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-algeciras/EFxgRFbk/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-sanluqueno/n5hEYc6F/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>27/08/2023 18:38</t>
+          <t>26/08/2023 13:54</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.26</v>
+        <v>3.12</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.02</v>
+        <v>3.12</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>27/08/2023 18:38</t>
+          <t>27/08/2023 18:31</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>4.81</v>
+        <v>4.25</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>27/08/2023 18:38</t>
+          <t>26/08/2023 13:03</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-sanluqueno/n5hEYc6F/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-algeciras/EFxgRFbk/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.01</v>
+        <v>2.29</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.04</v>
+        <v>2.89</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.49</v>
+        <v>3.22</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.64</v>
+        <v>3.14</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.62</v>
+        <v>4.54</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-baleares/fR5AFw1T/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.51</v>
+        <v>2.01</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.71</v>
+        <v>3.04</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.07</v>
+        <v>3.49</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>6.28</v>
+        <v>3.64</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>7.11</v>
+        <v>4.62</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-baleares/fR5AFw1T/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2.29</v>
+        <v>1.51</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.9</v>
+        <v>1.49</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>2.89</v>
+        <v>3.71</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.22</v>
+        <v>4.07</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.14</v>
+        <v>6.28</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>4.54</v>
+        <v>7.11</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,63 +5641,63 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.08</v>
+        <v>3.26</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.11</v>
+        <v>3.68</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.82</v>
+        <v>4.5</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.93</v>
+        <v>5.47</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,63 +5733,63 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.68</v>
+        <v>3.11</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.5</v>
+        <v>3.82</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>5.47</v>
+        <v>4.93</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>3.21</v>
+        <v>3.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.42</v>
+        <v>3.19</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>07/10/2023 13:28</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.04</v>
+        <v>3.15</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>08/10/2023 10:02</t>
+          <t>08/10/2023 10:51</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.23</v>
+        <v>2.09</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>08/10/2023 06:53</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>3.5</v>
+        <v>3.21</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.19</v>
+        <v>3.42</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>07/10/2023 13:28</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.15</v>
+        <v>3.04</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>08/10/2023 10:51</t>
+          <t>08/10/2023 10:02</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.09</v>
+        <v>2.23</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>08/10/2023 06:53</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
         </is>
       </c>
     </row>
@@ -7906,6 +7906,190 @@
       <c r="V81" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-ad-ceuta/nc6IvTTs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45220.75</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Merida AD</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:39</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:39</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:37</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-murcia/GxbZzoT6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45220.83333333334</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Real Madrid B</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>21/10/2023 08:44</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:30</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:30</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-real-madrid/fN9Qx7bf/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.48</v>
+        <v>2.14</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.52</v>
+        <v>2.72</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>27/08/2023 16:25</t>
+          <t>27/08/2023 20:09</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.82</v>
+        <v>2.95</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.9</v>
+        <v>2.99</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>27/08/2023 18:34</t>
+          <t>27/08/2023 19:54</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>6.05</v>
+        <v>3.38</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>6.74</v>
+        <v>2.82</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>27/08/2023 16:25</t>
+          <t>27/08/2023 20:09</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-melilla/QButmcL8/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-ad-ceuta/nLtxlw62/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.14</v>
+        <v>1.83</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.72</v>
+        <v>2.15</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>27/08/2023 20:09</t>
+          <t>26/08/2023 13:54</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.95</v>
+        <v>3.12</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2.99</v>
+        <v>3.12</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>27/08/2023 19:54</t>
+          <t>27/08/2023 18:31</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.38</v>
+        <v>4.25</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.82</v>
+        <v>3.61</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>27/08/2023 20:09</t>
+          <t>26/08/2023 13:03</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-ad-ceuta/nLtxlw62/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-algeciras/EFxgRFbk/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>1.83</v>
+        <v>1.48</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.15</v>
+        <v>1.52</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>26/08/2023 13:54</t>
+          <t>27/08/2023 16:25</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.12</v>
+        <v>3.82</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.12</v>
+        <v>3.9</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>27/08/2023 18:31</t>
+          <t>27/08/2023 18:34</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>4.25</v>
+        <v>6.05</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.61</v>
+        <v>6.74</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>26/08/2023 13:03</t>
+          <t>27/08/2023 16:25</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-algeciras/EFxgRFbk/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-melilla/QButmcL8/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.29</v>
+        <v>1.51</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.9</v>
+        <v>1.49</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>2.89</v>
+        <v>3.71</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.22</v>
+        <v>4.07</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.14</v>
+        <v>6.28</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.54</v>
+        <v>7.11</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.01</v>
+        <v>2.29</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.04</v>
+        <v>2.89</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.49</v>
+        <v>3.22</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.64</v>
+        <v>3.14</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.62</v>
+        <v>4.54</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-baleares/fR5AFw1T/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.51</v>
+        <v>2.01</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.71</v>
+        <v>3.04</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.07</v>
+        <v>3.49</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>6.28</v>
+        <v>3.64</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>7.11</v>
+        <v>4.62</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-baleares/fR5AFw1T/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,63 +5641,63 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.68</v>
+        <v>3.11</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.5</v>
+        <v>3.82</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.47</v>
+        <v>4.93</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,63 +5733,63 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.08</v>
+        <v>3.26</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.11</v>
+        <v>3.68</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.82</v>
+        <v>4.5</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.93</v>
+        <v>5.47</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>1</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>CF Intercity</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.43</v>
+        <v>3.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.62</v>
+        <v>3.19</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>08/10/2023 10:51</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.93</v>
+        <v>2.09</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.05</v>
+        <v>2.34</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cf-intercity/tn6OMf8d/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>3.5</v>
+        <v>3.21</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.19</v>
+        <v>3.42</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>07/10/2023 13:28</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.15</v>
+        <v>3.04</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>08/10/2023 10:51</t>
+          <t>08/10/2023 10:02</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.09</v>
+        <v>2.23</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>08/10/2023 06:53</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>3.21</v>
+        <v>2.43</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.42</v>
+        <v>2.62</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>07/10/2023 13:28</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.94</v>
+        <v>2.87</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.04</v>
+        <v>2.88</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>08/10/2023 10:02</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.23</v>
+        <v>2.93</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.24</v>
+        <v>3.05</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>08/10/2023 06:53</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cf-intercity/tn6OMf8d/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.9</v>
+        <v>1.97</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.92</v>
+        <v>2.37</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>15/10/2023 11:54</t>
+          <t>15/10/2023 11:58</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.96</v>
+        <v>3.07</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>15/10/2023 11:54</t>
+          <t>15/10/2023 11:58</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.45</v>
+        <v>3.74</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.43</v>
+        <v>3.33</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>15/10/2023 11:54</t>
+          <t>15/10/2023 11:58</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-castellon/xEL2zExd/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-algeciras/4KDlbHU2/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>1.97</v>
+        <v>1.59</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.37</v>
+        <v>1.54</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>15/10/2023 11:58</t>
+          <t>15/10/2023 11:54</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.07</v>
+        <v>3.55</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>2.98</v>
+        <v>3.85</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>15/10/2023 11:58</t>
+          <t>15/10/2023 11:54</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.74</v>
+        <v>5.47</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.33</v>
+        <v>6.68</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>15/10/2023 11:58</t>
+          <t>15/10/2023 11:54</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-algeciras/4KDlbHU2/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-recreativo-huelva/AXrkdeaF/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>1.59</v>
+        <v>2.9</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.54</v>
+        <v>2.92</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>5.47</v>
+        <v>2.45</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>6.68</v>
+        <v>2.43</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-recreativo-huelva/AXrkdeaF/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-castellon/xEL2zExd/</t>
         </is>
       </c>
     </row>
@@ -8090,6 +8090,466 @@
       <c r="V83" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-real-madrid/fN9Qx7bf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45221.5</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Baleares</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:56</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:01</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:56</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45221.5</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Granada CF B</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:38</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:03</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>2</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>22/10/2023 04:23</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45221.5</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Melilla</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Antequera</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>3</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:00</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:01</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:00</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-antequera/vBVRtyHP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45221.66666666666</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-cd-san-fernando/xnaVyRD0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45221.83333333334</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Atl. Madrid B</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>22/10/2023 19:59</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>22/10/2023 19:59</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>22/10/2023 19:59</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-atl-madrid/O21sZOcJ/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.14</v>
+        <v>1.48</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.72</v>
+        <v>1.52</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>27/08/2023 20:09</t>
+          <t>27/08/2023 16:25</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.95</v>
+        <v>3.82</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2.99</v>
+        <v>3.9</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>27/08/2023 19:54</t>
+          <t>27/08/2023 18:34</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.38</v>
+        <v>6.05</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.82</v>
+        <v>6.74</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>27/08/2023 20:09</t>
+          <t>27/08/2023 16:25</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-ad-ceuta/nLtxlw62/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-melilla/QButmcL8/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.83</v>
+        <v>2.14</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.15</v>
+        <v>2.72</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>26/08/2023 13:54</t>
+          <t>27/08/2023 20:09</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.12</v>
+        <v>2.99</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>27/08/2023 18:31</t>
+          <t>27/08/2023 19:54</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.25</v>
+        <v>3.38</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.61</v>
+        <v>2.82</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>26/08/2023 13:03</t>
+          <t>27/08/2023 20:09</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-algeciras/EFxgRFbk/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-ad-ceuta/nLtxlw62/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>27/08/2023 18:38</t>
+          <t>26/08/2023 13:54</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.26</v>
+        <v>3.12</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.02</v>
+        <v>3.12</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>27/08/2023 18:38</t>
+          <t>27/08/2023 18:31</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.81</v>
+        <v>4.25</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>27/08/2023 18:38</t>
+          <t>26/08/2023 13:03</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-sanluqueno/n5hEYc6F/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-algeciras/EFxgRFbk/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.52</v>
+        <v>2.22</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>27/08/2023 16:25</t>
+          <t>27/08/2023 18:38</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.82</v>
+        <v>3.26</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.9</v>
+        <v>3.02</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>27/08/2023 18:34</t>
+          <t>27/08/2023 18:38</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>6.05</v>
+        <v>4.81</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>6.74</v>
+        <v>3.62</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>27/08/2023 16:25</t>
+          <t>27/08/2023 18:38</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-melilla/QButmcL8/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-sanluqueno/n5hEYc6F/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Murcia</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
       <c r="J9" t="n">
-        <v>2.98</v>
+        <v>2.49</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3.68</v>
+        <v>2.48</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>27/08/2023 21:10</t>
+          <t>27/08/2023 15:05</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.01</v>
+        <v>2.93</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>27/08/2023 21:10</t>
+          <t>27/08/2023 19:30</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.36</v>
+        <v>2.88</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.21</v>
+        <v>3.14</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>27/08/2023 16:20</t>
+          <t>27/08/2023 15:05</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-murcia/fVeMWyyS/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/recreativo-huelva-cf-intercity/0CYlSeqq/</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.49</v>
+        <v>2.98</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.48</v>
+        <v>3.68</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>27/08/2023 15:05</t>
+          <t>27/08/2023 21:10</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2.93</v>
+        <v>3.01</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>27/08/2023 19:30</t>
+          <t>27/08/2023 21:10</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.88</v>
+        <v>2.36</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>3.14</v>
+        <v>2.21</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>27/08/2023 15:05</t>
+          <t>27/08/2023 16:20</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/recreativo-huelva-cf-intercity/0CYlSeqq/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-murcia/fVeMWyyS/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.63</v>
+        <v>2.14</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.86</v>
+        <v>2.52</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>03/09/2023 19:01</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>03/09/2023 19:31</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.51</v>
+        <v>3.36</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.6</v>
+        <v>3.02</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>03/09/2023 19:01</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-alcoyano/nqPOvZSl/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.14</v>
+        <v>2.63</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.52</v>
+        <v>2.86</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>03/09/2023 19:01</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>03/09/2023 19:31</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.36</v>
+        <v>2.51</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.02</v>
+        <v>2.6</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>03/09/2023 19:01</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-alcoyano/nqPOvZSl/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.24</v>
+        <v>1.92</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>09/09/2023 14:59</t>
+          <t>10/09/2023 08:28</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2732,11 +2732,11 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10/09/2023 10:02</t>
+          <t>10/09/2023 10:05</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.18</v>
+        <v>3.89</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.57</v>
+        <v>3.79</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>09/09/2023 14:59</t>
+          <t>10/09/2023 08:28</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ad-ceuta/QZqbgYsr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-melilla/lSX4CDlK/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>10/09/2023 11:42</t>
+          <t>09/09/2023 14:59</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>10/09/2023 10:05</t>
+          <t>10/09/2023 10:02</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.91</v>
+        <v>3.18</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.02</v>
+        <v>3.57</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>10/09/2023 11:42</t>
+          <t>09/09/2023 14:59</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-ud-ibiza/8fcWcEZQ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ad-ceuta/QZqbgYsr/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>2</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Melilla</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
       <c r="J27" t="n">
-        <v>1.92</v>
+        <v>2.42</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>10/09/2023 08:28</t>
+          <t>10/09/2023 11:42</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.89</v>
+        <v>2.91</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.79</v>
+        <v>3.02</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>10/09/2023 08:28</t>
+          <t>10/09/2023 11:42</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-melilla/lSX4CDlK/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-ud-ibiza/8fcWcEZQ/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.77</v>
+        <v>2.63</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.56</v>
+        <v>2.83</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>10/09/2023 15:26</t>
+          <t>10/09/2023 18:40</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.24</v>
+        <v>2.95</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.8</v>
+        <v>3.06</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>10/09/2023 19:04</t>
+          <t>10/09/2023 17:31</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.39</v>
+        <v>2.62</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>6.5</v>
+        <v>2.65</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>10/09/2023 19:04</t>
+          <t>10/09/2023 18:40</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-cf-intercity/U3bSbfKK/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-cordoba/YJkIlAdD/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.63</v>
+        <v>1.77</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.83</v>
+        <v>1.56</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>10/09/2023 18:40</t>
+          <t>10/09/2023 15:26</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>2.95</v>
+        <v>3.24</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.06</v>
+        <v>3.8</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>10/09/2023 17:31</t>
+          <t>10/09/2023 19:04</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.62</v>
+        <v>4.39</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.65</v>
+        <v>6.5</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>10/09/2023 18:40</t>
+          <t>10/09/2023 19:04</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-cordoba/YJkIlAdD/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-cf-intercity/U3bSbfKK/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16/09/2023 17:33</t>
+          <t>16/09/2023 19:03</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.64</v>
+        <v>3.26</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.81</v>
+        <v>3.22</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16/09/2023 17:33</t>
+          <t>16/09/2023 19:03</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.8</v>
+        <v>3.54</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.89</v>
+        <v>3.41</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16/09/2023 17:33</t>
+          <t>16/09/2023 19:03</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-atl-madrid/Uo5d2TQC/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-cd-san-fernando/rkX8BX3Q/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.2</v>
+        <v>1.86</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>16/09/2023 19:03</t>
+          <t>16/09/2023 17:33</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.26</v>
+        <v>3.64</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.22</v>
+        <v>3.81</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>16/09/2023 19:03</t>
+          <t>16/09/2023 17:33</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.54</v>
+        <v>4.8</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.41</v>
+        <v>3.89</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>16/09/2023 19:03</t>
+          <t>16/09/2023 17:33</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-cd-san-fernando/rkX8BX3Q/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-atl-madrid/Uo5d2TQC/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1.35</v>
+        <v>1.79</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>16/09/2023 21:14</t>
+          <t>16/09/2023 21:19</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>4.36</v>
+        <v>3.39</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>4.09</v>
+        <v>3.74</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>16/09/2023 21:14</t>
+          <t>16/09/2023 21:19</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>7.75</v>
+        <v>4.03</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>7.48</v>
+        <v>4.91</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>16/09/2023 21:14</t>
+          <t>16/09/2023 21:19</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-granada-cf/8x401mtJ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-linares/2ZDu6BRm/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Granada CF B</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Linares</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
       <c r="J34" t="n">
-        <v>1.79</v>
+        <v>1.35</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16/09/2023 21:19</t>
+          <t>16/09/2023 21:14</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.39</v>
+        <v>4.36</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.74</v>
+        <v>4.09</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>16/09/2023 21:19</t>
+          <t>16/09/2023 21:14</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>4.03</v>
+        <v>7.75</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.91</v>
+        <v>7.48</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>16/09/2023 21:19</t>
+          <t>16/09/2023 21:14</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-linares/2ZDu6BRm/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-granada-cf/8x401mtJ/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.81</v>
+        <v>2.41</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.71</v>
+        <v>2.9</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 14:45</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.01</v>
+        <v>2.91</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 14:01</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.48</v>
+        <v>2.93</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.84</v>
+        <v>2.65</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 14:45</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ud-ibiza/UqEK6rIb/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-cf-intercity/O6DO52X4/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.41</v>
+        <v>2.81</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.9</v>
+        <v>2.71</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 14:45</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2.91</v>
+        <v>3.01</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 14:01</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.93</v>
+        <v>2.48</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.65</v>
+        <v>2.84</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 14:45</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-cf-intercity/O6DO52X4/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ud-ibiza/UqEK6rIb/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.51</v>
+        <v>2.29</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.49</v>
+        <v>1.9</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.71</v>
+        <v>2.89</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.07</v>
+        <v>3.22</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>6.28</v>
+        <v>3.14</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>7.11</v>
+        <v>4.54</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2.29</v>
+        <v>2.01</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.22</v>
+        <v>3.49</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.14</v>
+        <v>3.64</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.54</v>
+        <v>4.62</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-baleares/fR5AFw1T/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2.01</v>
+        <v>1.51</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.8</v>
+        <v>1.49</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.04</v>
+        <v>3.71</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.49</v>
+        <v>4.07</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.64</v>
+        <v>6.28</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>4.62</v>
+        <v>7.11</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-baleares/fR5AFw1T/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,63 +5641,63 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.08</v>
+        <v>3.26</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.11</v>
+        <v>3.68</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.82</v>
+        <v>4.5</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.93</v>
+        <v>5.47</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,63 +5733,63 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.68</v>
+        <v>3.11</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.5</v>
+        <v>3.82</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>5.47</v>
+        <v>4.93</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>2</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Ceuta</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
       <c r="J64" t="n">
-        <v>3.5</v>
+        <v>2.43</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,48 +6300,48 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3.19</v>
+        <v>2.62</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="N64" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
         <v>3.05</v>
       </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>05/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="P64" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>08/10/2023 10:51</t>
-        </is>
-      </c>
-      <c r="R64" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>05/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T64" t="n">
-        <v>2.34</v>
-      </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cf-intercity/tn6OMf8d/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>3.21</v>
+        <v>3.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.42</v>
+        <v>3.19</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>07/10/2023 13:28</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.04</v>
+        <v>3.15</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>08/10/2023 10:02</t>
+          <t>08/10/2023 10:51</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.23</v>
+        <v>2.09</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>08/10/2023 06:53</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>CF Intercity</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>2</v>
-      </c>
       <c r="J66" t="n">
-        <v>2.43</v>
+        <v>3.21</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.62</v>
+        <v>3.42</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>07/10/2023 13:28</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>2.88</v>
+        <v>3.04</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>08/10/2023 10:02</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.93</v>
+        <v>2.23</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.05</v>
+        <v>2.24</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>08/10/2023 06:53</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cf-intercity/tn6OMf8d/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1.75</v>
+        <v>2.96</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 06:00</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.42</v>
+        <v>2.91</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.53</v>
+        <v>2.44</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>5.02</v>
+        <v>2.59</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 06:00</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-antequera/vBVRtyHP/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>4.18</v>
+        <v>1.75</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>4.16</v>
+        <v>1.75</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 10:38</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.14</v>
+        <v>3.42</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 10:03</t>
+          <t>22/10/2023 10:01</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.85</v>
+        <v>4.53</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2</v>
+        <v>5.02</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 04:23</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.96</v>
+        <v>4.18</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>4.16</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>22/10/2023 06:00</t>
+          <t>22/10/2023 10:38</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>2.91</v>
+        <v>3.2</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>2.91</v>
+        <v>3.14</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>22/10/2023 10:01</t>
+          <t>22/10/2023 10:03</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.44</v>
+        <v>1.85</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.59</v>
+        <v>2</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>22/10/2023 06:00</t>
+          <t>22/10/2023 04:23</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-antequera/vBVRtyHP/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
         </is>
       </c>
     </row>
@@ -8550,6 +8550,926 @@
       <c r="V88" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-atl-madrid/O21sZOcJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Granada CF B</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Sanluqueno</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-sanluqueno/QV9AYCO5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:54</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-castellon/Sfj5ffoP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45227.75</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-linares/U3xXkEgt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45228.5</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Baleares</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Melilla</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:31</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:31</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:31</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-melilla/Mc3JWjgI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45228.5</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Real Madrid B</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:56</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:56</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:56</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-ad-ceuta/CSRykY8n/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45228.5</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>3</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:54</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:54</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:54</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-cf-intercity/0l2NVA8O/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45228.66666666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Alcoyano</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Algeciras</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-algeciras/zsHcyFvm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45228.75</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Antequera</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>2</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:46</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:46</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:46</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-malaga/vZDEXWwC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45228.75</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Recreativo Huelva</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:40</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:40</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:40</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-recreativo-huelva/W8A6Zh9a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45228.83333333334</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Atl. Madrid B</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Merida AD</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:58</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:58</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:53</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-merida-ad/hIB2zZgg/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.08</v>
+        <v>2.64</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:21</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 18:33</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.53</v>
+        <v>3.44</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.7</v>
+        <v>2.76</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:21</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-granada-cf/KYGyxXC7/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.64</v>
+        <v>2.08</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:21</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>02/09/2023 18:33</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.44</v>
+        <v>3.53</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.76</v>
+        <v>3.7</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:21</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-granada-cf/KYGyxXC7/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Atl. Madrid B</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Baleares</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.2</v>
+        <v>3.89</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.4</v>
+        <v>6.63</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>4.61</v>
+        <v>5.77</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-baleares/Yy5J0Gk8/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-atl-madrid/QZNSwgre/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.96</v>
+        <v>3.31</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.89</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>6.63</v>
+        <v>4.4</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.77</v>
+        <v>4.61</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-atl-madrid/QZNSwgre/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-baleares/Yy5J0Gk8/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,14 +2513,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>3.19</v>
+        <v>1.7</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.76</v>
+        <v>1.69</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>09/09/2023 19:40</t>
+          <t>09/09/2023 17:50</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2.95</v>
+        <v>3.29</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.33</v>
+        <v>3.57</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>09/09/2023 19:40</t>
+          <t>09/09/2023 19:48</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.22</v>
+        <v>4.74</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.53</v>
+        <v>5.36</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>09/09/2023 19:40</t>
+          <t>09/09/2023 19:48</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-real-madrid/vwl2hhcl/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-sanluqueno/M1w7iCCf/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.7</v>
+        <v>3.19</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.69</v>
+        <v>2.76</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>09/09/2023 17:50</t>
+          <t>09/09/2023 19:40</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.29</v>
+        <v>2.95</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.57</v>
+        <v>3.33</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>09/09/2023 19:48</t>
+          <t>09/09/2023 19:40</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.74</v>
+        <v>2.22</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>5.36</v>
+        <v>2.53</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>09/09/2023 19:48</t>
+          <t>09/09/2023 19:40</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-sanluqueno/M1w7iCCf/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-real-madrid/vwl2hhcl/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.92</v>
+        <v>2.24</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10/09/2023 08:28</t>
+          <t>09/09/2023 14:59</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2732,11 +2732,11 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10/09/2023 10:05</t>
+          <t>10/09/2023 10:02</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.89</v>
+        <v>3.18</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.79</v>
+        <v>3.57</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>10/09/2023 08:28</t>
+          <t>09/09/2023 14:59</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-melilla/lSX4CDlK/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ad-ceuta/QZqbgYsr/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,63 +2789,63 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="I26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>07/09/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
         <v>3</v>
       </c>
-      <c r="J26" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K26" t="inlineStr">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>10/09/2023 10:03</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O26" t="inlineStr">
         <is>
           <t>07/09/2023 09:13</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>09/09/2023 14:59</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>10/09/2023 10:03</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S26" t="inlineStr">
         <is>
           <t>07/09/2023 09:13</t>
         </is>
       </c>
-      <c r="P26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>10/09/2023 10:02</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>07/09/2023 09:13</t>
-        </is>
-      </c>
       <c r="T26" t="n">
-        <v>3.57</v>
+        <v>2.46</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>09/09/2023 14:59</t>
+          <t>10/09/2023 10:03</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ad-ceuta/QZqbgYsr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-malaga/0hxBjWR0/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.54</v>
+        <v>1.92</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>10/09/2023 10:03</t>
+          <t>10/09/2023 08:28</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>10/09/2023 10:03</t>
+          <t>10/09/2023 10:05</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.78</v>
+        <v>3.89</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.46</v>
+        <v>3.79</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>10/09/2023 10:03</t>
+          <t>10/09/2023 08:28</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-malaga/0hxBjWR0/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-melilla/lSX4CDlK/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.63</v>
+        <v>1.77</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.83</v>
+        <v>1.56</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>10/09/2023 18:40</t>
+          <t>10/09/2023 15:26</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>2.95</v>
+        <v>3.24</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.06</v>
+        <v>3.8</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>10/09/2023 17:31</t>
+          <t>10/09/2023 19:04</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.62</v>
+        <v>4.39</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.65</v>
+        <v>6.5</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>10/09/2023 18:40</t>
+          <t>10/09/2023 19:04</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-cordoba/YJkIlAdD/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-cf-intercity/U3bSbfKK/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.77</v>
+        <v>2.63</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.56</v>
+        <v>2.83</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>10/09/2023 15:26</t>
+          <t>10/09/2023 18:40</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.24</v>
+        <v>2.95</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.8</v>
+        <v>3.06</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>10/09/2023 19:04</t>
+          <t>10/09/2023 17:31</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.39</v>
+        <v>2.62</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>6.5</v>
+        <v>2.65</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>10/09/2023 19:04</t>
+          <t>10/09/2023 18:40</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-cf-intercity/U3bSbfKK/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-cordoba/YJkIlAdD/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.12</v>
+        <v>3.36</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.56</v>
+        <v>3.36</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:57</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.24</v>
+        <v>4.29</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.15</v>
+        <v>3.79</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.36</v>
+        <v>3.56</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:57</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.29</v>
+        <v>3.24</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.79</v>
+        <v>5.15</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.15</v>
+        <v>3.96</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.22</v>
+        <v>3.05</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>17/09/2023 14:55</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2.99</v>
+        <v>3.26</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>17/09/2023 17:33</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.45</v>
+        <v>1.92</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.62</v>
+        <v>2.36</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>17/09/2023 15:15</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>3.96</v>
+        <v>2.15</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 14:55</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 17:33</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1.92</v>
+        <v>3.45</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.36</v>
+        <v>3.62</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 15:15</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.29</v>
+        <v>1.51</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.9</v>
+        <v>1.49</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>2.89</v>
+        <v>3.71</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.22</v>
+        <v>4.07</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.14</v>
+        <v>6.28</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.54</v>
+        <v>7.11</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.51</v>
+        <v>2.29</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.49</v>
+        <v>1.9</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.71</v>
+        <v>2.89</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.07</v>
+        <v>3.22</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>6.28</v>
+        <v>3.14</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>7.11</v>
+        <v>4.54</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,63 +5641,63 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.68</v>
+        <v>3.11</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.5</v>
+        <v>3.82</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.47</v>
+        <v>4.93</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,63 +5733,63 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.08</v>
+        <v>3.26</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.11</v>
+        <v>3.68</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.82</v>
+        <v>4.5</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.93</v>
+        <v>5.47</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>1</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>CF Intercity</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.43</v>
+        <v>3.21</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.62</v>
+        <v>3.42</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>07/10/2023 13:28</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>2.88</v>
+        <v>3.04</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>08/10/2023 10:02</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.93</v>
+        <v>2.23</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.05</v>
+        <v>2.24</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>08/10/2023 06:53</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cf-intercity/tn6OMf8d/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>2</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Ceuta</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
       <c r="J65" t="n">
-        <v>3.5</v>
+        <v>2.43</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,48 +6392,48 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.19</v>
+        <v>2.62</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="N65" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
         <v>3.05</v>
       </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>05/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="P65" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>08/10/2023 10:51</t>
-        </is>
-      </c>
-      <c r="R65" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>05/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T65" t="n">
-        <v>2.34</v>
-      </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cf-intercity/tn6OMf8d/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>3.21</v>
+        <v>3.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.42</v>
+        <v>3.19</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>07/10/2023 13:28</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.04</v>
+        <v>3.15</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>08/10/2023 10:02</t>
+          <t>08/10/2023 10:51</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.23</v>
+        <v>2.09</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>08/10/2023 06:53</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.75</v>
+        <v>4.18</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.75</v>
+        <v>4.16</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 10:38</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.42</v>
+        <v>3.14</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 10:01</t>
+          <t>22/10/2023 10:03</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.53</v>
+        <v>1.85</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>5.02</v>
+        <v>2</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 04:23</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>4.18</v>
+        <v>1.75</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>4.16</v>
+        <v>1.75</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>22/10/2023 10:38</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.14</v>
+        <v>3.42</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>22/10/2023 10:03</t>
+          <t>22/10/2023 10:01</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>1.85</v>
+        <v>4.53</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2</v>
+        <v>5.02</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>22/10/2023 04:23</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>1.98</v>
+        <v>1.54</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:56</t>
+          <t>29/10/2023 11:54</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.14</v>
+        <v>3.65</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.36</v>
+        <v>3.86</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:56</t>
+          <t>29/10/2023 11:54</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.59</v>
+        <v>5.6</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>3.67</v>
+        <v>6.15</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:56</t>
+          <t>29/10/2023 11:54</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-ad-ceuta/CSRykY8n/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-cf-intercity/0l2NVA8O/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>1.54</v>
+        <v>1.98</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:54</t>
+          <t>29/10/2023 11:56</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.65</v>
+        <v>3.14</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.86</v>
+        <v>3.36</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:54</t>
+          <t>29/10/2023 11:56</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>5.6</v>
+        <v>3.59</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>6.15</v>
+        <v>3.67</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:54</t>
+          <t>29/10/2023 11:56</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-cf-intercity/0l2NVA8O/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-ad-ceuta/CSRykY8n/</t>
         </is>
       </c>
     </row>
@@ -9470,6 +9470,374 @@
       <c r="V98" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-merida-ad/hIB2zZgg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Antequera</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>5</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Granada CF B</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:01</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-granada-cf/bqUmnWh5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45234.75</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Recreativo Huelva</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:47</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:05</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:47</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/recreativo-huelva-cd-san-fernando/KhVqmCwa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45234.83333333334</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Algeciras</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:52</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:52</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:52</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-algeciras/nJu4rlhU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45234.83333333334</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Sanluqueno</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:54</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:54</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:54</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-sanluqueno/QVVulhOh/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.64</v>
+        <v>2.08</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:21</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>02/09/2023 18:33</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.44</v>
+        <v>3.53</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.76</v>
+        <v>3.7</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:21</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-granada-cf/KYGyxXC7/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.08</v>
+        <v>2.64</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:21</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 18:33</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.53</v>
+        <v>3.44</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.7</v>
+        <v>2.76</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:21</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-granada-cf/KYGyxXC7/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.96</v>
+        <v>3.31</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.89</v>
+        <v>3.2</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>6.63</v>
+        <v>4.4</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>5.77</v>
+        <v>4.61</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-atl-madrid/QZNSwgre/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-baleares/Yy5J0Gk8/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Atl. Madrid B</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Baleares</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.2</v>
+        <v>3.89</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.4</v>
+        <v>6.63</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.61</v>
+        <v>5.77</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-baleares/Yy5J0Gk8/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-atl-madrid/QZNSwgre/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.24</v>
+        <v>1.92</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>09/09/2023 14:59</t>
+          <t>10/09/2023 08:28</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2732,11 +2732,11 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10/09/2023 10:02</t>
+          <t>10/09/2023 10:05</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.18</v>
+        <v>3.89</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.57</v>
+        <v>3.79</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>09/09/2023 14:59</t>
+          <t>10/09/2023 08:28</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ad-ceuta/QZqbgYsr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-melilla/lSX4CDlK/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>2.54</v>
+        <v>2.24</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>2.18</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>10/09/2023 10:03</t>
+          <t>09/09/2023 14:59</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>10/09/2023 10:03</t>
+          <t>10/09/2023 10:02</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.78</v>
+        <v>3.18</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.46</v>
+        <v>3.57</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>10/09/2023 10:03</t>
+          <t>09/09/2023 14:59</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-malaga/0hxBjWR0/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ad-ceuta/QZqbgYsr/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>2</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Melilla</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
-        <v>1.92</v>
+        <v>2.54</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>10/09/2023 08:28</t>
+          <t>10/09/2023 10:03</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>10/09/2023 10:05</t>
+          <t>10/09/2023 10:03</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.89</v>
+        <v>2.78</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.79</v>
+        <v>2.46</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>10/09/2023 08:28</t>
+          <t>10/09/2023 10:03</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-melilla/lSX4CDlK/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-malaga/0hxBjWR0/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.77</v>
+        <v>2.63</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.56</v>
+        <v>2.83</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>10/09/2023 15:26</t>
+          <t>10/09/2023 18:40</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.24</v>
+        <v>2.95</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.8</v>
+        <v>3.06</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>10/09/2023 19:04</t>
+          <t>10/09/2023 17:31</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.39</v>
+        <v>2.62</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>6.5</v>
+        <v>2.65</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>10/09/2023 19:04</t>
+          <t>10/09/2023 18:40</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-cf-intercity/U3bSbfKK/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-cordoba/YJkIlAdD/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.63</v>
+        <v>1.77</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.83</v>
+        <v>1.56</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>10/09/2023 18:40</t>
+          <t>10/09/2023 15:26</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>2.95</v>
+        <v>3.24</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.06</v>
+        <v>3.8</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>10/09/2023 17:31</t>
+          <t>10/09/2023 19:04</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.62</v>
+        <v>4.39</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.65</v>
+        <v>6.5</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>10/09/2023 18:40</t>
+          <t>10/09/2023 19:04</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-cordoba/YJkIlAdD/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-cf-intercity/U3bSbfKK/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.36</v>
+        <v>3.56</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:57</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.29</v>
+        <v>3.24</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.79</v>
+        <v>5.15</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.12</v>
+        <v>3.36</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.56</v>
+        <v>3.36</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:57</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.24</v>
+        <v>4.29</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>5.15</v>
+        <v>3.79</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3.96</v>
+        <v>2.15</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 14:55</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 17:33</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.92</v>
+        <v>3.45</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.36</v>
+        <v>3.62</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 15:15</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.15</v>
+        <v>3.96</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.22</v>
+        <v>3.05</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>17/09/2023 14:55</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2.99</v>
+        <v>3.26</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>17/09/2023 17:33</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.45</v>
+        <v>1.92</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.62</v>
+        <v>2.36</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>17/09/2023 15:15</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.51</v>
+        <v>2.29</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.49</v>
+        <v>1.9</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.71</v>
+        <v>2.89</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.07</v>
+        <v>3.22</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>6.28</v>
+        <v>3.14</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>7.11</v>
+        <v>4.54</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2.29</v>
+        <v>1.51</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.9</v>
+        <v>1.49</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>2.89</v>
+        <v>3.71</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.22</v>
+        <v>4.07</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.14</v>
+        <v>6.28</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>4.54</v>
+        <v>7.11</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>1</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>CF Intercity</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>2</v>
-      </c>
       <c r="J65" t="n">
-        <v>2.43</v>
+        <v>3.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.62</v>
+        <v>3.19</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>08/10/2023 10:51</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.93</v>
+        <v>2.09</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.05</v>
+        <v>2.34</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cf-intercity/tn6OMf8d/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>2</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Ceuta</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
       <c r="J66" t="n">
-        <v>3.5</v>
+        <v>2.43</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,48 +6484,48 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.19</v>
+        <v>2.62</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="N66" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
         <v>3.05</v>
       </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>05/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="P66" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>08/10/2023 10:51</t>
-        </is>
-      </c>
-      <c r="R66" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>05/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T66" t="n">
-        <v>2.34</v>
-      </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cf-intercity/tn6OMf8d/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>1.97</v>
+        <v>2.9</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.37</v>
+        <v>2.92</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>15/10/2023 11:58</t>
+          <t>15/10/2023 11:54</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.07</v>
+        <v>2.96</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>15/10/2023 11:58</t>
+          <t>15/10/2023 11:54</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.74</v>
+        <v>2.45</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.33</v>
+        <v>2.43</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>15/10/2023 11:58</t>
+          <t>15/10/2023 11:54</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-algeciras/4KDlbHU2/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-castellon/xEL2zExd/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.59</v>
+        <v>1.97</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.54</v>
+        <v>2.37</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>15/10/2023 11:54</t>
+          <t>15/10/2023 11:58</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.55</v>
+        <v>3.07</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.85</v>
+        <v>2.98</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>15/10/2023 11:54</t>
+          <t>15/10/2023 11:58</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>5.47</v>
+        <v>3.74</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>6.68</v>
+        <v>3.33</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>15/10/2023 11:54</t>
+          <t>15/10/2023 11:58</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-recreativo-huelva/AXrkdeaF/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-algeciras/4KDlbHU2/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>2.9</v>
+        <v>1.59</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.92</v>
+        <v>1.54</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2.96</v>
+        <v>3.55</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.45</v>
+        <v>5.47</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.43</v>
+        <v>6.68</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-castellon/xEL2zExd/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-recreativo-huelva/AXrkdeaF/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.96</v>
+        <v>1.75</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 06:00</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.91</v>
+        <v>3.24</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2.91</v>
+        <v>3.42</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.44</v>
+        <v>4.53</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.59</v>
+        <v>5.02</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 06:00</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-antequera/vBVRtyHP/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>1.75</v>
+        <v>2.96</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 06:00</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.42</v>
+        <v>2.91</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.53</v>
+        <v>2.44</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>5.02</v>
+        <v>2.59</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 06:00</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-antequera/vBVRtyHP/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>2.12</v>
+        <v>1.54</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.26</v>
+        <v>1.57</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>29/10/2023 11:31</t>
+          <t>29/10/2023 11:54</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>2.94</v>
+        <v>3.65</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.04</v>
+        <v>3.86</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>29/10/2023 11:31</t>
+          <t>29/10/2023 11:54</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.45</v>
+        <v>5.6</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.49</v>
+        <v>6.15</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>29/10/2023 11:31</t>
+          <t>29/10/2023 11:54</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-melilla/Mc3JWjgI/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-cf-intercity/0l2NVA8O/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>1.54</v>
+        <v>1.98</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:54</t>
+          <t>29/10/2023 11:56</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.65</v>
+        <v>3.14</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.86</v>
+        <v>3.36</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:54</t>
+          <t>29/10/2023 11:56</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>5.6</v>
+        <v>3.59</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>6.15</v>
+        <v>3.67</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:54</t>
+          <t>29/10/2023 11:56</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-cf-intercity/0l2NVA8O/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-ad-ceuta/CSRykY8n/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.05</v>
+        <v>2.26</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:56</t>
+          <t>29/10/2023 11:31</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.14</v>
+        <v>2.94</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.36</v>
+        <v>3.04</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:56</t>
+          <t>29/10/2023 11:31</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.59</v>
+        <v>3.45</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.67</v>
+        <v>3.49</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:56</t>
+          <t>29/10/2023 11:31</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-ad-ceuta/CSRykY8n/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-melilla/Mc3JWjgI/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,14 +9689,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.75</v>
+        <v>2.43</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>3.01</v>
+        <v>2.17</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>04/11/2023 19:52</t>
+          <t>04/11/2023 19:54</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>2.8</v>
+        <v>3.13</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>04/11/2023 19:52</t>
+          <t>04/11/2023 19:54</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.63</v>
+        <v>2.77</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.56</v>
+        <v>3.6</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>04/11/2023 19:52</t>
+          <t>04/11/2023 19:54</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-algeciras/nJu4rlhU/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-sanluqueno/QVVulhOh/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,63 +9781,247 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:52</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:52</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:52</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-algeciras/nJu4rlhU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45235.47916666666</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Melilla</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Atl. Madrid B</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>05/11/2023 09:24</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>05/11/2023 09:35</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>05/11/2023 09:24</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-atl-madrid/lYM0qUxO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45235.5</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Real Madrid B</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>5</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Baleares</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="K102" t="inlineStr">
+      <c r="J104" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>02/11/2023 08:13</t>
         </is>
       </c>
-      <c r="L102" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>04/11/2023 19:54</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="O102" t="inlineStr">
+      <c r="L104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:20</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O104" t="inlineStr">
         <is>
           <t>02/11/2023 08:13</t>
         </is>
       </c>
-      <c r="P102" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>04/11/2023 19:54</t>
-        </is>
-      </c>
-      <c r="R102" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="S102" t="inlineStr">
+      <c r="P104" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:01</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="S104" t="inlineStr">
         <is>
           <t>02/11/2023 08:13</t>
         </is>
       </c>
-      <c r="T102" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>04/11/2023 19:54</t>
-        </is>
-      </c>
-      <c r="V102" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-sanluqueno/QVVulhOh/</t>
+      <c r="T104" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:20</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-baleares/jX5E2iwn/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,14 +2513,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.7</v>
+        <v>3.19</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.69</v>
+        <v>2.76</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>09/09/2023 17:50</t>
+          <t>09/09/2023 19:40</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.29</v>
+        <v>2.95</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.57</v>
+        <v>3.33</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>09/09/2023 19:48</t>
+          <t>09/09/2023 19:40</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.74</v>
+        <v>2.22</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>5.36</v>
+        <v>2.53</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>09/09/2023 19:48</t>
+          <t>09/09/2023 19:40</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-sanluqueno/M1w7iCCf/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-real-madrid/vwl2hhcl/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.19</v>
+        <v>1.7</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.76</v>
+        <v>1.69</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>09/09/2023 19:40</t>
+          <t>09/09/2023 17:50</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2.95</v>
+        <v>3.29</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.33</v>
+        <v>3.57</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>09/09/2023 19:40</t>
+          <t>09/09/2023 19:48</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.22</v>
+        <v>4.74</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.53</v>
+        <v>5.36</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>09/09/2023 19:40</t>
+          <t>09/09/2023 19:48</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-real-madrid/vwl2hhcl/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-sanluqueno/M1w7iCCf/</t>
         </is>
       </c>
     </row>
@@ -10022,6 +10022,374 @@
       <c r="V104" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-baleares/jX5E2iwn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45235.66666666666</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:36</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:36</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:36</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-murcia/GKOhoj8B/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45235.75</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Alcoyano</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:39</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:39</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:39</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-alcoyano/fBNdpANH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45235.83333333334</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:04</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:04</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:04</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-cordoba/Ct7A3XNu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45235.83333333334</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Merida AD</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>2</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>05/11/2023 09:42</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:02</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>05/11/2023 09:42</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-ud-ibiza/K6AI1Bhh/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V108"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.08</v>
+        <v>2.64</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:21</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 18:33</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.53</v>
+        <v>3.44</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.7</v>
+        <v>2.76</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:21</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-granada-cf/KYGyxXC7/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.64</v>
+        <v>2.08</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:21</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>02/09/2023 18:33</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.44</v>
+        <v>3.53</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.76</v>
+        <v>3.7</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:21</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-granada-cf/KYGyxXC7/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Atl. Madrid B</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Baleares</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.2</v>
+        <v>3.89</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.4</v>
+        <v>6.63</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>4.61</v>
+        <v>5.77</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-baleares/Yy5J0Gk8/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-atl-madrid/QZNSwgre/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.96</v>
+        <v>3.31</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.89</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>6.63</v>
+        <v>4.4</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.77</v>
+        <v>4.61</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-atl-madrid/QZNSwgre/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-baleares/Yy5J0Gk8/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,14 +2513,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>3.19</v>
+        <v>1.7</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.76</v>
+        <v>1.69</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>09/09/2023 19:40</t>
+          <t>09/09/2023 17:50</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2.95</v>
+        <v>3.29</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.33</v>
+        <v>3.57</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>09/09/2023 19:40</t>
+          <t>09/09/2023 19:48</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.22</v>
+        <v>4.74</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.53</v>
+        <v>5.36</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>09/09/2023 19:40</t>
+          <t>09/09/2023 19:48</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-real-madrid/vwl2hhcl/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-sanluqueno/M1w7iCCf/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.7</v>
+        <v>3.19</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.69</v>
+        <v>2.76</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>09/09/2023 17:50</t>
+          <t>09/09/2023 19:40</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.29</v>
+        <v>2.95</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.57</v>
+        <v>3.33</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>09/09/2023 19:48</t>
+          <t>09/09/2023 19:40</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.74</v>
+        <v>2.22</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>5.36</v>
+        <v>2.53</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>09/09/2023 19:48</t>
+          <t>09/09/2023 19:40</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-sanluqueno/M1w7iCCf/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-real-madrid/vwl2hhcl/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.92</v>
+        <v>2.24</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10/09/2023 08:28</t>
+          <t>09/09/2023 14:59</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2732,11 +2732,11 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10/09/2023 10:05</t>
+          <t>10/09/2023 10:02</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.89</v>
+        <v>3.18</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.79</v>
+        <v>3.57</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>10/09/2023 08:28</t>
+          <t>09/09/2023 14:59</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-melilla/lSX4CDlK/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ad-ceuta/QZqbgYsr/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,63 +2789,63 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="I26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>07/09/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
         <v>3</v>
       </c>
-      <c r="J26" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K26" t="inlineStr">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>10/09/2023 10:03</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O26" t="inlineStr">
         <is>
           <t>07/09/2023 09:13</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>09/09/2023 14:59</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>10/09/2023 10:03</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S26" t="inlineStr">
         <is>
           <t>07/09/2023 09:13</t>
         </is>
       </c>
-      <c r="P26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>10/09/2023 10:02</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>07/09/2023 09:13</t>
-        </is>
-      </c>
       <c r="T26" t="n">
-        <v>3.57</v>
+        <v>2.46</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>09/09/2023 14:59</t>
+          <t>10/09/2023 10:03</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ad-ceuta/QZqbgYsr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-malaga/0hxBjWR0/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.54</v>
+        <v>1.92</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>10/09/2023 10:03</t>
+          <t>10/09/2023 08:28</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>10/09/2023 10:03</t>
+          <t>10/09/2023 10:05</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.78</v>
+        <v>3.89</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.46</v>
+        <v>3.79</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>10/09/2023 10:03</t>
+          <t>10/09/2023 08:28</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-malaga/0hxBjWR0/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-melilla/lSX4CDlK/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.63</v>
+        <v>1.77</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.83</v>
+        <v>1.56</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>10/09/2023 18:40</t>
+          <t>10/09/2023 15:26</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>2.95</v>
+        <v>3.24</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.06</v>
+        <v>3.8</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>10/09/2023 17:31</t>
+          <t>10/09/2023 19:04</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.62</v>
+        <v>4.39</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.65</v>
+        <v>6.5</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>10/09/2023 18:40</t>
+          <t>10/09/2023 19:04</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-cordoba/YJkIlAdD/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-cf-intercity/U3bSbfKK/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.77</v>
+        <v>2.63</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.56</v>
+        <v>2.83</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>10/09/2023 15:26</t>
+          <t>10/09/2023 18:40</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.24</v>
+        <v>2.95</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.8</v>
+        <v>3.06</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>10/09/2023 19:04</t>
+          <t>10/09/2023 17:31</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.39</v>
+        <v>2.62</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>6.5</v>
+        <v>2.65</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>10/09/2023 19:04</t>
+          <t>10/09/2023 18:40</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-cf-intercity/U3bSbfKK/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-cordoba/YJkIlAdD/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.12</v>
+        <v>3.36</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.56</v>
+        <v>3.36</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:57</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.24</v>
+        <v>4.29</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.15</v>
+        <v>3.79</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.36</v>
+        <v>3.56</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:57</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.29</v>
+        <v>3.24</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.79</v>
+        <v>5.15</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.15</v>
+        <v>3.96</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.22</v>
+        <v>3.05</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>17/09/2023 14:55</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2.99</v>
+        <v>3.26</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>17/09/2023 17:33</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.45</v>
+        <v>1.92</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.62</v>
+        <v>2.36</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>17/09/2023 15:15</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>3.96</v>
+        <v>2.15</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 14:55</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 17:33</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1.92</v>
+        <v>3.45</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.36</v>
+        <v>3.62</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 15:15</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.29</v>
+        <v>1.51</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.9</v>
+        <v>1.49</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>2.89</v>
+        <v>3.71</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.22</v>
+        <v>4.07</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.14</v>
+        <v>6.28</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.54</v>
+        <v>7.11</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.51</v>
+        <v>2.29</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.49</v>
+        <v>1.9</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.71</v>
+        <v>2.89</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.07</v>
+        <v>3.22</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>6.28</v>
+        <v>3.14</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>7.11</v>
+        <v>4.54</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,14 +8585,14 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.79</v>
+        <v>3.83</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.02</v>
+        <v>4.68</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>28/10/2023 15:42</t>
+          <t>28/10/2023 15:54</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>2.99</v>
+        <v>3.3</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>2.84</v>
+        <v>3.58</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>28/10/2023 15:42</t>
+          <t>28/10/2023 15:54</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.51</v>
+        <v>1.86</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.67</v>
+        <v>1.78</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>28/10/2023 15:42</t>
+          <t>28/10/2023 15:54</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-sanluqueno/QV9AYCO5/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-castellon/Sfj5ffoP/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>3.83</v>
+        <v>2.79</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>4.68</v>
+        <v>3.02</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>28/10/2023 15:54</t>
+          <t>28/10/2023 15:42</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.3</v>
+        <v>2.99</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.58</v>
+        <v>2.84</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>28/10/2023 15:54</t>
+          <t>28/10/2023 15:42</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>1.86</v>
+        <v>2.51</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>1.78</v>
+        <v>2.67</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>28/10/2023 15:54</t>
+          <t>28/10/2023 15:42</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-castellon/Sfj5ffoP/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-sanluqueno/QV9AYCO5/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.54</v>
+        <v>2.12</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.57</v>
+        <v>2.26</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>29/10/2023 11:54</t>
+          <t>29/10/2023 11:31</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.65</v>
+        <v>2.94</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.86</v>
+        <v>3.04</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>29/10/2023 11:54</t>
+          <t>29/10/2023 11:31</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>5.6</v>
+        <v>3.45</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>6.15</v>
+        <v>3.49</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>29/10/2023 11:54</t>
+          <t>29/10/2023 11:31</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-cf-intercity/0l2NVA8O/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-melilla/Mc3JWjgI/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>2.12</v>
+        <v>1.54</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.26</v>
+        <v>1.57</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:31</t>
+          <t>29/10/2023 11:54</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>2.94</v>
+        <v>3.65</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.04</v>
+        <v>3.86</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:31</t>
+          <t>29/10/2023 11:54</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.45</v>
+        <v>5.6</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.49</v>
+        <v>6.15</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:31</t>
+          <t>29/10/2023 11:54</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-melilla/Mc3JWjgI/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-cf-intercity/0l2NVA8O/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Recreativo Huelva</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Malaga</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>2</v>
-      </c>
       <c r="J96" t="n">
-        <v>3.11</v>
+        <v>1.74</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.7</v>
+        <v>1.52</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2.9</v>
+        <v>3.29</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>2.74</v>
+        <v>4.03</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.3</v>
+        <v>4.71</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.1</v>
+        <v>6.68</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-malaga/vZDEXWwC/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-recreativo-huelva/W8A6Zh9a/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>1.74</v>
+        <v>3.11</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.52</v>
+        <v>2.7</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.29</v>
+        <v>2.9</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>4.03</v>
+        <v>2.74</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>4.71</v>
+        <v>2.3</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>6.68</v>
+        <v>3.1</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-recreativo-huelva/W8A6Zh9a/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-malaga/vZDEXWwC/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,14 +9689,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>2.43</v>
+        <v>2.75</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.17</v>
+        <v>3.01</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>04/11/2023 19:54</t>
+          <t>04/11/2023 19:52</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.13</v>
+        <v>2.8</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>04/11/2023 19:54</t>
+          <t>04/11/2023 19:52</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.6</v>
+        <v>2.56</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>04/11/2023 19:54</t>
+          <t>04/11/2023 19:52</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-sanluqueno/QVVulhOh/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-algeciras/nJu4rlhU/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2.75</v>
+        <v>2.43</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.01</v>
+        <v>2.17</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>04/11/2023 19:52</t>
+          <t>04/11/2023 19:54</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>2.8</v>
+        <v>3.13</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>04/11/2023 19:52</t>
+          <t>04/11/2023 19:54</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.63</v>
+        <v>2.77</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.56</v>
+        <v>3.6</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>04/11/2023 19:52</t>
+          <t>04/11/2023 19:54</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-algeciras/nJu4rlhU/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-sanluqueno/QVVulhOh/</t>
         </is>
       </c>
     </row>
@@ -10390,6 +10390,282 @@
       <c r="V108" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-ud-ibiza/K6AI1Bhh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Antequera</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:33</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-antequera/O0hpGA7o/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45241.75</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Atl. Madrid B</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Recreativo Huelva</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:32</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:32</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:32</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-recreativo-huelva/tMbRakN4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45241.83333333334</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Algeciras</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>11/11/2023 19:59</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>11/11/2023 19:59</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>11/11/2023 19:59</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-cf-intercity/fP2Vb9xB/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.64</v>
+        <v>2.08</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:21</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>02/09/2023 18:33</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.44</v>
+        <v>3.53</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.76</v>
+        <v>3.7</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:21</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-granada-cf/KYGyxXC7/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.08</v>
+        <v>2.64</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:21</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 18:33</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.53</v>
+        <v>3.44</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.7</v>
+        <v>2.76</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:21</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-granada-cf/KYGyxXC7/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.24</v>
+        <v>1.92</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>09/09/2023 14:59</t>
+          <t>10/09/2023 08:28</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2732,11 +2732,11 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10/09/2023 10:02</t>
+          <t>10/09/2023 10:05</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.18</v>
+        <v>3.89</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.57</v>
+        <v>3.79</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>09/09/2023 14:59</t>
+          <t>10/09/2023 08:28</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ad-ceuta/QZqbgYsr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-melilla/lSX4CDlK/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>10/09/2023 11:42</t>
+          <t>09/09/2023 14:59</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>10/09/2023 10:05</t>
+          <t>10/09/2023 10:02</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.91</v>
+        <v>3.18</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.02</v>
+        <v>3.57</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>10/09/2023 11:42</t>
+          <t>09/09/2023 14:59</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-ud-ibiza/8fcWcEZQ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ad-ceuta/QZqbgYsr/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>2</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Melilla</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
-        <v>1.92</v>
+        <v>2.42</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>10/09/2023 08:28</t>
+          <t>10/09/2023 11:42</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.89</v>
+        <v>2.91</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.79</v>
+        <v>3.02</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>10/09/2023 08:28</t>
+          <t>10/09/2023 11:42</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-melilla/lSX4CDlK/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-ud-ibiza/8fcWcEZQ/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.77</v>
+        <v>2.63</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.56</v>
+        <v>2.83</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>10/09/2023 15:26</t>
+          <t>10/09/2023 18:40</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.24</v>
+        <v>2.95</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.8</v>
+        <v>3.06</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>10/09/2023 19:04</t>
+          <t>10/09/2023 17:31</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.39</v>
+        <v>2.62</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>6.5</v>
+        <v>2.65</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>10/09/2023 19:04</t>
+          <t>10/09/2023 18:40</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-cf-intercity/U3bSbfKK/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-cordoba/YJkIlAdD/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.63</v>
+        <v>1.77</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.83</v>
+        <v>1.56</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>10/09/2023 18:40</t>
+          <t>10/09/2023 15:26</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>2.95</v>
+        <v>3.24</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.06</v>
+        <v>3.8</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>10/09/2023 17:31</t>
+          <t>10/09/2023 19:04</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.62</v>
+        <v>4.39</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.65</v>
+        <v>6.5</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>10/09/2023 18:40</t>
+          <t>10/09/2023 19:04</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-cordoba/YJkIlAdD/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-cf-intercity/U3bSbfKK/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.36</v>
+        <v>3.56</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:57</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.29</v>
+        <v>3.24</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.79</v>
+        <v>5.15</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.12</v>
+        <v>3.36</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.56</v>
+        <v>3.36</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:57</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.24</v>
+        <v>4.29</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>5.15</v>
+        <v>3.79</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3.96</v>
+        <v>2.15</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 14:55</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 17:33</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.92</v>
+        <v>3.45</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.36</v>
+        <v>3.62</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 15:15</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.15</v>
+        <v>3.96</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.22</v>
+        <v>3.05</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>17/09/2023 14:55</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2.99</v>
+        <v>3.26</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>17/09/2023 17:33</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.45</v>
+        <v>1.92</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.62</v>
+        <v>2.36</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>17/09/2023 15:15</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.01</v>
+        <v>2.29</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.04</v>
+        <v>2.89</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.49</v>
+        <v>3.22</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.64</v>
+        <v>3.14</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.62</v>
+        <v>4.54</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-baleares/fR5AFw1T/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>2.29</v>
+        <v>2.01</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.22</v>
+        <v>3.49</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.14</v>
+        <v>3.64</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>4.54</v>
+        <v>4.62</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-baleares/fR5AFw1T/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1.75</v>
+        <v>2.96</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 06:00</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.42</v>
+        <v>2.91</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.53</v>
+        <v>2.44</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>5.02</v>
+        <v>2.59</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 06:00</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-antequera/vBVRtyHP/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>4.18</v>
+        <v>1.75</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>4.16</v>
+        <v>1.75</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 10:38</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.14</v>
+        <v>3.42</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 10:03</t>
+          <t>22/10/2023 10:01</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.85</v>
+        <v>4.53</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2</v>
+        <v>5.02</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 04:23</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.96</v>
+        <v>4.18</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>4.16</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>22/10/2023 06:00</t>
+          <t>22/10/2023 10:38</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>2.91</v>
+        <v>3.2</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>2.91</v>
+        <v>3.14</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>22/10/2023 10:01</t>
+          <t>22/10/2023 10:03</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.44</v>
+        <v>1.85</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.59</v>
+        <v>2</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>22/10/2023 06:00</t>
+          <t>22/10/2023 04:23</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-antequera/vBVRtyHP/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>1.74</v>
+        <v>3.11</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.52</v>
+        <v>2.7</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.29</v>
+        <v>2.9</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4.03</v>
+        <v>2.74</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.71</v>
+        <v>2.3</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>6.68</v>
+        <v>3.1</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-recreativo-huelva/W8A6Zh9a/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-malaga/vZDEXWwC/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Recreativo Huelva</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Malaga</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
-        <v>2</v>
-      </c>
       <c r="J97" t="n">
-        <v>3.11</v>
+        <v>1.74</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.7</v>
+        <v>1.52</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2.9</v>
+        <v>3.29</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>2.74</v>
+        <v>4.03</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.3</v>
+        <v>4.71</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.1</v>
+        <v>6.68</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-malaga/vZDEXWwC/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-recreativo-huelva/W8A6Zh9a/</t>
         </is>
       </c>
     </row>
@@ -10666,6 +10666,374 @@
       <c r="V111" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-cf-intercity/fP2Vb9xB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45242.5</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>3</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>3</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:56</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-ad-ceuta/KSogElxb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45242.5</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Alcoyano</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>3</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Melilla</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:55</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:55</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:55</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-melilla/bc9M0V7b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45242.5</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Baleares</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Merida AD</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:30</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>12/11/2023 10:01</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:30</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-merida-ad/Sx1wcm7N/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45242.5</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sanluqueno</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>3</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>2</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>11/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:45</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>11/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:45</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>11/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:45</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-linares/x4dlFUMi/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V115"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.08</v>
+        <v>2.64</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:21</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 18:33</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.53</v>
+        <v>3.44</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.7</v>
+        <v>2.76</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:21</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-granada-cf/KYGyxXC7/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.64</v>
+        <v>2.08</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:21</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>02/09/2023 18:33</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.44</v>
+        <v>3.53</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.76</v>
+        <v>3.7</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:21</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-granada-cf/KYGyxXC7/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
         <v>2</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Melilla</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
       <c r="J25" t="n">
-        <v>1.92</v>
+        <v>2.54</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10/09/2023 08:28</t>
+          <t>10/09/2023 10:03</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10/09/2023 10:05</t>
+          <t>10/09/2023 10:03</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.89</v>
+        <v>2.78</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.79</v>
+        <v>2.46</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>10/09/2023 08:28</t>
+          <t>10/09/2023 10:03</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-melilla/lSX4CDlK/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-malaga/0hxBjWR0/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,48 +2804,48 @@
         </is>
       </c>
       <c r="L26" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>10/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>07/09/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
         <v>3</v>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>10/09/2023 10:03</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>10/09/2023 10:05</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S26" t="inlineStr">
         <is>
           <t>07/09/2023 09:13</t>
         </is>
       </c>
-      <c r="P26" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>10/09/2023 10:03</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>07/09/2023 09:13</t>
-        </is>
-      </c>
       <c r="T26" t="n">
-        <v>2.46</v>
+        <v>3.02</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>10/09/2023 10:03</t>
+          <t>10/09/2023 11:42</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-malaga/0hxBjWR0/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-ud-ibiza/8fcWcEZQ/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Melilla</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>UD Ibiza</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>2</v>
-      </c>
       <c r="J28" t="n">
-        <v>2.42</v>
+        <v>1.92</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>10/09/2023 11:42</t>
+          <t>10/09/2023 08:28</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.91</v>
+        <v>3.89</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.02</v>
+        <v>3.79</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>10/09/2023 11:42</t>
+          <t>10/09/2023 08:28</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-ud-ibiza/8fcWcEZQ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-melilla/lSX4CDlK/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.63</v>
+        <v>1.77</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.83</v>
+        <v>1.56</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>10/09/2023 18:40</t>
+          <t>10/09/2023 15:26</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>2.95</v>
+        <v>3.24</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.06</v>
+        <v>3.8</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>10/09/2023 17:31</t>
+          <t>10/09/2023 19:04</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.62</v>
+        <v>4.39</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.65</v>
+        <v>6.5</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>10/09/2023 18:40</t>
+          <t>10/09/2023 19:04</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-cordoba/YJkIlAdD/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-cf-intercity/U3bSbfKK/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.77</v>
+        <v>2.63</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.56</v>
+        <v>2.83</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>10/09/2023 15:26</t>
+          <t>10/09/2023 18:40</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.24</v>
+        <v>2.95</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.8</v>
+        <v>3.06</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>10/09/2023 19:04</t>
+          <t>10/09/2023 17:31</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.39</v>
+        <v>2.62</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>6.5</v>
+        <v>2.65</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>10/09/2023 19:04</t>
+          <t>10/09/2023 18:40</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-cf-intercity/U3bSbfKK/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-cordoba/YJkIlAdD/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Granada CF B</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Linares</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
       <c r="J33" t="n">
-        <v>1.79</v>
+        <v>1.35</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>16/09/2023 21:19</t>
+          <t>16/09/2023 21:14</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.39</v>
+        <v>4.36</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.74</v>
+        <v>4.09</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>16/09/2023 21:19</t>
+          <t>16/09/2023 21:14</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>4.03</v>
+        <v>7.75</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>4.91</v>
+        <v>7.48</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>16/09/2023 21:19</t>
+          <t>16/09/2023 21:14</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-linares/2ZDu6BRm/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-granada-cf/8x401mtJ/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1.35</v>
+        <v>1.79</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16/09/2023 21:14</t>
+          <t>16/09/2023 21:19</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.36</v>
+        <v>3.39</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>4.09</v>
+        <v>3.74</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>16/09/2023 21:14</t>
+          <t>16/09/2023 21:19</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>7.75</v>
+        <v>4.03</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>7.48</v>
+        <v>4.91</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>16/09/2023 21:14</t>
+          <t>16/09/2023 21:19</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-granada-cf/8x401mtJ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-linares/2ZDu6BRm/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.15</v>
+        <v>3.96</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.22</v>
+        <v>3.05</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>17/09/2023 14:55</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2.99</v>
+        <v>3.26</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>17/09/2023 17:33</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.45</v>
+        <v>1.92</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.62</v>
+        <v>2.36</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>17/09/2023 15:15</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>3.96</v>
+        <v>2.15</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 14:55</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 17:33</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1.92</v>
+        <v>3.45</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.36</v>
+        <v>3.62</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 15:15</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.51</v>
+        <v>2.29</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.49</v>
+        <v>1.9</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.71</v>
+        <v>2.89</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.07</v>
+        <v>3.22</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>6.28</v>
+        <v>3.14</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>7.11</v>
+        <v>4.54</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2.29</v>
+        <v>2.01</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.22</v>
+        <v>3.49</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.14</v>
+        <v>3.64</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.54</v>
+        <v>4.62</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-baleares/fR5AFw1T/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2.01</v>
+        <v>1.51</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.8</v>
+        <v>1.49</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.04</v>
+        <v>3.71</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.49</v>
+        <v>4.07</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.64</v>
+        <v>6.28</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>4.62</v>
+        <v>7.11</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-baleares/fR5AFw1T/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,63 +5641,63 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.08</v>
+        <v>3.26</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.11</v>
+        <v>3.68</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.82</v>
+        <v>4.5</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.93</v>
+        <v>5.47</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,63 +5733,63 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.68</v>
+        <v>3.11</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.5</v>
+        <v>3.82</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>5.47</v>
+        <v>4.93</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>2.9</v>
+        <v>1.59</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.92</v>
+        <v>1.54</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.96</v>
+        <v>3.55</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.45</v>
+        <v>5.47</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.43</v>
+        <v>6.68</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-castellon/xEL2zExd/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-recreativo-huelva/AXrkdeaF/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>1.59</v>
+        <v>2.9</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.54</v>
+        <v>2.92</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>5.47</v>
+        <v>2.45</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>6.68</v>
+        <v>2.43</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-recreativo-huelva/AXrkdeaF/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-castellon/xEL2zExd/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.96</v>
+        <v>1.75</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 06:00</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.91</v>
+        <v>3.24</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2.91</v>
+        <v>3.42</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.44</v>
+        <v>4.53</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.59</v>
+        <v>5.02</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 06:00</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-antequera/vBVRtyHP/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.75</v>
+        <v>4.18</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.75</v>
+        <v>4.16</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 10:38</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.42</v>
+        <v>3.14</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 10:01</t>
+          <t>22/10/2023 10:03</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.53</v>
+        <v>1.85</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>5.02</v>
+        <v>2</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 04:23</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>4.18</v>
+        <v>2.96</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>4.16</v>
+        <v>3</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>22/10/2023 10:38</t>
+          <t>22/10/2023 06:00</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.2</v>
+        <v>2.91</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.14</v>
+        <v>2.91</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>22/10/2023 10:03</t>
+          <t>22/10/2023 10:01</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>1.85</v>
+        <v>2.44</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2</v>
+        <v>2.59</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>22/10/2023 04:23</t>
+          <t>22/10/2023 06:00</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-antequera/vBVRtyHP/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,14 +8585,14 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>3.83</v>
+        <v>2.79</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>4.68</v>
+        <v>3.02</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>28/10/2023 15:54</t>
+          <t>28/10/2023 15:42</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.3</v>
+        <v>2.99</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.58</v>
+        <v>2.84</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>28/10/2023 15:54</t>
+          <t>28/10/2023 15:42</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>1.86</v>
+        <v>2.51</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>1.78</v>
+        <v>2.67</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>28/10/2023 15:54</t>
+          <t>28/10/2023 15:42</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-castellon/Sfj5ffoP/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-sanluqueno/QV9AYCO5/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.79</v>
+        <v>3.83</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.02</v>
+        <v>4.68</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>28/10/2023 15:42</t>
+          <t>28/10/2023 15:54</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>2.99</v>
+        <v>3.3</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>2.84</v>
+        <v>3.58</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>28/10/2023 15:42</t>
+          <t>28/10/2023 15:54</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.51</v>
+        <v>1.86</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.67</v>
+        <v>1.78</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>28/10/2023 15:42</t>
+          <t>28/10/2023 15:54</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-sanluqueno/QV9AYCO5/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-castellon/Sfj5ffoP/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>2.12</v>
+        <v>1.54</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.26</v>
+        <v>1.57</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>29/10/2023 11:31</t>
+          <t>29/10/2023 11:54</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>2.94</v>
+        <v>3.65</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.04</v>
+        <v>3.86</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>29/10/2023 11:31</t>
+          <t>29/10/2023 11:54</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.45</v>
+        <v>5.6</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.49</v>
+        <v>6.15</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>29/10/2023 11:31</t>
+          <t>29/10/2023 11:54</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-melilla/Mc3JWjgI/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-cf-intercity/0l2NVA8O/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.05</v>
+        <v>2.26</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:56</t>
+          <t>29/10/2023 11:31</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.14</v>
+        <v>2.94</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.36</v>
+        <v>3.04</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:56</t>
+          <t>29/10/2023 11:31</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.59</v>
+        <v>3.45</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>3.67</v>
+        <v>3.49</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:56</t>
+          <t>29/10/2023 11:31</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-ad-ceuta/CSRykY8n/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-melilla/Mc3JWjgI/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>1.54</v>
+        <v>1.98</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:54</t>
+          <t>29/10/2023 11:56</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.65</v>
+        <v>3.14</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.86</v>
+        <v>3.36</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:54</t>
+          <t>29/10/2023 11:56</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>5.6</v>
+        <v>3.59</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>6.15</v>
+        <v>3.67</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:54</t>
+          <t>29/10/2023 11:56</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-cf-intercity/0l2NVA8O/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-ad-ceuta/CSRykY8n/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,14 +9689,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.75</v>
+        <v>2.43</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>3.01</v>
+        <v>2.17</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>04/11/2023 19:52</t>
+          <t>04/11/2023 19:54</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>2.8</v>
+        <v>3.13</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>04/11/2023 19:52</t>
+          <t>04/11/2023 19:54</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.63</v>
+        <v>2.77</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.56</v>
+        <v>3.6</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>04/11/2023 19:52</t>
+          <t>04/11/2023 19:54</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-algeciras/nJu4rlhU/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-sanluqueno/QVVulhOh/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>2.43</v>
+        <v>2.75</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.17</v>
+        <v>3.01</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>04/11/2023 19:54</t>
+          <t>04/11/2023 19:52</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.13</v>
+        <v>2.8</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>04/11/2023 19:54</t>
+          <t>04/11/2023 19:52</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.6</v>
+        <v>2.56</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>04/11/2023 19:54</t>
+          <t>04/11/2023 19:52</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-sanluqueno/QVVulhOh/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-algeciras/nJu4rlhU/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
-        <v>1.98</v>
+        <v>3.88</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.83</v>
+        <v>4.12</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>05/11/2023 18:04</t>
+          <t>05/11/2023 09:42</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.47</v>
+        <v>3.19</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.53</v>
+        <v>3.34</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>05/11/2023 18:04</t>
+          <t>05/11/2023 18:02</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.36</v>
+        <v>1.88</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>4.36</v>
+        <v>1.92</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>05/11/2023 18:04</t>
+          <t>05/11/2023 09:42</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-cordoba/Ct7A3XNu/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-ud-ibiza/K6AI1Bhh/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>3.88</v>
+        <v>1.98</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>4.12</v>
+        <v>1.83</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>05/11/2023 09:42</t>
+          <t>05/11/2023 18:04</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.19</v>
+        <v>3.47</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.34</v>
+        <v>3.53</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>05/11/2023 18:02</t>
+          <t>05/11/2023 18:04</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>1.88</v>
+        <v>3.36</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>1.92</v>
+        <v>4.36</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>05/11/2023 09:42</t>
+          <t>05/11/2023 18:04</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-ud-ibiza/K6AI1Bhh/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-cordoba/Ct7A3XNu/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,14 +10701,14 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1.97</v>
+        <v>1.77</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>12/11/2023 11:58</t>
+          <t>12/11/2023 11:55</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.02</v>
+        <v>3.12</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.47</v>
+        <v>3.15</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>12/11/2023 11:58</t>
+          <t>12/11/2023 11:55</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.79</v>
+        <v>4.63</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>5.15</v>
+        <v>5.34</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>12/11/2023 11:56</t>
+          <t>12/11/2023 11:55</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-ad-ceuta/KSogElxb/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-melilla/bc9M0V7b/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>1.77</v>
+        <v>2.25</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.81</v>
+        <v>2.46</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>12/11/2023 11:55</t>
+          <t>12/11/2023 11:30</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>12/11/2023 11:55</t>
+          <t>12/11/2023 10:01</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>4.63</v>
+        <v>3.26</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>5.34</v>
+        <v>3.23</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>12/11/2023 11:55</t>
+          <t>12/11/2023 11:30</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-melilla/bc9M0V7b/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-merida-ad/Sx1wcm7N/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J114" t="n">
-        <v>2.25</v>
+        <v>1.97</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.46</v>
+        <v>1.74</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>12/11/2023 11:30</t>
+          <t>12/11/2023 11:58</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>2.94</v>
+        <v>3.02</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>2.94</v>
+        <v>3.47</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>12/11/2023 10:01</t>
+          <t>12/11/2023 11:58</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.26</v>
+        <v>3.79</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>3.23</v>
+        <v>5.15</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>12/11/2023 11:30</t>
+          <t>12/11/2023 11:56</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-merida-ad/Sx1wcm7N/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-ad-ceuta/KSogElxb/</t>
         </is>
       </c>
     </row>
@@ -11034,6 +11034,282 @@
       <c r="V115" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-linares/x4dlFUMi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45242.66666666666</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:20</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-malaga/8lIzd7MT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45242.75</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Granada CF B</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>3</v>
+      </c>
+      <c r="J117" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:00</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:00</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:00</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-castellon/Ac42iRUp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45242.83333333334</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Real Madrid B</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:45</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:45</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:42</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-real-madrid/ln2ZcTiH/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V118"/>
+  <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>2.56</v>
+        <v>2.05</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.33</v>
+        <v>2.08</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>02/09/2023 20:29</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>2.84</v>
+        <v>3.13</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.02</v>
+        <v>3.25</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>02/09/2023 18:31</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.8</v>
+        <v>3.53</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>3.36</v>
+        <v>3.7</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>02/09/2023 20:29</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-merida-ad/CS3Naz5E/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.05</v>
+        <v>2.56</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.08</v>
+        <v>2.33</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:29</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.13</v>
+        <v>2.84</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>3.02</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 18:31</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.53</v>
+        <v>2.8</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.7</v>
+        <v>3.36</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:29</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-merida-ad/CS3Naz5E/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.58</v>
+        <v>2.17</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>03/09/2023 12:15</t>
+          <t>03/09/2023 11:09</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>03/09/2023 18:34</t>
+          <t>03/09/2023 18:31</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.68</v>
+        <v>3.04</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.52</v>
+        <v>3.26</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>03/09/2023 12:15</t>
+          <t>03/09/2023 11:09</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-castellon/I9KKuFDr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-recreativo-huelva/G0Yhpe5R/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.17</v>
+        <v>2.58</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>03/09/2023 11:09</t>
+          <t>03/09/2023 12:15</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.12</v>
+        <v>3.01</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>03/09/2023 18:31</t>
+          <t>03/09/2023 18:34</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.04</v>
+        <v>2.68</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.26</v>
+        <v>2.52</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>03/09/2023 11:09</t>
+          <t>03/09/2023 12:15</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-recreativo-huelva/G0Yhpe5R/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-castellon/I9KKuFDr/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Real Madrid B</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
       <c r="J19" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.86</v>
+        <v>2.1</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>02/09/2023 21:43</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2180,11 +2180,11 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>03/09/2023 19:32</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.51</v>
+        <v>3.16</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.6</v>
+        <v>3.79</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>02/09/2023 21:43</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-cd-san-fernando/KYvpnHzF/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Real Madrid B</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>2</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>San Fernando</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
       <c r="J20" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.1</v>
+        <v>2.86</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>02/09/2023 21:43</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2272,11 +2272,11 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>03/09/2023 19:32</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.16</v>
+        <v>2.51</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.79</v>
+        <v>2.6</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>02/09/2023 21:43</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-cd-san-fernando/KYvpnHzF/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,48 +2712,48 @@
         </is>
       </c>
       <c r="L25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>10/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>07/09/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
         <v>3</v>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>10/09/2023 10:03</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>10/09/2023 10:05</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S25" t="inlineStr">
         <is>
           <t>07/09/2023 09:13</t>
         </is>
       </c>
-      <c r="P25" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>10/09/2023 10:03</t>
-        </is>
-      </c>
-      <c r="R25" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>07/09/2023 09:13</t>
-        </is>
-      </c>
       <c r="T25" t="n">
-        <v>2.46</v>
+        <v>3.02</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>10/09/2023 10:03</t>
+          <t>10/09/2023 11:42</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-malaga/0hxBjWR0/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-ud-ibiza/8fcWcEZQ/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>10/09/2023 11:42</t>
+          <t>09/09/2023 14:59</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>10/09/2023 10:05</t>
+          <t>10/09/2023 10:02</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.91</v>
+        <v>3.18</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.02</v>
+        <v>3.57</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>10/09/2023 11:42</t>
+          <t>09/09/2023 14:59</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-ud-ibiza/8fcWcEZQ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ad-ceuta/QZqbgYsr/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,63 +2881,63 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>07/09/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
         <v>3</v>
       </c>
-      <c r="J27" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K27" t="inlineStr">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>10/09/2023 10:03</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>07/09/2023 09:13</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>09/09/2023 14:59</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>10/09/2023 10:03</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S27" t="inlineStr">
         <is>
           <t>07/09/2023 09:13</t>
         </is>
       </c>
-      <c r="P27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>10/09/2023 10:02</t>
-        </is>
-      </c>
-      <c r="R27" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>07/09/2023 09:13</t>
-        </is>
-      </c>
       <c r="T27" t="n">
-        <v>3.57</v>
+        <v>2.46</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>09/09/2023 14:59</t>
+          <t>10/09/2023 10:03</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ad-ceuta/QZqbgYsr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-malaga/0hxBjWR0/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.12</v>
+        <v>3.36</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.56</v>
+        <v>3.36</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:57</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.24</v>
+        <v>4.29</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.15</v>
+        <v>3.79</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.36</v>
+        <v>3.56</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:57</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.29</v>
+        <v>3.24</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.79</v>
+        <v>5.15</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2.29</v>
+        <v>2.01</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.22</v>
+        <v>3.49</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.14</v>
+        <v>3.64</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.54</v>
+        <v>4.62</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-baleares/fR5AFw1T/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.01</v>
+        <v>1.51</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.8</v>
+        <v>1.49</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.04</v>
+        <v>3.71</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.49</v>
+        <v>4.07</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.64</v>
+        <v>6.28</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.62</v>
+        <v>7.11</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-baleares/fR5AFw1T/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.51</v>
+        <v>2.29</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.49</v>
+        <v>1.9</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.71</v>
+        <v>2.89</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.07</v>
+        <v>3.22</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>6.28</v>
+        <v>3.14</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>7.11</v>
+        <v>4.54</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,63 +5641,63 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.68</v>
+        <v>3.11</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.5</v>
+        <v>3.82</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.47</v>
+        <v>4.93</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,63 +5733,63 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.08</v>
+        <v>3.26</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.11</v>
+        <v>3.68</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.82</v>
+        <v>4.5</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.93</v>
+        <v>5.47</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>3.21</v>
+        <v>2.43</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3.42</v>
+        <v>2.62</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>07/10/2023 13:28</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.94</v>
+        <v>2.87</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.04</v>
+        <v>2.88</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>08/10/2023 10:02</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.23</v>
+        <v>2.93</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.24</v>
+        <v>3.05</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>08/10/2023 06:53</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cf-intercity/tn6OMf8d/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>CF Intercity</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>2</v>
-      </c>
       <c r="J66" t="n">
-        <v>2.43</v>
+        <v>3.21</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.62</v>
+        <v>3.42</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>07/10/2023 13:28</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>2.88</v>
+        <v>3.04</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>08/10/2023 10:02</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.93</v>
+        <v>2.23</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.05</v>
+        <v>2.24</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>08/10/2023 06:53</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cf-intercity/tn6OMf8d/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.59</v>
+        <v>1.97</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.54</v>
+        <v>2.37</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>15/10/2023 11:54</t>
+          <t>15/10/2023 11:58</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.55</v>
+        <v>3.07</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.85</v>
+        <v>2.98</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>15/10/2023 11:54</t>
+          <t>15/10/2023 11:58</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>5.47</v>
+        <v>3.74</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>6.68</v>
+        <v>3.33</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>15/10/2023 11:54</t>
+          <t>15/10/2023 11:58</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-recreativo-huelva/AXrkdeaF/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-algeciras/4KDlbHU2/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>1.97</v>
+        <v>1.59</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.37</v>
+        <v>1.54</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>15/10/2023 11:58</t>
+          <t>15/10/2023 11:54</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.07</v>
+        <v>3.55</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>2.98</v>
+        <v>3.85</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>15/10/2023 11:58</t>
+          <t>15/10/2023 11:54</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.74</v>
+        <v>5.47</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.33</v>
+        <v>6.68</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>15/10/2023 11:58</t>
+          <t>15/10/2023 11:54</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-algeciras/4KDlbHU2/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-recreativo-huelva/AXrkdeaF/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1.75</v>
+        <v>2.96</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 06:00</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.42</v>
+        <v>2.91</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.53</v>
+        <v>2.44</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>5.02</v>
+        <v>2.59</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 06:00</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-antequera/vBVRtyHP/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>4.18</v>
+        <v>1.75</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>4.16</v>
+        <v>1.75</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 10:38</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.14</v>
+        <v>3.42</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 10:03</t>
+          <t>22/10/2023 10:01</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.85</v>
+        <v>4.53</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2</v>
+        <v>5.02</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 04:23</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.96</v>
+        <v>4.18</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>4.16</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>22/10/2023 06:00</t>
+          <t>22/10/2023 10:38</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>2.91</v>
+        <v>3.2</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>2.91</v>
+        <v>3.14</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>22/10/2023 10:01</t>
+          <t>22/10/2023 10:03</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.44</v>
+        <v>1.85</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.59</v>
+        <v>2</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>22/10/2023 06:00</t>
+          <t>22/10/2023 04:23</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-antequera/vBVRtyHP/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.54</v>
+        <v>2.12</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.57</v>
+        <v>2.26</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>29/10/2023 11:54</t>
+          <t>29/10/2023 11:31</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.65</v>
+        <v>2.94</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.86</v>
+        <v>3.04</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>29/10/2023 11:54</t>
+          <t>29/10/2023 11:31</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>5.6</v>
+        <v>3.45</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>6.15</v>
+        <v>3.49</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>29/10/2023 11:54</t>
+          <t>29/10/2023 11:31</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-cf-intercity/0l2NVA8O/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-melilla/Mc3JWjgI/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.26</v>
+        <v>2.05</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:31</t>
+          <t>29/10/2023 11:56</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>2.94</v>
+        <v>3.14</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.04</v>
+        <v>3.36</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:31</t>
+          <t>29/10/2023 11:56</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.45</v>
+        <v>3.59</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>3.49</v>
+        <v>3.67</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:31</t>
+          <t>29/10/2023 11:56</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-melilla/Mc3JWjgI/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-ad-ceuta/CSRykY8n/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>1.98</v>
+        <v>1.54</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:56</t>
+          <t>29/10/2023 11:54</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.14</v>
+        <v>3.65</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.36</v>
+        <v>3.86</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:56</t>
+          <t>29/10/2023 11:54</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.59</v>
+        <v>5.6</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.67</v>
+        <v>6.15</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:56</t>
+          <t>29/10/2023 11:54</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-ad-ceuta/CSRykY8n/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-cf-intercity/0l2NVA8O/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Recreativo Huelva</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Malaga</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>2</v>
-      </c>
       <c r="J96" t="n">
-        <v>3.11</v>
+        <v>1.74</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.7</v>
+        <v>1.52</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2.9</v>
+        <v>3.29</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>2.74</v>
+        <v>4.03</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.3</v>
+        <v>4.71</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.1</v>
+        <v>6.68</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-malaga/vZDEXWwC/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-recreativo-huelva/W8A6Zh9a/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>1.74</v>
+        <v>3.11</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.52</v>
+        <v>2.7</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.29</v>
+        <v>2.9</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>4.03</v>
+        <v>2.74</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>4.71</v>
+        <v>2.3</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>6.68</v>
+        <v>3.1</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-recreativo-huelva/W8A6Zh9a/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-malaga/vZDEXWwC/</t>
         </is>
       </c>
     </row>
@@ -11310,6 +11310,834 @@
       <c r="V118" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-real-madrid/ln2ZcTiH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Atl. Madrid B</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>6</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:47</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:31</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:47</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-cordoba/Shk1CS6A/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Merida AD</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>2</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-cd-san-fernando/hv5shbLe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45248.75</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>18/11/2023 17:04</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>18/11/2023 17:04</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>18/11/2023 17:04</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-murcia/bJpcD8i4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45248.75</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Alcoyano</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>2</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>18/11/2023 17:41</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>18/11/2023 17:41</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>18/11/2023 17:41</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-alcoyano/WU3oiIz2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45249.5</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>4</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Baleares</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>2</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>19/11/2023 11:25</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>19/11/2023 11:25</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>19/11/2023 11:25</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-baleares/nwnYELS8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45249.5</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Granada CF B</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>17/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>19/11/2023 11:09</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>17/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>19/11/2023 11:09</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>6</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>17/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>19/11/2023 11:09</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-granada-cf/bH5wgv6k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45249.75</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Antequera</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>2</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>19/11/2023 17:39</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>19/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>19/11/2023 17:39</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-linares/ns2ZgKjq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45249.83333333334</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Melilla</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>3</v>
+      </c>
+      <c r="J126" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>19/11/2023 19:57</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>19/11/2023 19:58</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>19/11/2023 19:57</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-ud-ibiza/t0oxEurF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45249.83333333334</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Real Madrid B</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Algeciras</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>2</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>19/11/2023 10:27</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>19/11/2023 19:57</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>19/11/2023 10:27</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>19/11/2023 19:57</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>19/11/2023 10:27</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>19/11/2023 19:57</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-algeciras/8nmUF1D2/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V127"/>
+  <dimension ref="A1:V128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.14</v>
+        <v>2.63</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.52</v>
+        <v>2.86</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>03/09/2023 19:01</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>03/09/2023 19:31</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.36</v>
+        <v>2.51</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.02</v>
+        <v>2.6</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>03/09/2023 19:01</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-alcoyano/nqPOvZSl/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.63</v>
+        <v>2.14</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.86</v>
+        <v>2.52</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>03/09/2023 19:01</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>03/09/2023 19:31</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.51</v>
+        <v>3.36</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.6</v>
+        <v>3.02</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>03/09/2023 19:01</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-alcoyano/nqPOvZSl/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>3.5</v>
+        <v>3.21</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.19</v>
+        <v>3.42</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>07/10/2023 13:28</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.15</v>
+        <v>3.04</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>08/10/2023 10:51</t>
+          <t>08/10/2023 10:02</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.09</v>
+        <v>2.23</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>08/10/2023 06:53</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>3.21</v>
+        <v>3.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.42</v>
+        <v>3.19</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>07/10/2023 13:28</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.04</v>
+        <v>3.15</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>08/10/2023 10:02</t>
+          <t>08/10/2023 10:51</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.23</v>
+        <v>2.09</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>08/10/2023 06:53</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>1.97</v>
+        <v>2.9</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.37</v>
+        <v>2.92</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>15/10/2023 11:58</t>
+          <t>15/10/2023 11:54</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.07</v>
+        <v>2.96</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>15/10/2023 11:58</t>
+          <t>15/10/2023 11:54</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.74</v>
+        <v>2.45</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.33</v>
+        <v>2.43</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>15/10/2023 11:58</t>
+          <t>15/10/2023 11:54</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-algeciras/4KDlbHU2/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-castellon/xEL2zExd/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.59</v>
+        <v>1.97</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.54</v>
+        <v>2.37</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>15/10/2023 11:54</t>
+          <t>15/10/2023 11:58</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.55</v>
+        <v>3.07</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.85</v>
+        <v>2.98</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>15/10/2023 11:54</t>
+          <t>15/10/2023 11:58</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>5.47</v>
+        <v>3.74</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>6.68</v>
+        <v>3.33</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>15/10/2023 11:54</t>
+          <t>15/10/2023 11:58</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-recreativo-huelva/AXrkdeaF/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-algeciras/4KDlbHU2/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>2.9</v>
+        <v>1.59</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.92</v>
+        <v>1.54</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2.96</v>
+        <v>3.55</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.45</v>
+        <v>5.47</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.43</v>
+        <v>6.68</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-castellon/xEL2zExd/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-recreativo-huelva/AXrkdeaF/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.96</v>
+        <v>1.75</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 06:00</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.91</v>
+        <v>3.24</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2.91</v>
+        <v>3.42</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.44</v>
+        <v>4.53</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.59</v>
+        <v>5.02</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 06:00</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-antequera/vBVRtyHP/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.75</v>
+        <v>4.18</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.75</v>
+        <v>4.16</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 10:38</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.42</v>
+        <v>3.14</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 10:01</t>
+          <t>22/10/2023 10:03</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.53</v>
+        <v>1.85</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>5.02</v>
+        <v>2</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 04:23</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>4.18</v>
+        <v>2.96</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>4.16</v>
+        <v>3</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>22/10/2023 10:38</t>
+          <t>22/10/2023 06:00</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.2</v>
+        <v>2.91</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.14</v>
+        <v>2.91</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>22/10/2023 10:03</t>
+          <t>22/10/2023 10:01</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>1.85</v>
+        <v>2.44</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2</v>
+        <v>2.59</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>22/10/2023 04:23</t>
+          <t>22/10/2023 06:00</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-antequera/vBVRtyHP/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,14 +9689,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>2.43</v>
+        <v>2.75</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.17</v>
+        <v>3.01</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>04/11/2023 19:54</t>
+          <t>04/11/2023 19:52</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.13</v>
+        <v>2.8</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>04/11/2023 19:54</t>
+          <t>04/11/2023 19:52</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.6</v>
+        <v>2.56</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>04/11/2023 19:54</t>
+          <t>04/11/2023 19:52</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-sanluqueno/QVVulhOh/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-algeciras/nJu4rlhU/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2.75</v>
+        <v>2.43</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.01</v>
+        <v>2.17</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>04/11/2023 19:52</t>
+          <t>04/11/2023 19:54</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>2.8</v>
+        <v>3.13</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>04/11/2023 19:52</t>
+          <t>04/11/2023 19:54</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.63</v>
+        <v>2.77</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.56</v>
+        <v>3.6</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>04/11/2023 19:52</t>
+          <t>04/11/2023 19:54</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-algeciras/nJu4rlhU/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-sanluqueno/QVVulhOh/</t>
         </is>
       </c>
     </row>
@@ -11705,71 +11705,71 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>16/11/2023 09:13</t>
+          <t>17/11/2023 02:12</t>
         </is>
       </c>
       <c r="L123" t="n">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>19/11/2023 11:25</t>
+          <t>19/11/2023 11:09</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>4.47</v>
+        <v>3.74</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>16/11/2023 09:13</t>
+          <t>17/11/2023 02:12</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>6.72</v>
+        <v>3.85</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>19/11/2023 11:25</t>
+          <t>19/11/2023 11:09</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>7.58</v>
+        <v>6</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>16/11/2023 09:13</t>
+          <t>17/11/2023 02:12</t>
         </is>
       </c>
       <c r="T123" t="n">
-        <v>18.15</v>
+        <v>7.18</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>19/11/2023 11:25</t>
+          <t>19/11/2023 11:09</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-baleares/nwnYELS8/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-granada-cf/bH5wgv6k/</t>
         </is>
       </c>
     </row>
@@ -11797,71 +11797,71 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>17/11/2023 02:12</t>
+          <t>16/11/2023 09:13</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>1.52</v>
+        <v>1.17</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>19/11/2023 11:09</t>
+          <t>19/11/2023 11:25</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.74</v>
+        <v>4.47</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>17/11/2023 02:12</t>
+          <t>16/11/2023 09:13</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.85</v>
+        <v>6.72</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>19/11/2023 11:09</t>
+          <t>19/11/2023 11:25</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>6</v>
+        <v>7.58</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>17/11/2023 02:12</t>
+          <t>16/11/2023 09:13</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>7.18</v>
+        <v>18.15</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>19/11/2023 11:09</t>
+          <t>19/11/2023 11:25</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-granada-cf/bH5wgv6k/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-baleares/nwnYELS8/</t>
         </is>
       </c>
     </row>
@@ -11981,30 +11981,30 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J126" t="n">
-        <v>4.37</v>
+        <v>2.3</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>16/11/2023 09:13</t>
+          <t>19/11/2023 10:27</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>5.05</v>
+        <v>2.2</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
@@ -12012,31 +12012,31 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>16/11/2023 09:13</t>
+          <t>19/11/2023 10:27</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.36</v>
+        <v>3.13</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>19/11/2023 19:58</t>
+          <t>19/11/2023 19:57</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>1.81</v>
+        <v>3.39</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>16/11/2023 09:13</t>
+          <t>19/11/2023 10:27</t>
         </is>
       </c>
       <c r="T126" t="n">
-        <v>1.78</v>
+        <v>3.54</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-ud-ibiza/t0oxEurF/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-algeciras/8nmUF1D2/</t>
         </is>
       </c>
     </row>
@@ -12073,71 +12073,163 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>3</v>
+      </c>
+      <c r="J127" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>19/11/2023 19:57</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>19/11/2023 19:58</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>19/11/2023 19:57</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-ud-ibiza/t0oxEurF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45252.66666666666</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sanluqueno</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
         <v>1</v>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Algeciras</t>
-        </is>
-      </c>
-      <c r="I127" t="n">
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
         <v>2</v>
       </c>
-      <c r="J127" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>19/11/2023 10:27</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
+      <c r="J128" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>22/11/2023 15:45</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>22/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
         <v>2.2</v>
       </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>19/11/2023 19:57</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>19/11/2023 10:27</t>
-        </is>
-      </c>
-      <c r="P127" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="Q127" t="inlineStr">
-        <is>
-          <t>19/11/2023 19:57</t>
-        </is>
-      </c>
-      <c r="R127" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="S127" t="inlineStr">
-        <is>
-          <t>19/11/2023 10:27</t>
-        </is>
-      </c>
-      <c r="T127" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="U127" t="inlineStr">
-        <is>
-          <t>19/11/2023 19:57</t>
-        </is>
-      </c>
-      <c r="V127" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-algeciras/8nmUF1D2/</t>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>22/11/2023 15:45</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-cordoba/SzSNsH1J/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V128"/>
+  <dimension ref="A1:V138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.49</v>
+        <v>2.98</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.48</v>
+        <v>3.68</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>27/08/2023 15:05</t>
+          <t>27/08/2023 21:10</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2.93</v>
+        <v>3.01</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>27/08/2023 19:30</t>
+          <t>27/08/2023 21:10</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.88</v>
+        <v>2.36</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.14</v>
+        <v>2.21</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>27/08/2023 15:05</t>
+          <t>27/08/2023 16:20</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/recreativo-huelva-cf-intercity/0CYlSeqq/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-murcia/fVeMWyyS/</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Murcia</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
       <c r="J10" t="n">
-        <v>2.98</v>
+        <v>2.49</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3.68</v>
+        <v>2.48</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>27/08/2023 21:10</t>
+          <t>27/08/2023 15:05</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.01</v>
+        <v>2.93</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>27/08/2023 21:10</t>
+          <t>27/08/2023 19:30</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.36</v>
+        <v>2.88</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.21</v>
+        <v>3.14</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>27/08/2023 16:20</t>
+          <t>27/08/2023 15:05</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-murcia/fVeMWyyS/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/recreativo-huelva-cf-intercity/0CYlSeqq/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.05</v>
+        <v>2.56</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.08</v>
+        <v>2.33</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:29</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.13</v>
+        <v>2.84</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.25</v>
+        <v>3.02</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 18:31</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.53</v>
+        <v>2.8</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>3.7</v>
+        <v>3.36</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:29</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-merida-ad/CS3Naz5E/</t>
         </is>
       </c>
     </row>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.64</v>
+        <v>2.08</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:21</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>02/09/2023 18:33</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.44</v>
+        <v>3.53</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.76</v>
+        <v>3.7</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:21</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-granada-cf/KYGyxXC7/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.56</v>
+        <v>2.01</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.33</v>
+        <v>2.64</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:29</t>
+          <t>02/09/2023 20:21</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.02</v>
+        <v>3.16</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>02/09/2023 18:31</t>
+          <t>02/09/2023 18:33</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.8</v>
+        <v>3.44</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.36</v>
+        <v>2.76</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:29</t>
+          <t>02/09/2023 20:21</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-merida-ad/CS3Naz5E/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-granada-cf/KYGyxXC7/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.96</v>
+        <v>3.31</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.89</v>
+        <v>3.2</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>6.63</v>
+        <v>4.4</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>5.77</v>
+        <v>4.61</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-atl-madrid/QZNSwgre/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-baleares/Yy5J0Gk8/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Atl. Madrid B</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Baleares</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.2</v>
+        <v>3.89</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.4</v>
+        <v>6.63</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.61</v>
+        <v>5.77</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-baleares/Yy5J0Gk8/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-atl-madrid/QZNSwgre/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Real Madrid B</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
       <c r="J18" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.86</v>
+        <v>2.1</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>02/09/2023 21:43</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2088,11 +2088,11 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>03/09/2023 19:32</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.51</v>
+        <v>3.16</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.6</v>
+        <v>3.79</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>02/09/2023 21:43</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-cd-san-fernando/KYvpnHzF/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>02/09/2023 21:43</t>
+          <t>03/09/2023 19:01</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.04</v>
+        <v>2.97</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>03/09/2023 19:32</t>
+          <t>03/09/2023 19:31</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.16</v>
+        <v>3.36</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.79</v>
+        <v>3.02</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>02/09/2023 21:43</t>
+          <t>03/09/2023 19:01</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-cd-san-fernando/KYvpnHzF/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-alcoyano/nqPOvZSl/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.14</v>
+        <v>2.63</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.52</v>
+        <v>2.86</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>03/09/2023 19:01</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>03/09/2023 19:31</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.36</v>
+        <v>2.51</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.02</v>
+        <v>2.6</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>03/09/2023 19:01</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-alcoyano/nqPOvZSl/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1.35</v>
+        <v>1.79</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>16/09/2023 21:14</t>
+          <t>16/09/2023 21:19</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>4.36</v>
+        <v>3.39</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>4.09</v>
+        <v>3.74</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>16/09/2023 21:14</t>
+          <t>16/09/2023 21:19</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>7.75</v>
+        <v>4.03</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>7.48</v>
+        <v>4.91</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>16/09/2023 21:14</t>
+          <t>16/09/2023 21:19</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-granada-cf/8x401mtJ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-linares/2ZDu6BRm/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Granada CF B</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Linares</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
       <c r="J34" t="n">
-        <v>1.79</v>
+        <v>1.35</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16/09/2023 21:19</t>
+          <t>16/09/2023 21:14</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.39</v>
+        <v>4.36</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.74</v>
+        <v>4.09</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>16/09/2023 21:19</t>
+          <t>16/09/2023 21:14</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>4.03</v>
+        <v>7.75</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.91</v>
+        <v>7.48</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>16/09/2023 21:19</t>
+          <t>16/09/2023 21:14</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-linares/2ZDu6BRm/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-granada-cf/8x401mtJ/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.65</v>
+        <v>1.72</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>17/09/2023 11:29</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>2.88</v>
+        <v>3.12</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>2.78</v>
+        <v>3.56</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>17/09/2023 11:29</t>
+          <t>17/09/2023 11:57</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.84</v>
+        <v>3.24</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.12</v>
+        <v>5.15</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>17/09/2023 11:29</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-recreativo-huelva/fRL79pYu/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.12</v>
+        <v>2.46</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.72</v>
+        <v>2.65</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:29</t>
         </is>
       </c>
       <c r="N37" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>14/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>17/09/2023 11:29</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>14/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
         <v>3.12</v>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>14/09/2023 15:43</t>
-        </is>
-      </c>
-      <c r="P37" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>17/09/2023 11:57</t>
-        </is>
-      </c>
-      <c r="R37" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>14/09/2023 15:43</t>
-        </is>
-      </c>
-      <c r="T37" t="n">
-        <v>5.15</v>
-      </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:29</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-recreativo-huelva/fRL79pYu/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.01</v>
+        <v>2.29</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.04</v>
+        <v>2.89</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.49</v>
+        <v>3.22</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.64</v>
+        <v>3.14</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>29/09/2023 23:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.62</v>
+        <v>4.54</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 11:59</t>
+          <t>01/10/2023 11:44</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-baleares/fR5AFw1T/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.51</v>
+        <v>2.01</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.71</v>
+        <v>3.04</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.07</v>
+        <v>3.49</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>6.28</v>
+        <v>3.64</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>7.11</v>
+        <v>4.62</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 11:33</t>
+          <t>01/10/2023 11:59</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-baleares/fR5AFw1T/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2.29</v>
+        <v>1.51</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.9</v>
+        <v>1.49</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>2.89</v>
+        <v>3.71</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.22</v>
+        <v>4.07</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.14</v>
+        <v>6.28</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>29/09/2023 23:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>4.54</v>
+        <v>7.11</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>01/10/2023 11:44</t>
+          <t>01/10/2023 11:33</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-sanluqueno/OSlaIuHA/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-linares/zLmwBc9p/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>1</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>CF Intercity</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.43</v>
+        <v>3.21</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.62</v>
+        <v>3.42</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>07/10/2023 13:28</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>2.88</v>
+        <v>3.04</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>08/10/2023 10:02</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.93</v>
+        <v>2.23</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.05</v>
+        <v>2.24</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>08/10/2023 06:53</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cf-intercity/tn6OMf8d/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>3.21</v>
+        <v>3.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.42</v>
+        <v>3.19</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>07/10/2023 13:28</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.04</v>
+        <v>3.15</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>08/10/2023 10:02</t>
+          <t>08/10/2023 10:51</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.23</v>
+        <v>2.09</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>08/10/2023 06:53</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>2</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Ceuta</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
       <c r="J66" t="n">
-        <v>3.5</v>
+        <v>2.43</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,48 +6484,48 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.19</v>
+        <v>2.62</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="N66" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
         <v>3.05</v>
       </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>05/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="P66" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>08/10/2023 10:51</t>
-        </is>
-      </c>
-      <c r="R66" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>05/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T66" t="n">
-        <v>2.34</v>
-      </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cf-intercity/tn6OMf8d/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1.75</v>
+        <v>2.96</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 06:00</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.42</v>
+        <v>2.91</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.53</v>
+        <v>2.44</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>5.02</v>
+        <v>2.59</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 06:00</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-antequera/vBVRtyHP/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>4.18</v>
+        <v>1.75</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>4.16</v>
+        <v>1.75</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 10:38</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.14</v>
+        <v>3.42</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 10:03</t>
+          <t>22/10/2023 10:01</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.85</v>
+        <v>4.53</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2</v>
+        <v>5.02</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 04:23</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.96</v>
+        <v>4.18</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>4.16</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>22/10/2023 06:00</t>
+          <t>22/10/2023 10:38</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>2.91</v>
+        <v>3.2</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>2.91</v>
+        <v>3.14</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>22/10/2023 10:01</t>
+          <t>22/10/2023 10:03</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.44</v>
+        <v>1.85</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.59</v>
+        <v>2</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>22/10/2023 06:00</t>
+          <t>22/10/2023 04:23</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-antequera/vBVRtyHP/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,14 +8585,14 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.79</v>
+        <v>3.83</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.02</v>
+        <v>4.68</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>28/10/2023 15:42</t>
+          <t>28/10/2023 15:54</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>2.99</v>
+        <v>3.3</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>2.84</v>
+        <v>3.58</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>28/10/2023 15:42</t>
+          <t>28/10/2023 15:54</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.51</v>
+        <v>1.86</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.67</v>
+        <v>1.78</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>28/10/2023 15:42</t>
+          <t>28/10/2023 15:54</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-sanluqueno/QV9AYCO5/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-castellon/Sfj5ffoP/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>3.83</v>
+        <v>2.79</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>4.68</v>
+        <v>3.02</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>28/10/2023 15:54</t>
+          <t>28/10/2023 15:42</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.3</v>
+        <v>2.99</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.58</v>
+        <v>2.84</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>28/10/2023 15:54</t>
+          <t>28/10/2023 15:42</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>1.86</v>
+        <v>2.51</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>1.78</v>
+        <v>2.67</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>28/10/2023 15:54</t>
+          <t>28/10/2023 15:42</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-castellon/Sfj5ffoP/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-sanluqueno/QV9AYCO5/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>1.74</v>
+        <v>3.11</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.52</v>
+        <v>2.7</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.29</v>
+        <v>2.9</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4.03</v>
+        <v>2.74</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.71</v>
+        <v>2.3</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>6.68</v>
+        <v>3.1</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-recreativo-huelva/W8A6Zh9a/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-malaga/vZDEXWwC/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Recreativo Huelva</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Malaga</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
-        <v>2</v>
-      </c>
       <c r="J97" t="n">
-        <v>3.11</v>
+        <v>1.74</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.7</v>
+        <v>1.52</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2.9</v>
+        <v>3.29</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>2.74</v>
+        <v>4.03</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.3</v>
+        <v>4.71</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.1</v>
+        <v>6.68</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-malaga/vZDEXWwC/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-recreativo-huelva/W8A6Zh9a/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,14 +9689,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.75</v>
+        <v>2.43</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>3.01</v>
+        <v>2.17</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>04/11/2023 19:52</t>
+          <t>04/11/2023 19:54</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>2.8</v>
+        <v>3.13</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>04/11/2023 19:52</t>
+          <t>04/11/2023 19:54</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.63</v>
+        <v>2.77</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.56</v>
+        <v>3.6</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>04/11/2023 19:52</t>
+          <t>04/11/2023 19:54</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-algeciras/nJu4rlhU/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-sanluqueno/QVVulhOh/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>2.43</v>
+        <v>2.75</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.17</v>
+        <v>3.01</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>04/11/2023 19:54</t>
+          <t>04/11/2023 19:52</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.13</v>
+        <v>2.8</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>04/11/2023 19:54</t>
+          <t>04/11/2023 19:52</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.6</v>
+        <v>2.56</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>04/11/2023 19:54</t>
+          <t>04/11/2023 19:52</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-sanluqueno/QVVulhOh/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-algeciras/nJu4rlhU/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>3.88</v>
+        <v>1.98</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>4.12</v>
+        <v>1.83</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>05/11/2023 09:42</t>
+          <t>05/11/2023 18:04</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.19</v>
+        <v>3.47</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.34</v>
+        <v>3.53</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>05/11/2023 18:02</t>
+          <t>05/11/2023 18:04</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>1.88</v>
+        <v>3.36</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>1.92</v>
+        <v>4.36</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>05/11/2023 09:42</t>
+          <t>05/11/2023 18:04</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-ud-ibiza/K6AI1Bhh/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-cordoba/Ct7A3XNu/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>1.98</v>
+        <v>3.88</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.83</v>
+        <v>4.12</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>05/11/2023 18:04</t>
+          <t>05/11/2023 09:42</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.47</v>
+        <v>3.19</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.53</v>
+        <v>3.34</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>05/11/2023 18:04</t>
+          <t>05/11/2023 18:02</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.36</v>
+        <v>1.88</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>4.36</v>
+        <v>1.92</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>05/11/2023 18:04</t>
+          <t>05/11/2023 09:42</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-cordoba/Ct7A3XNu/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-ud-ibiza/K6AI1Bhh/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J121" t="n">
-        <v>2.48</v>
+        <v>1.55</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.3</v>
+        <v>1.52</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>18/11/2023 17:04</t>
+          <t>18/11/2023 17:41</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2.86</v>
+        <v>3.51</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2.88</v>
+        <v>3.72</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>18/11/2023 17:04</t>
+          <t>18/11/2023 17:41</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.87</v>
+        <v>5.82</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>3.64</v>
+        <v>7.82</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>18/11/2023 17:04</t>
+          <t>18/11/2023 17:41</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-murcia/bJpcD8i4/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-alcoyano/WU3oiIz2/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>1.55</v>
+        <v>2.48</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1.52</v>
+        <v>2.3</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>18/11/2023 17:41</t>
+          <t>18/11/2023 17:04</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3.51</v>
+        <v>2.86</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.72</v>
+        <v>2.88</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>18/11/2023 17:41</t>
+          <t>18/11/2023 17:04</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>5.82</v>
+        <v>2.87</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>7.82</v>
+        <v>3.64</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>18/11/2023 17:41</t>
+          <t>18/11/2023 17:04</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-alcoyano/WU3oiIz2/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-murcia/bJpcD8i4/</t>
         </is>
       </c>
     </row>
@@ -11981,30 +11981,30 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J126" t="n">
-        <v>2.3</v>
+        <v>4.37</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>19/11/2023 10:27</t>
+          <t>16/11/2023 09:13</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.2</v>
+        <v>5.05</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
@@ -12012,40 +12012,40 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>19/11/2023 10:27</t>
+          <t>16/11/2023 09:13</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.13</v>
+        <v>3.36</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
+          <t>19/11/2023 19:58</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
           <t>19/11/2023 19:57</t>
         </is>
       </c>
-      <c r="R126" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="S126" t="inlineStr">
-        <is>
-          <t>19/11/2023 10:27</t>
-        </is>
-      </c>
-      <c r="T126" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="U126" t="inlineStr">
-        <is>
-          <t>19/11/2023 19:57</t>
-        </is>
-      </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-algeciras/8nmUF1D2/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-ud-ibiza/t0oxEurF/</t>
         </is>
       </c>
     </row>
@@ -12073,30 +12073,30 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>4.37</v>
+        <v>2.3</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>16/11/2023 09:13</t>
+          <t>19/11/2023 10:27</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>5.05</v>
+        <v>2.2</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -12104,31 +12104,31 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>16/11/2023 09:13</t>
+          <t>19/11/2023 10:27</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.36</v>
+        <v>3.13</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>19/11/2023 19:58</t>
+          <t>19/11/2023 19:57</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>1.81</v>
+        <v>3.39</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>16/11/2023 09:13</t>
+          <t>19/11/2023 10:27</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>1.78</v>
+        <v>3.54</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-ud-ibiza/t0oxEurF/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-algeciras/8nmUF1D2/</t>
         </is>
       </c>
     </row>
@@ -12230,6 +12230,926 @@
       <c r="V128" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-cordoba/SzSNsH1J/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45255.66666666666</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sanluqueno</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:47</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:47</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:47</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-ad-ceuta/0OKERbCE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45255.75</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Alcoyano</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Real Madrid B</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>2</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>25/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>25/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>25/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-real-madrid/f3ktDacL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45255.83333333334</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>3</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Antequera</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>25/11/2023 19:49</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>25/11/2023 19:49</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>25/11/2023 19:49</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-antequera/8UXS3eK7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45256.5</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Granada CF B</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Baleares</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>2</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>26/11/2023 10:57</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>26/11/2023 10:03</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>26/11/2023 10:57</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-baleares/MXLASvc8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45256.5</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>2</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:49</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:55</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:49</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-castellon/vyRC7wLr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45256.5</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>4</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Melilla</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:56</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:56</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:56</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-melilla/IaFJQIRK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45256.75</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:30</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:30</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:30</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-cf-intercity/YBuG6czk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45256.75</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>4</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:51</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:51</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-malaga/fRTO4y51/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45256.83333333334</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Merida AD</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Recreativo Huelva</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:28</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-recreativo-huelva/C2vK5Hke/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45256.83333333334</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Algeciras</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>2</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Atl. Madrid B</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>2</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>26/11/2023 09:42</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:21</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-atl-madrid/xSvoCJCR/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V138"/>
+  <dimension ref="A1:V139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,14 +8585,14 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>3.83</v>
+        <v>2.79</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>4.68</v>
+        <v>3.02</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>28/10/2023 15:54</t>
+          <t>28/10/2023 15:42</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.3</v>
+        <v>2.99</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.58</v>
+        <v>2.84</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>28/10/2023 15:54</t>
+          <t>28/10/2023 15:42</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>1.86</v>
+        <v>2.51</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>1.78</v>
+        <v>2.67</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>28/10/2023 15:54</t>
+          <t>28/10/2023 15:42</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-castellon/Sfj5ffoP/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-sanluqueno/QV9AYCO5/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.79</v>
+        <v>3.83</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.02</v>
+        <v>4.68</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>28/10/2023 15:42</t>
+          <t>28/10/2023 15:54</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>2.99</v>
+        <v>3.3</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>2.84</v>
+        <v>3.58</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>28/10/2023 15:42</t>
+          <t>28/10/2023 15:54</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.51</v>
+        <v>1.86</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.67</v>
+        <v>1.78</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>28/10/2023 15:42</t>
+          <t>28/10/2023 15:54</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-sanluqueno/QV9AYCO5/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-castellon/Sfj5ffoP/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Recreativo Huelva</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Malaga</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>2</v>
-      </c>
       <c r="J96" t="n">
-        <v>3.11</v>
+        <v>1.74</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.7</v>
+        <v>1.52</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2.9</v>
+        <v>3.29</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>2.74</v>
+        <v>4.03</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.3</v>
+        <v>4.71</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.1</v>
+        <v>6.68</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-malaga/vZDEXWwC/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-recreativo-huelva/W8A6Zh9a/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>1.74</v>
+        <v>3.11</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.52</v>
+        <v>2.7</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.29</v>
+        <v>2.9</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>4.03</v>
+        <v>2.74</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>4.71</v>
+        <v>2.3</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>6.68</v>
+        <v>3.1</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-recreativo-huelva/W8A6Zh9a/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-malaga/vZDEXWwC/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>2.29</v>
+        <v>2.62</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>18/11/2023 15:47</t>
+          <t>18/11/2023 15:56</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2.93</v>
+        <v>2.84</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>2.93</v>
+        <v>2.81</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>18/11/2023 15:31</t>
+          <t>18/11/2023 15:56</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.09</v>
+        <v>2.72</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.83</v>
+        <v>2.97</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>18/11/2023 15:47</t>
+          <t>18/11/2023 15:56</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-cordoba/Shk1CS6A/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-cd-san-fernando/hv5shbLe/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J120" t="n">
-        <v>2.62</v>
+        <v>2.29</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>18/11/2023 15:56</t>
+          <t>18/11/2023 15:47</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>2.84</v>
+        <v>2.93</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2.81</v>
+        <v>2.93</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>18/11/2023 15:56</t>
+          <t>18/11/2023 15:31</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.72</v>
+        <v>3.09</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.97</v>
+        <v>2.83</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>18/11/2023 15:56</t>
+          <t>18/11/2023 15:47</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-cd-san-fernando/hv5shbLe/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-cordoba/Shk1CS6A/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1.55</v>
+        <v>2.48</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.52</v>
+        <v>2.3</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>18/11/2023 17:41</t>
+          <t>18/11/2023 17:04</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.51</v>
+        <v>2.86</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.72</v>
+        <v>2.88</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>18/11/2023 17:41</t>
+          <t>18/11/2023 17:04</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>5.82</v>
+        <v>2.87</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>7.82</v>
+        <v>3.64</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>18/11/2023 17:41</t>
+          <t>18/11/2023 17:04</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-alcoyano/WU3oiIz2/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-murcia/bJpcD8i4/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="n">
-        <v>2.48</v>
+        <v>1.55</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>2.3</v>
+        <v>1.52</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>18/11/2023 17:04</t>
+          <t>18/11/2023 17:41</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>2.86</v>
+        <v>3.51</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>2.88</v>
+        <v>3.72</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>18/11/2023 17:04</t>
+          <t>18/11/2023 17:41</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>2.87</v>
+        <v>5.82</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>3.64</v>
+        <v>7.82</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>18/11/2023 17:04</t>
+          <t>18/11/2023 17:41</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-murcia/bJpcD8i4/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-alcoyano/WU3oiIz2/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.05</v>
+        <v>1.69</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>26/11/2023 10:57</t>
+          <t>26/11/2023 11:56</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>2.91</v>
+        <v>3.21</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.03</v>
+        <v>3.46</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>26/11/2023 10:03</t>
+          <t>26/11/2023 11:56</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>3.2</v>
+        <v>4.59</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>4.19</v>
+        <v>5.63</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>26/11/2023 10:57</t>
+          <t>26/11/2023 11:56</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-baleares/MXLASvc8/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-melilla/IaFJQIRK/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Baleares</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
         <v>2</v>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Castellon</t>
-        </is>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
       <c r="J133" t="n">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.69</v>
+        <v>2.05</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>26/11/2023 11:49</t>
+          <t>26/11/2023 10:57</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.08</v>
+        <v>2.91</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.13</v>
+        <v>3.03</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>26/11/2023 11:55</t>
+          <t>26/11/2023 10:03</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>2.73</v>
+        <v>4.19</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>26/11/2023 11:49</t>
+          <t>26/11/2023 10:57</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-castellon/vyRC7wLr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-baleares/MXLASvc8/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>1.75</v>
+        <v>2.17</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.69</v>
+        <v>2.69</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>26/11/2023 11:56</t>
+          <t>26/11/2023 11:49</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.46</v>
+        <v>3.13</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>26/11/2023 11:56</t>
+          <t>26/11/2023 11:55</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>4.59</v>
+        <v>3.17</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>5.63</v>
+        <v>2.73</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>26/11/2023 11:56</t>
+          <t>26/11/2023 11:49</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-melilla/IaFJQIRK/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-castellon/vyRC7wLr/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="n">
-        <v>2.68</v>
+        <v>2.02</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,48 +13016,48 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>2.62</v>
+        <v>2.22</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
+          <t>26/11/2023 09:42</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
           <t>26/11/2023 18:21</t>
         </is>
       </c>
-      <c r="N137" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="O137" t="inlineStr">
+      <c r="R137" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="S137" t="inlineStr">
         <is>
           <t>23/11/2023 09:13</t>
         </is>
       </c>
-      <c r="P137" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q137" t="inlineStr">
+      <c r="T137" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U137" t="inlineStr">
         <is>
           <t>26/11/2023 18:21</t>
         </is>
       </c>
-      <c r="R137" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>23/11/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T137" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U137" t="inlineStr">
-        <is>
-          <t>26/11/2023 13:28</t>
-        </is>
-      </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-recreativo-huelva/C2vK5Hke/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-atl-madrid/xSvoCJCR/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>2.02</v>
+        <v>2.68</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,15 +13108,15 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.22</v>
+        <v>2.62</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>26/11/2023 09:42</t>
+          <t>26/11/2023 18:21</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.06</v>
+        <v>2.83</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         </is>
       </c>
       <c r="R138" t="n">
-        <v>3.7</v>
+        <v>2.67</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,108 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>3.57</v>
+        <v>3.15</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>26/11/2023 18:21</t>
+          <t>26/11/2023 13:28</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-atl-madrid/xSvoCJCR/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-recreativo-huelva/C2vK5Hke/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45259.83333333334</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Recreativo Huelva</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Alcoyano</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>29/11/2023 19:56</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>29/11/2023 19:57</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>19/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>29/11/2023 19:56</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/recreativo-huelva-alcoyano/pC2wz5rD/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V139"/>
+  <dimension ref="A1:V143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>02/09/2023 21:43</t>
+          <t>03/09/2023 19:01</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.04</v>
+        <v>2.97</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>03/09/2023 19:32</t>
+          <t>03/09/2023 19:31</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.16</v>
+        <v>3.36</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.79</v>
+        <v>3.02</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>02/09/2023 21:43</t>
+          <t>03/09/2023 19:01</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-cd-san-fernando/KYvpnHzF/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-alcoyano/nqPOvZSl/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.14</v>
+        <v>2.63</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.52</v>
+        <v>2.86</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>03/09/2023 19:01</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>03/09/2023 19:31</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.36</v>
+        <v>2.51</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.02</v>
+        <v>2.6</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>03/09/2023 19:01</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-alcoyano/nqPOvZSl/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Real Madrid B</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
       <c r="J20" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.86</v>
+        <v>2.1</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>02/09/2023 21:43</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2272,11 +2272,11 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>03/09/2023 19:32</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.51</v>
+        <v>3.16</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.6</v>
+        <v>3.79</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>02/09/2023 21:43</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-cd-san-fernando/KYvpnHzF/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.2</v>
+        <v>1.86</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16/09/2023 19:03</t>
+          <t>16/09/2023 17:33</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.26</v>
+        <v>3.64</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.22</v>
+        <v>3.81</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16/09/2023 19:03</t>
+          <t>16/09/2023 17:33</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.54</v>
+        <v>4.8</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.41</v>
+        <v>3.89</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16/09/2023 19:03</t>
+          <t>16/09/2023 17:33</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-cd-san-fernando/rkX8BX3Q/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-atl-madrid/Uo5d2TQC/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>16/09/2023 17:33</t>
+          <t>16/09/2023 19:03</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.64</v>
+        <v>3.26</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.81</v>
+        <v>3.22</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>16/09/2023 17:33</t>
+          <t>16/09/2023 19:03</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.8</v>
+        <v>3.54</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.89</v>
+        <v>3.41</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>16/09/2023 17:33</t>
+          <t>16/09/2023 19:03</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-atl-madrid/Uo5d2TQC/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-cd-san-fernando/rkX8BX3Q/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Granada CF B</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Linares</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
       <c r="J33" t="n">
-        <v>1.79</v>
+        <v>1.35</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>16/09/2023 21:19</t>
+          <t>16/09/2023 21:14</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.39</v>
+        <v>4.36</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.74</v>
+        <v>4.09</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>16/09/2023 21:19</t>
+          <t>16/09/2023 21:14</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>4.03</v>
+        <v>7.75</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>4.91</v>
+        <v>7.48</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>16/09/2023 21:19</t>
+          <t>16/09/2023 21:14</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-linares/2ZDu6BRm/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-granada-cf/8x401mtJ/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1.35</v>
+        <v>1.79</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16/09/2023 21:14</t>
+          <t>16/09/2023 21:19</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.36</v>
+        <v>3.39</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>4.09</v>
+        <v>3.74</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>16/09/2023 21:14</t>
+          <t>16/09/2023 21:19</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>7.75</v>
+        <v>4.03</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>7.48</v>
+        <v>4.91</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>16/09/2023 21:14</t>
+          <t>16/09/2023 21:19</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-granada-cf/8x401mtJ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-linares/2ZDu6BRm/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.36</v>
+        <v>3.56</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:57</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.29</v>
+        <v>3.24</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.79</v>
+        <v>5.15</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.12</v>
+        <v>2.46</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.72</v>
+        <v>2.65</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:29</t>
         </is>
       </c>
       <c r="N36" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>14/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>17/09/2023 11:29</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>14/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
         <v>3.12</v>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>14/09/2023 15:43</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>17/09/2023 11:57</t>
-        </is>
-      </c>
-      <c r="R36" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>14/09/2023 15:43</t>
-        </is>
-      </c>
-      <c r="T36" t="n">
-        <v>5.15</v>
-      </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:29</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-recreativo-huelva/fRL79pYu/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.46</v>
+        <v>1.78</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.65</v>
+        <v>2.02</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:29</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>2.88</v>
+        <v>3.36</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2.78</v>
+        <v>3.36</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:29</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.84</v>
+        <v>4.29</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.12</v>
+        <v>3.79</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:29</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-recreativo-huelva/fRL79pYu/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,63 +5641,63 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.08</v>
+        <v>3.26</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.11</v>
+        <v>3.68</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.82</v>
+        <v>4.5</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.93</v>
+        <v>5.47</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,63 +5733,63 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.68</v>
+        <v>3.11</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.5</v>
+        <v>3.82</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>5.47</v>
+        <v>4.93</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J72" t="n">
-        <v>1.79</v>
+        <v>2.9</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.94</v>
+        <v>2.53</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>14/10/2023 15:32</t>
+          <t>14/10/2023 15:36</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.18</v>
+        <v>3.04</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.21</v>
+        <v>3.05</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>14/10/2023 15:32</t>
+          <t>14/10/2023 15:36</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>4.6</v>
+        <v>2.39</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>4.3</v>
+        <v>2.99</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>14/10/2023 15:32</t>
+          <t>14/10/2023 15:36</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-linares/2iiJrxVF/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-atl-madrid/jHP6ZXi2/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.9</v>
+        <v>1.79</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.53</v>
+        <v>1.94</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>14/10/2023 15:36</t>
+          <t>14/10/2023 15:32</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.04</v>
+        <v>3.18</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.05</v>
+        <v>3.21</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>14/10/2023 15:36</t>
+          <t>14/10/2023 15:32</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.39</v>
+        <v>4.6</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.99</v>
+        <v>4.3</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>14/10/2023 15:36</t>
+          <t>14/10/2023 15:32</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-atl-madrid/jHP6ZXi2/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-linares/2iiJrxVF/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>1.74</v>
+        <v>3.11</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.52</v>
+        <v>2.7</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.29</v>
+        <v>2.9</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4.03</v>
+        <v>2.74</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.71</v>
+        <v>2.3</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>6.68</v>
+        <v>3.1</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-recreativo-huelva/W8A6Zh9a/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-malaga/vZDEXWwC/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Recreativo Huelva</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Malaga</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
-        <v>2</v>
-      </c>
       <c r="J97" t="n">
-        <v>3.11</v>
+        <v>1.74</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.7</v>
+        <v>1.52</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2.9</v>
+        <v>3.29</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>2.74</v>
+        <v>4.03</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.3</v>
+        <v>4.71</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.1</v>
+        <v>6.68</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-malaga/vZDEXWwC/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-recreativo-huelva/W8A6Zh9a/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
-        <v>1.98</v>
+        <v>3.88</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.83</v>
+        <v>4.12</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>05/11/2023 18:04</t>
+          <t>05/11/2023 09:42</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.47</v>
+        <v>3.19</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.53</v>
+        <v>3.34</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>05/11/2023 18:04</t>
+          <t>05/11/2023 18:02</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.36</v>
+        <v>1.88</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>4.36</v>
+        <v>1.92</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>05/11/2023 18:04</t>
+          <t>05/11/2023 09:42</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-cordoba/Ct7A3XNu/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-ud-ibiza/K6AI1Bhh/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>3.88</v>
+        <v>1.98</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>4.12</v>
+        <v>1.83</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>05/11/2023 09:42</t>
+          <t>05/11/2023 18:04</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.19</v>
+        <v>3.47</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.34</v>
+        <v>3.53</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>05/11/2023 18:02</t>
+          <t>05/11/2023 18:04</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>1.88</v>
+        <v>3.36</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>1.92</v>
+        <v>4.36</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>05/11/2023 09:42</t>
+          <t>05/11/2023 18:04</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-ud-ibiza/K6AI1Bhh/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-cordoba/Ct7A3XNu/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J119" t="n">
-        <v>2.62</v>
+        <v>2.29</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>18/11/2023 15:56</t>
+          <t>18/11/2023 15:47</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2.84</v>
+        <v>2.93</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>2.81</v>
+        <v>2.93</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>18/11/2023 15:56</t>
+          <t>18/11/2023 15:31</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.72</v>
+        <v>3.09</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.97</v>
+        <v>2.83</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>18/11/2023 15:56</t>
+          <t>18/11/2023 15:47</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-cd-san-fernando/hv5shbLe/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-cordoba/Shk1CS6A/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J120" t="n">
-        <v>2.29</v>
+        <v>2.62</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>18/11/2023 15:47</t>
+          <t>18/11/2023 15:56</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>2.93</v>
+        <v>2.84</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2.93</v>
+        <v>2.81</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>18/11/2023 15:31</t>
+          <t>18/11/2023 15:56</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>3.09</v>
+        <v>2.72</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.83</v>
+        <v>2.97</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>18/11/2023 15:47</t>
+          <t>18/11/2023 15:56</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-cordoba/Shk1CS6A/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-cd-san-fernando/hv5shbLe/</t>
         </is>
       </c>
     </row>
@@ -13242,6 +13242,374 @@
       <c r="V139" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/recreativo-huelva-alcoyano/pC2wz5rD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45262.66666666666</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Merida AD</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:22</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:22</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:22</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-merida-ad/EV0kLdkr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45262.66666666666</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Atl. Madrid B</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>3</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Granada CF B</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>2</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:14</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:41</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:14</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-granada-cf/8UgbJzKf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45262.75</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>4</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:05</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:54</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-linares/djENPxsR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45262.83333333334</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Sanluqueno</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:37</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:37</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:37</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-sanluqueno/Gfc6HEl7/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V143"/>
+  <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.14</v>
+        <v>1.83</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.72</v>
+        <v>2.15</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>27/08/2023 20:09</t>
+          <t>26/08/2023 13:54</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.95</v>
+        <v>3.12</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2.99</v>
+        <v>3.12</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>27/08/2023 19:54</t>
+          <t>27/08/2023 18:31</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.38</v>
+        <v>4.25</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.82</v>
+        <v>3.61</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>27/08/2023 20:09</t>
+          <t>26/08/2023 13:03</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-ad-ceuta/nLtxlw62/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-algeciras/EFxgRFbk/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>26/08/2023 13:54</t>
+          <t>27/08/2023 18:38</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.12</v>
+        <v>3.26</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.12</v>
+        <v>3.02</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>27/08/2023 18:31</t>
+          <t>27/08/2023 18:38</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.25</v>
+        <v>4.81</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>26/08/2023 13:03</t>
+          <t>27/08/2023 18:38</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-algeciras/EFxgRFbk/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-sanluqueno/n5hEYc6F/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.7</v>
+        <v>2.14</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.22</v>
+        <v>2.72</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>27/08/2023 18:38</t>
+          <t>27/08/2023 20:09</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.26</v>
+        <v>2.95</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>27/08/2023 18:38</t>
+          <t>27/08/2023 19:54</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>4.81</v>
+        <v>3.38</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.62</v>
+        <v>2.82</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>27/08/2023 18:38</t>
+          <t>27/08/2023 20:09</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-sanluqueno/n5hEYc6F/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-ad-ceuta/nLtxlw62/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.17</v>
+        <v>2.58</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>03/09/2023 11:09</t>
+          <t>03/09/2023 12:15</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.12</v>
+        <v>3.01</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>03/09/2023 18:31</t>
+          <t>03/09/2023 18:34</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.04</v>
+        <v>2.68</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.26</v>
+        <v>2.52</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>03/09/2023 11:09</t>
+          <t>03/09/2023 12:15</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-recreativo-huelva/G0Yhpe5R/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-castellon/I9KKuFDr/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.58</v>
+        <v>2.17</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>03/09/2023 12:15</t>
+          <t>03/09/2023 11:09</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>03/09/2023 18:34</t>
+          <t>03/09/2023 18:31</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.68</v>
+        <v>3.04</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.52</v>
+        <v>3.26</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>03/09/2023 12:15</t>
+          <t>03/09/2023 11:09</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-castellon/I9KKuFDr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-recreativo-huelva/G0Yhpe5R/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.14</v>
+        <v>2.63</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.52</v>
+        <v>2.86</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>03/09/2023 19:01</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>03/09/2023 19:31</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.36</v>
+        <v>2.51</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.02</v>
+        <v>2.6</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>03/09/2023 19:01</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-alcoyano/nqPOvZSl/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.63</v>
+        <v>2.14</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.86</v>
+        <v>2.52</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>03/09/2023 19:01</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>03/09/2023 19:31</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.51</v>
+        <v>3.36</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.6</v>
+        <v>3.02</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>03/09/2023 19:01</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-alcoyano/nqPOvZSl/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,14 +2513,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.7</v>
+        <v>3.19</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.69</v>
+        <v>2.76</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>09/09/2023 17:50</t>
+          <t>09/09/2023 19:40</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.29</v>
+        <v>2.95</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.57</v>
+        <v>3.33</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>09/09/2023 19:48</t>
+          <t>09/09/2023 19:40</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.74</v>
+        <v>2.22</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>5.36</v>
+        <v>2.53</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>09/09/2023 19:48</t>
+          <t>09/09/2023 19:40</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-sanluqueno/M1w7iCCf/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-real-madrid/vwl2hhcl/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.19</v>
+        <v>1.7</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.76</v>
+        <v>1.69</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>09/09/2023 19:40</t>
+          <t>09/09/2023 17:50</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2.95</v>
+        <v>3.29</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.33</v>
+        <v>3.57</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>09/09/2023 19:40</t>
+          <t>09/09/2023 19:48</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.22</v>
+        <v>4.74</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.53</v>
+        <v>5.36</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>09/09/2023 19:40</t>
+          <t>09/09/2023 19:48</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-real-madrid/vwl2hhcl/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-sanluqueno/M1w7iCCf/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10/09/2023 11:42</t>
+          <t>09/09/2023 14:59</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10/09/2023 10:05</t>
+          <t>10/09/2023 10:02</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.91</v>
+        <v>3.18</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.02</v>
+        <v>3.57</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>10/09/2023 11:42</t>
+          <t>09/09/2023 14:59</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-ud-ibiza/8fcWcEZQ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ad-ceuta/QZqbgYsr/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>07/09/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>10/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>07/09/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
         <v>3</v>
       </c>
-      <c r="J26" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>10/09/2023 10:05</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S26" t="inlineStr">
         <is>
           <t>07/09/2023 09:13</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>09/09/2023 14:59</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>07/09/2023 09:13</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>10/09/2023 10:02</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>07/09/2023 09:13</t>
-        </is>
-      </c>
       <c r="T26" t="n">
-        <v>3.57</v>
+        <v>3.02</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>09/09/2023 14:59</t>
+          <t>10/09/2023 11:42</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ad-ceuta/QZqbgYsr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-ud-ibiza/8fcWcEZQ/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.54</v>
+        <v>1.92</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>10/09/2023 10:03</t>
+          <t>10/09/2023 08:28</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>10/09/2023 10:03</t>
+          <t>10/09/2023 10:05</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.78</v>
+        <v>3.89</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.46</v>
+        <v>3.79</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>10/09/2023 10:03</t>
+          <t>10/09/2023 08:28</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-malaga/0hxBjWR0/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-melilla/lSX4CDlK/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>2</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Melilla</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
-        <v>1.92</v>
+        <v>2.54</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>10/09/2023 08:28</t>
+          <t>10/09/2023 10:03</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>10/09/2023 10:05</t>
+          <t>10/09/2023 10:03</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.89</v>
+        <v>2.78</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.79</v>
+        <v>2.46</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>10/09/2023 08:28</t>
+          <t>10/09/2023 10:03</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-melilla/lSX4CDlK/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-malaga/0hxBjWR0/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3.96</v>
+        <v>2.15</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 14:55</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 17:33</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.92</v>
+        <v>3.45</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.36</v>
+        <v>3.62</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>17/09/2023 19:22</t>
+          <t>17/09/2023 15:15</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.15</v>
+        <v>3.96</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.22</v>
+        <v>3.05</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>17/09/2023 14:55</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2.99</v>
+        <v>3.26</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>17/09/2023 17:33</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.45</v>
+        <v>1.92</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.62</v>
+        <v>2.36</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>17/09/2023 15:15</t>
+          <t>17/09/2023 19:22</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-merida-ad/pbJz7iCs/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-castellon/tQCq5Vtf/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.41</v>
+        <v>2.81</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.9</v>
+        <v>2.71</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 14:45</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2.91</v>
+        <v>3.01</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 14:01</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.93</v>
+        <v>2.48</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.65</v>
+        <v>2.84</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 14:45</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-cf-intercity/O6DO52X4/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ud-ibiza/UqEK6rIb/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.81</v>
+        <v>2.41</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.71</v>
+        <v>2.9</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 14:45</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.01</v>
+        <v>2.91</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 14:01</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.48</v>
+        <v>2.93</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.84</v>
+        <v>2.65</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 14:45</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ud-ibiza/UqEK6rIb/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-cf-intercity/O6DO52X4/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>3.21</v>
+        <v>3.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3.42</v>
+        <v>3.19</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>07/10/2023 13:28</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.04</v>
+        <v>3.15</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>08/10/2023 10:02</t>
+          <t>08/10/2023 10:51</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.23</v>
+        <v>2.09</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>08/10/2023 06:53</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>2</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Ceuta</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
       <c r="J65" t="n">
-        <v>3.5</v>
+        <v>2.43</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,48 +6392,48 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.19</v>
+        <v>2.62</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="N65" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
         <v>3.05</v>
       </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>05/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="P65" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>08/10/2023 10:51</t>
-        </is>
-      </c>
-      <c r="R65" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>05/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T65" t="n">
-        <v>2.34</v>
-      </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cf-intercity/tn6OMf8d/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>CF Intercity</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>2</v>
-      </c>
       <c r="J66" t="n">
-        <v>2.43</v>
+        <v>3.21</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.62</v>
+        <v>3.42</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>07/10/2023 13:28</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>2.88</v>
+        <v>3.04</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>08/10/2023 10:02</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.93</v>
+        <v>2.23</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.05</v>
+        <v>2.24</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>08/10/2023 06:53</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cf-intercity/tn6OMf8d/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.9</v>
+        <v>1.79</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.53</v>
+        <v>1.94</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>14/10/2023 15:36</t>
+          <t>14/10/2023 15:32</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.04</v>
+        <v>3.18</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.05</v>
+        <v>3.21</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>14/10/2023 15:36</t>
+          <t>14/10/2023 15:32</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.39</v>
+        <v>4.6</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.99</v>
+        <v>4.3</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>14/10/2023 15:36</t>
+          <t>14/10/2023 15:32</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-atl-madrid/jHP6ZXi2/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-linares/2iiJrxVF/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
-        <v>1.79</v>
+        <v>2.9</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.94</v>
+        <v>2.53</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>14/10/2023 15:32</t>
+          <t>14/10/2023 15:36</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.18</v>
+        <v>3.04</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.21</v>
+        <v>3.05</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>14/10/2023 15:32</t>
+          <t>14/10/2023 15:36</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>4.6</v>
+        <v>2.39</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>4.3</v>
+        <v>2.99</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>14/10/2023 15:32</t>
+          <t>14/10/2023 15:36</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-linares/2iiJrxVF/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-atl-madrid/jHP6ZXi2/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>2.9</v>
+        <v>1.59</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.92</v>
+        <v>1.54</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.96</v>
+        <v>3.55</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.45</v>
+        <v>5.47</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.43</v>
+        <v>6.68</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-castellon/xEL2zExd/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-recreativo-huelva/AXrkdeaF/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>1.59</v>
+        <v>2.9</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.54</v>
+        <v>2.92</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>5.47</v>
+        <v>2.45</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>6.68</v>
+        <v>2.43</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-recreativo-huelva/AXrkdeaF/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-castellon/xEL2zExd/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.75</v>
+        <v>4.18</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.75</v>
+        <v>4.16</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 10:38</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.42</v>
+        <v>3.14</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 10:01</t>
+          <t>22/10/2023 10:03</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.53</v>
+        <v>1.85</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>5.02</v>
+        <v>2</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 04:23</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>4.18</v>
+        <v>1.75</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>4.16</v>
+        <v>1.75</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>22/10/2023 10:38</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.14</v>
+        <v>3.42</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>22/10/2023 10:03</t>
+          <t>22/10/2023 10:01</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>1.85</v>
+        <v>4.53</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2</v>
+        <v>5.02</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>22/10/2023 04:23</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,14 +8585,14 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.79</v>
+        <v>3.83</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.02</v>
+        <v>4.68</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>28/10/2023 15:42</t>
+          <t>28/10/2023 15:54</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>2.99</v>
+        <v>3.3</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>2.84</v>
+        <v>3.58</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>28/10/2023 15:42</t>
+          <t>28/10/2023 15:54</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.51</v>
+        <v>1.86</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.67</v>
+        <v>1.78</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>28/10/2023 15:42</t>
+          <t>28/10/2023 15:54</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-sanluqueno/QV9AYCO5/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-castellon/Sfj5ffoP/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>3.83</v>
+        <v>2.79</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>4.68</v>
+        <v>3.02</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>28/10/2023 15:54</t>
+          <t>28/10/2023 15:42</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.3</v>
+        <v>2.99</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.58</v>
+        <v>2.84</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>28/10/2023 15:54</t>
+          <t>28/10/2023 15:42</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>1.86</v>
+        <v>2.51</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>1.78</v>
+        <v>2.67</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>28/10/2023 15:54</t>
+          <t>28/10/2023 15:42</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-castellon/Sfj5ffoP/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-sanluqueno/QV9AYCO5/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Recreativo Huelva</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Malaga</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>2</v>
-      </c>
       <c r="J96" t="n">
-        <v>3.11</v>
+        <v>1.74</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.7</v>
+        <v>1.52</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2.9</v>
+        <v>3.29</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>2.74</v>
+        <v>4.03</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.3</v>
+        <v>4.71</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.1</v>
+        <v>6.68</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-malaga/vZDEXWwC/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-recreativo-huelva/W8A6Zh9a/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>1.74</v>
+        <v>3.11</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.52</v>
+        <v>2.7</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.29</v>
+        <v>2.9</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>4.03</v>
+        <v>2.74</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>4.71</v>
+        <v>2.3</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>6.68</v>
+        <v>3.1</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-recreativo-huelva/W8A6Zh9a/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-malaga/vZDEXWwC/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>02/12/2023 15:22</t>
+          <t>02/12/2023 14:14</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.21</v>
+        <v>3.18</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.48</v>
+        <v>3.65</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>02/12/2023 15:22</t>
+          <t>02/12/2023 14:41</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>4.77</v>
+        <v>4.23</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>5.87</v>
+        <v>4.53</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>02/12/2023 15:22</t>
+          <t>02/12/2023 14:14</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-merida-ad/EV0kLdkr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-granada-cf/8UgbJzKf/</t>
         </is>
       </c>
     </row>
@@ -13361,22 +13361,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,15 +13384,15 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>02/12/2023 14:14</t>
+          <t>02/12/2023 15:22</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.18</v>
+        <v>3.21</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.65</v>
+        <v>3.48</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>02/12/2023 14:41</t>
+          <t>02/12/2023 15:22</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>4.23</v>
+        <v>4.77</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>4.53</v>
+        <v>5.87</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>02/12/2023 14:14</t>
+          <t>02/12/2023 15:22</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-granada-cf/8UgbJzKf/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-merida-ad/EV0kLdkr/</t>
         </is>
       </c>
     </row>
@@ -13610,6 +13610,2398 @@
       <c r="V143" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-sanluqueno/Gfc6HEl7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45263.5</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Baleares</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Alcoyano</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-alcoyano/djzguItE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45263.5</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Melilla</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cordoba/4Gw1wdBQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45263.66666666666</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Recreativo Huelva</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:40</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:40</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/recreativo-huelva-murcia/nLh2IfZ0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45263.75</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Antequera</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Algeciras</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:33</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:25</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:33</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-algeciras/AgvcvxdK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45263.75</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:39</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:45</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:39</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-ud-ibiza/fodAGY3D/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45263.83333333334</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Real Madrid B</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>2</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:44</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:44</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>30/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:39</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-cd-san-fernando/Q54gKG4l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45269.59375</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Granada CF B</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Real Madrid B</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>08/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:13</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>08/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:13</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>08/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:13</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-real-madrid/QRuUWglf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45269.66666666666</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Alcoyano</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Atl. Madrid B</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>3</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:01</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:01</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:01</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-atl-madrid/6PPSYFJs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45269.83333333334</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>2</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>09/12/2023 19:58</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>09/12/2023 19:58</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>09/12/2023 19:58</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-castellon/KluYVD30/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45270.5</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Algeciras</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:31</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:31</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:31</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-ud-ibiza/nysQXZYm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45270.5</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Baleares</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:33</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:33</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:33</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-baleares/rNQSieQJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45270.5</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>3</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>2</v>
+      </c>
+      <c r="J155" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:40</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>10/12/2023 10:27</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T155" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:31</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-ad-ceuta/MDPWjFuQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45270.5</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sanluqueno</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>2</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Melilla</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:33</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:33</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T156" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:33</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-melilla/Sf2anZms/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45270.66666666666</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Recreativo Huelva</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>2</v>
+      </c>
+      <c r="J157" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:31</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T157" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-recreativo-huelva/YiqxVXI6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45270.75</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Merida AD</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>2</v>
+      </c>
+      <c r="J158" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:44</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:44</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T158" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:44</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-malaga/GGYtUiYC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45270.83333333334</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Antequera</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>2</v>
+      </c>
+      <c r="J159" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:57</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T159" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:57</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-antequera/f7XpTBmJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45276.75</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Real Madrid B</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>3</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>3</v>
+      </c>
+      <c r="J160" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>15/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>16/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>15/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>16/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>15/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T160" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>16/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-cf-intercity/lrCNtVHI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45276.83333333334</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Recreativo Huelva</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Granada CF B</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:04</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:58</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="T161" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:58</t>
+        </is>
+      </c>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/recreativo-huelva-granada-cf/2PIZmnPo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45277.5</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Merida AD</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:36</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:36</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="T162" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:36</t>
+        </is>
+      </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-merida-ad/GUDFrim6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45277.5</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Baleares</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:56</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:56</t>
+        </is>
+      </c>
+      <c r="R163" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="T163" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-cordoba/bgJAqXXa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45277.5</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Melilla</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>17/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>17/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="R164" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="T164" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>17/12/2023 10:02</t>
+        </is>
+      </c>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-linares/ltHsnQgb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45277.5</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>3</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Antequera</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="T165" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-antequera/tGHwm6vh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45277.66666666666</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Alcoyano</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>3</v>
+      </c>
+      <c r="J166" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="R166" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="T166" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-alcoyano/fLCJsB2C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45277.75</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>2</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:54</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="T167" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:54</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/castellon-murcia/QuL2og3m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45277.83333333334</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Atl. Madrid B</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Sanluqueno</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:59</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:59</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="T168" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:56</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-sanluqueno/K2K6pDIg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45277.83333333334</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>2</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Algeciras</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:34</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:34</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:14</t>
+        </is>
+      </c>
+      <c r="T169" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:34</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-algeciras/0KviP2no/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V169"/>
+  <dimension ref="A1:V172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.83</v>
+        <v>2.14</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.15</v>
+        <v>2.72</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>26/08/2023 13:54</t>
+          <t>27/08/2023 20:09</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.12</v>
+        <v>2.99</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>27/08/2023 18:31</t>
+          <t>27/08/2023 19:54</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.25</v>
+        <v>3.38</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.61</v>
+        <v>2.82</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>26/08/2023 13:03</t>
+          <t>27/08/2023 20:09</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-algeciras/EFxgRFbk/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-ad-ceuta/nLtxlw62/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>27/08/2023 18:38</t>
+          <t>26/08/2023 13:54</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.26</v>
+        <v>3.12</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.02</v>
+        <v>3.12</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>27/08/2023 18:38</t>
+          <t>27/08/2023 18:31</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.81</v>
+        <v>4.25</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>27/08/2023 18:38</t>
+          <t>26/08/2023 13:03</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-sanluqueno/n5hEYc6F/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-algeciras/EFxgRFbk/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.14</v>
+        <v>1.7</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.72</v>
+        <v>2.22</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>27/08/2023 20:09</t>
+          <t>27/08/2023 18:38</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.95</v>
+        <v>3.26</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2.99</v>
+        <v>3.02</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>27/08/2023 19:54</t>
+          <t>27/08/2023 18:38</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.38</v>
+        <v>4.81</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.82</v>
+        <v>3.62</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>27/08/2023 20:09</t>
+          <t>27/08/2023 18:38</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-ad-ceuta/nLtxlw62/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-sanluqueno/n5hEYc6F/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Murcia</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
       <c r="J9" t="n">
-        <v>2.98</v>
+        <v>2.49</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3.68</v>
+        <v>2.48</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>27/08/2023 21:10</t>
+          <t>27/08/2023 15:05</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.01</v>
+        <v>2.93</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>27/08/2023 21:10</t>
+          <t>27/08/2023 19:30</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.36</v>
+        <v>2.88</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.21</v>
+        <v>3.14</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>27/08/2023 16:20</t>
+          <t>27/08/2023 15:05</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-murcia/fVeMWyyS/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/recreativo-huelva-cf-intercity/0CYlSeqq/</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.49</v>
+        <v>2.98</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.48</v>
+        <v>3.68</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>27/08/2023 15:05</t>
+          <t>27/08/2023 21:10</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2.93</v>
+        <v>3.01</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>27/08/2023 19:30</t>
+          <t>27/08/2023 21:10</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.88</v>
+        <v>2.36</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>3.14</v>
+        <v>2.21</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>27/08/2023 15:05</t>
+          <t>27/08/2023 16:20</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/recreativo-huelva-cf-intercity/0CYlSeqq/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-murcia/fVeMWyyS/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,14 +2513,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>3.19</v>
+        <v>1.7</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.76</v>
+        <v>1.69</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>09/09/2023 19:40</t>
+          <t>09/09/2023 17:50</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2.95</v>
+        <v>3.29</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.33</v>
+        <v>3.57</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>09/09/2023 19:40</t>
+          <t>09/09/2023 19:48</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.22</v>
+        <v>4.74</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.53</v>
+        <v>5.36</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>09/09/2023 19:40</t>
+          <t>09/09/2023 19:48</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-real-madrid/vwl2hhcl/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-sanluqueno/M1w7iCCf/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.7</v>
+        <v>3.19</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.69</v>
+        <v>2.76</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>09/09/2023 17:50</t>
+          <t>09/09/2023 19:40</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.29</v>
+        <v>2.95</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.57</v>
+        <v>3.33</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>09/09/2023 19:48</t>
+          <t>09/09/2023 19:40</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.74</v>
+        <v>2.22</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>5.36</v>
+        <v>2.53</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>09/09/2023 19:48</t>
+          <t>09/09/2023 19:40</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-sanluqueno/M1w7iCCf/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-real-madrid/vwl2hhcl/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.12</v>
+        <v>3.36</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.56</v>
+        <v>3.36</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:57</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.24</v>
+        <v>4.29</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.15</v>
+        <v>3.79</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.65</v>
+        <v>1.72</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>17/09/2023 11:29</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>2.88</v>
+        <v>3.12</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>2.78</v>
+        <v>3.56</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>17/09/2023 11:29</t>
+          <t>17/09/2023 11:57</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.84</v>
+        <v>3.24</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.12</v>
+        <v>5.15</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>17/09/2023 11:29</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-recreativo-huelva/fRL79pYu/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.78</v>
+        <v>2.46</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.02</v>
+        <v>2.65</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:29</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.36</v>
+        <v>2.88</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.36</v>
+        <v>2.78</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:29</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.29</v>
+        <v>2.84</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.79</v>
+        <v>3.12</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:29</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-recreativo-huelva/fRL79pYu/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.81</v>
+        <v>2.41</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.71</v>
+        <v>2.9</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 14:45</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.01</v>
+        <v>2.91</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 14:01</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.48</v>
+        <v>2.93</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.84</v>
+        <v>2.65</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 14:45</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ud-ibiza/UqEK6rIb/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-cf-intercity/O6DO52X4/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.41</v>
+        <v>2.81</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.9</v>
+        <v>2.71</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 14:45</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2.91</v>
+        <v>3.01</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 14:01</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.93</v>
+        <v>2.48</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.65</v>
+        <v>2.84</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 14:45</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-cf-intercity/O6DO52X4/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-ud-ibiza/UqEK6rIb/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>1.97</v>
+        <v>2.9</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.37</v>
+        <v>2.92</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>15/10/2023 11:58</t>
+          <t>15/10/2023 11:54</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.07</v>
+        <v>2.96</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>15/10/2023 11:58</t>
+          <t>15/10/2023 11:54</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.74</v>
+        <v>2.45</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.33</v>
+        <v>2.43</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>15/10/2023 11:58</t>
+          <t>15/10/2023 11:54</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-algeciras/4KDlbHU2/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-castellon/xEL2zExd/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.9</v>
+        <v>1.97</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.92</v>
+        <v>2.37</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>15/10/2023 11:54</t>
+          <t>15/10/2023 11:58</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2.96</v>
+        <v>3.07</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>15/10/2023 11:54</t>
+          <t>15/10/2023 11:58</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.45</v>
+        <v>3.74</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.43</v>
+        <v>3.33</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>15/10/2023 11:54</t>
+          <t>15/10/2023 11:58</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-castellon/xEL2zExd/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-algeciras/4KDlbHU2/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>4.18</v>
+        <v>1.75</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>4.16</v>
+        <v>1.75</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 10:38</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.14</v>
+        <v>3.42</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 10:03</t>
+          <t>22/10/2023 10:01</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.85</v>
+        <v>4.53</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2</v>
+        <v>5.02</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 04:23</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>1.75</v>
+        <v>4.18</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.75</v>
+        <v>4.16</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 10:38</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.42</v>
+        <v>3.14</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>22/10/2023 10:01</t>
+          <t>22/10/2023 10:03</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.53</v>
+        <v>1.85</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>5.02</v>
+        <v>2</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 04:23</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,14 +8585,14 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>3.83</v>
+        <v>2.79</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>4.68</v>
+        <v>3.02</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>28/10/2023 15:54</t>
+          <t>28/10/2023 15:42</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.3</v>
+        <v>2.99</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.58</v>
+        <v>2.84</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>28/10/2023 15:54</t>
+          <t>28/10/2023 15:42</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>1.86</v>
+        <v>2.51</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>1.78</v>
+        <v>2.67</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>28/10/2023 15:54</t>
+          <t>28/10/2023 15:42</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-castellon/Sfj5ffoP/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-sanluqueno/QV9AYCO5/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.79</v>
+        <v>3.83</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.02</v>
+        <v>4.68</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>28/10/2023 15:42</t>
+          <t>28/10/2023 15:54</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>2.99</v>
+        <v>3.3</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>2.84</v>
+        <v>3.58</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>28/10/2023 15:42</t>
+          <t>28/10/2023 15:54</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.51</v>
+        <v>1.86</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.67</v>
+        <v>1.78</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>28/10/2023 15:42</t>
+          <t>28/10/2023 15:54</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-sanluqueno/QV9AYCO5/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-castellon/Sfj5ffoP/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J121" t="n">
-        <v>2.48</v>
+        <v>1.55</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.3</v>
+        <v>1.52</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>18/11/2023 17:04</t>
+          <t>18/11/2023 17:41</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2.86</v>
+        <v>3.51</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2.88</v>
+        <v>3.72</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>18/11/2023 17:04</t>
+          <t>18/11/2023 17:41</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.87</v>
+        <v>5.82</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>3.64</v>
+        <v>7.82</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>18/11/2023 17:04</t>
+          <t>18/11/2023 17:41</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-murcia/bJpcD8i4/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-alcoyano/WU3oiIz2/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>1.55</v>
+        <v>2.48</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1.52</v>
+        <v>2.3</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>18/11/2023 17:41</t>
+          <t>18/11/2023 17:04</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3.51</v>
+        <v>2.86</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.72</v>
+        <v>2.88</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>18/11/2023 17:41</t>
+          <t>18/11/2023 17:04</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>5.82</v>
+        <v>2.87</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>7.82</v>
+        <v>3.64</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>18/11/2023 17:41</t>
+          <t>18/11/2023 17:04</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-alcoyano/WU3oiIz2/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-murcia/bJpcD8i4/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>1.75</v>
+        <v>2.17</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1.69</v>
+        <v>2.69</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>26/11/2023 11:56</t>
+          <t>26/11/2023 11:49</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.46</v>
+        <v>3.13</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>26/11/2023 11:56</t>
+          <t>26/11/2023 11:55</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>4.59</v>
+        <v>3.17</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>5.63</v>
+        <v>2.73</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>26/11/2023 11:56</t>
+          <t>26/11/2023 11:49</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-melilla/IaFJQIRK/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-castellon/vyRC7wLr/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.05</v>
+        <v>1.69</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>26/11/2023 10:57</t>
+          <t>26/11/2023 11:56</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>2.91</v>
+        <v>3.21</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.03</v>
+        <v>3.46</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>26/11/2023 10:03</t>
+          <t>26/11/2023 11:56</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>3.2</v>
+        <v>4.59</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>4.19</v>
+        <v>5.63</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>26/11/2023 10:57</t>
+          <t>26/11/2023 11:56</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-baleares/MXLASvc8/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-melilla/IaFJQIRK/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Baleares</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
         <v>2</v>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Castellon</t>
-        </is>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
       <c r="J134" t="n">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.69</v>
+        <v>2.05</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>26/11/2023 11:49</t>
+          <t>26/11/2023 10:57</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.08</v>
+        <v>2.91</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.13</v>
+        <v>3.03</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>26/11/2023 11:55</t>
+          <t>26/11/2023 10:03</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>2.73</v>
+        <v>4.19</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>26/11/2023 11:49</t>
+          <t>26/11/2023 10:57</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-castellon/vyRC7wLr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-baleares/MXLASvc8/</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -12817,14 +12817,14 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J135" t="n">
-        <v>2.75</v>
+        <v>2.69</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.92</v>
+        <v>3.38</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>26/11/2023 17:30</t>
+          <t>26/11/2023 17:13</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>2.88</v>
+        <v>2.79</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>26/11/2023 17:30</t>
+          <t>26/11/2023 17:51</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>2.56</v>
+        <v>2.69</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>2.72</v>
+        <v>2.44</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>26/11/2023 17:30</t>
+          <t>26/11/2023 17:51</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-cf-intercity/YBuG6czk/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-malaga/fRTO4y51/</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -12909,14 +12909,14 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>2.69</v>
+        <v>2.75</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>3.38</v>
+        <v>2.92</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>26/11/2023 17:13</t>
+          <t>26/11/2023 17:30</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>2.79</v>
+        <v>2.88</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>26/11/2023 17:51</t>
+          <t>26/11/2023 17:30</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>2.69</v>
+        <v>2.56</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>26/11/2023 17:51</t>
+          <t>26/11/2023 17:30</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-malaga/fRTO4y51/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-cf-intercity/YBuG6czk/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>3.04</v>
+        <v>4.93</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,7 +13660,7 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>3.21</v>
+        <v>5.5</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         </is>
       </c>
       <c r="N144" t="n">
-        <v>2.79</v>
+        <v>3.27</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>2.87</v>
+        <v>3.5</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         </is>
       </c>
       <c r="R144" t="n">
-        <v>2.46</v>
+        <v>1.71</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>2.52</v>
+        <v>1.69</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-alcoyano/djzguItE/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cordoba/4Gw1wdBQ/</t>
         </is>
       </c>
     </row>
@@ -13729,22 +13729,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I145" t="n">
         <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>4.93</v>
+        <v>3.04</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>5.5</v>
+        <v>3.21</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.27</v>
+        <v>2.79</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.5</v>
+        <v>2.87</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         </is>
       </c>
       <c r="R145" t="n">
-        <v>1.71</v>
+        <v>2.46</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>1.69</v>
+        <v>2.52</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cordoba/4Gw1wdBQ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-alcoyano/djzguItE/</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -13921,14 +13921,14 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I147" t="n">
         <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>2.19</v>
+        <v>2.76</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>03/12/2023 17:33</t>
+          <t>03/12/2023 17:39</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,15 +13952,15 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.07</v>
+        <v>2.96</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>03/12/2023 17:25</t>
+          <t>03/12/2023 17:45</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>3.48</v>
+        <v>2.65</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>03/12/2023 17:33</t>
+          <t>03/12/2023 17:39</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-algeciras/AgvcvxdK/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-ud-ibiza/fodAGY3D/</t>
         </is>
       </c>
     </row>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -14013,14 +14013,14 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I148" t="n">
         <v>1</v>
       </c>
       <c r="J148" t="n">
-        <v>2.76</v>
+        <v>2.19</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>03/12/2023 17:39</t>
+          <t>03/12/2023 17:33</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>2.96</v>
+        <v>3.07</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>03/12/2023 17:45</t>
+          <t>03/12/2023 17:25</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>2.65</v>
+        <v>3.48</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>03/12/2023 17:39</t>
+          <t>03/12/2023 17:33</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-ud-ibiza/fodAGY3D/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-algeciras/AgvcvxdK/</t>
         </is>
       </c>
     </row>
@@ -14465,22 +14465,22 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>3.25</v>
+        <v>1.81</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,15 +14488,15 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>3.45</v>
+        <v>1.93</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>10/12/2023 11:31</t>
+          <t>10/12/2023 11:33</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>2.83</v>
+        <v>3.14</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -14504,15 +14504,15 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>2.79</v>
+        <v>3.22</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>10/12/2023 11:31</t>
+          <t>10/12/2023 11:33</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>2.31</v>
+        <v>4.46</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -14520,16 +14520,16 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>2.45</v>
+        <v>4.4</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>10/12/2023 11:31</t>
+          <t>10/12/2023 11:33</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-ud-ibiza/nysQXZYm/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-melilla/Sf2anZms/</t>
         </is>
       </c>
     </row>
@@ -14557,22 +14557,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J154" t="n">
-        <v>1.89</v>
+        <v>2.36</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,15 +14580,15 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>1.71</v>
+        <v>2.85</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>10/12/2023 11:33</t>
+          <t>10/12/2023 11:40</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.06</v>
+        <v>2.83</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>10/12/2023 11:33</t>
+          <t>10/12/2023 10:27</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>4.2</v>
+        <v>3.16</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>5.35</v>
+        <v>2.72</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>10/12/2023 11:33</t>
+          <t>10/12/2023 11:31</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-baleares/rNQSieQJ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-ad-ceuta/MDPWjFuQ/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>2.36</v>
+        <v>3.25</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,11 +14672,11 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.85</v>
+        <v>3.45</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>10/12/2023 11:40</t>
+          <t>10/12/2023 11:31</t>
         </is>
       </c>
       <c r="N155" t="n">
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>2.95</v>
+        <v>2.79</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>10/12/2023 10:27</t>
+          <t>10/12/2023 11:31</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>3.16</v>
+        <v>2.31</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>2.72</v>
+        <v>2.45</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-ad-ceuta/MDPWjFuQ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-ud-ibiza/nysQXZYm/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>1.93</v>
+        <v>1.71</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.14</v>
+        <v>3.06</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         </is>
       </c>
       <c r="R156" t="n">
-        <v>4.46</v>
+        <v>4.2</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>4.4</v>
+        <v>5.35</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-melilla/Sf2anZms/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-baleares/rNQSieQJ/</t>
         </is>
       </c>
     </row>
@@ -16002,6 +16002,282 @@
       <c r="V169" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-algeciras/0KviP2no/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45293.79166666666</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Algeciras</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>2</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Recreativo Huelva</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>3</v>
+      </c>
+      <c r="J170" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>31/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>02/01/2024 18:50</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>31/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>02/01/2024 18:50</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>31/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="T170" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>02/01/2024 18:50</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-recreativo-huelva/Ob9fqOwH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45293.875</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>CF Intercity</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>2</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>2</v>
+      </c>
+      <c r="J171" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>31/12/2024 21:12</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>02/01/2024 20:57</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>31/12/2024 21:12</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>02/01/2024 20:57</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>31/12/2024 21:12</t>
+        </is>
+      </c>
+      <c r="T171" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>02/01/2024 20:57</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-malaga/Ae5jp4OA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45293.875</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Atl. Madrid B</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>31/12/2024 21:12</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>02/01/2024 20:34</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>31/12/2024 21:12</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>02/01/2024 20:54</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>31/12/2024 21:12</t>
+        </is>
+      </c>
+      <c r="T172" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>02/01/2024 20:54</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-atl-madrid/tztLaqOc/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V172"/>
+  <dimension ref="A1:V177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.56</v>
+        <v>2.01</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.33</v>
+        <v>2.64</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>02/09/2023 20:29</t>
+          <t>02/09/2023 20:21</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.02</v>
+        <v>3.16</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>02/09/2023 18:31</t>
+          <t>02/09/2023 18:33</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.8</v>
+        <v>3.44</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>3.36</v>
+        <v>2.76</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>02/09/2023 20:29</t>
+          <t>02/09/2023 20:21</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-merida-ad/CS3Naz5E/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-granada-cf/KYGyxXC7/</t>
         </is>
       </c>
     </row>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.05</v>
+        <v>2.56</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.08</v>
+        <v>2.33</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:29</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.13</v>
+        <v>2.84</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3.02</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 18:31</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.53</v>
+        <v>2.8</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.7</v>
+        <v>3.36</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>02/09/2023 20:22</t>
+          <t>02/09/2023 20:29</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-merida-ad/CS3Naz5E/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.64</v>
+        <v>2.08</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:21</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>02/09/2023 18:33</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.44</v>
+        <v>3.53</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.76</v>
+        <v>3.7</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>02/09/2023 20:21</t>
+          <t>02/09/2023 20:22</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-granada-cf/KYGyxXC7/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-cordoba/8bDXxDc1/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Atl. Madrid B</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Baleares</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.2</v>
+        <v>3.89</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.4</v>
+        <v>6.63</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>4.61</v>
+        <v>5.77</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>02/09/2023 21:28</t>
+          <t>02/09/2023 19:43</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-baleares/Yy5J0Gk8/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-atl-madrid/QZNSwgre/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.96</v>
+        <v>3.31</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.89</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>6.63</v>
+        <v>4.4</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.77</v>
+        <v>4.61</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>02/09/2023 19:43</t>
+          <t>02/09/2023 21:28</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-atl-madrid/QZNSwgre/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-baleares/Yy5J0Gk8/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.58</v>
+        <v>2.17</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>03/09/2023 12:15</t>
+          <t>03/09/2023 11:09</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>03/09/2023 18:34</t>
+          <t>03/09/2023 18:31</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.68</v>
+        <v>3.04</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.52</v>
+        <v>3.26</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>03/09/2023 12:15</t>
+          <t>03/09/2023 11:09</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-castellon/I9KKuFDr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-recreativo-huelva/G0Yhpe5R/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.17</v>
+        <v>2.58</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>03/09/2023 11:09</t>
+          <t>03/09/2023 12:15</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.12</v>
+        <v>3.01</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>03/09/2023 18:31</t>
+          <t>03/09/2023 18:34</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.04</v>
+        <v>2.68</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.26</v>
+        <v>2.52</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>03/09/2023 11:09</t>
+          <t>03/09/2023 12:15</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-recreativo-huelva/G0Yhpe5R/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-castellon/I9KKuFDr/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.63</v>
+        <v>2.14</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.86</v>
+        <v>2.52</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>03/09/2023 19:01</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>03/09/2023 19:31</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.51</v>
+        <v>3.36</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.6</v>
+        <v>3.02</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>03/09/2023 21:27</t>
+          <t>03/09/2023 19:01</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-alcoyano/nqPOvZSl/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.14</v>
+        <v>2.63</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.52</v>
+        <v>2.86</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>03/09/2023 19:01</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>03/09/2023 19:31</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.36</v>
+        <v>2.51</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.02</v>
+        <v>2.6</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>03/09/2023 19:01</t>
+          <t>03/09/2023 21:27</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-alcoyano/nqPOvZSl/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-real-madrid/YyqloyjL/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>2</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Melilla</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
       <c r="J27" t="n">
-        <v>1.92</v>
+        <v>2.54</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>10/09/2023 08:28</t>
+          <t>10/09/2023 10:03</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>10/09/2023 10:05</t>
+          <t>10/09/2023 10:03</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.89</v>
+        <v>2.78</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.79</v>
+        <v>2.46</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>10/09/2023 08:28</t>
+          <t>10/09/2023 10:03</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-melilla/lSX4CDlK/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-malaga/0hxBjWR0/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.54</v>
+        <v>1.92</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>10/09/2023 10:03</t>
+          <t>10/09/2023 08:28</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>10/09/2023 10:03</t>
+          <t>10/09/2023 10:05</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.78</v>
+        <v>3.89</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.46</v>
+        <v>3.79</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>10/09/2023 10:03</t>
+          <t>10/09/2023 08:28</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-malaga/0hxBjWR0/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-melilla/lSX4CDlK/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.36</v>
+        <v>3.56</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:57</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.29</v>
+        <v>3.24</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>14/09/2023 15:42</t>
+          <t>14/09/2023 15:43</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.79</v>
+        <v>5.15</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>17/09/2023 11:51</t>
+          <t>17/09/2023 11:58</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.12</v>
+        <v>2.46</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>14/09/2023 15:43</t>
+          <t>14/09/2023 15:42</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.72</v>
+        <v>2.65</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:29</t>
         </is>
       </c>
       <c r="N36" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>14/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>17/09/2023 11:29</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>14/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
         <v>3.12</v>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>14/09/2023 15:43</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>17/09/2023 11:57</t>
-        </is>
-      </c>
-      <c r="R36" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>14/09/2023 15:43</t>
-        </is>
-      </c>
-      <c r="T36" t="n">
-        <v>5.15</v>
-      </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>17/09/2023 11:58</t>
+          <t>17/09/2023 11:29</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-baleares/YHKB84mn/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-recreativo-huelva/fRL79pYu/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.46</v>
+        <v>1.78</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.65</v>
+        <v>2.02</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:29</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>2.88</v>
+        <v>3.36</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2.78</v>
+        <v>3.36</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:29</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.84</v>
+        <v>4.29</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.12</v>
+        <v>3.79</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>17/09/2023 11:29</t>
+          <t>17/09/2023 11:51</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-recreativo-huelva/fRL79pYu/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-alcoyano/nNFi39B6/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>2.75</v>
+        <v>2.99</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>24/09/2023 11:56</t>
+          <t>24/09/2023 11:51</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>2.87</v>
+        <v>2.91</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>2.97</v>
+        <v>3.07</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>24/09/2023 11:56</t>
+          <t>24/09/2023 11:51</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.57</v>
+        <v>2.36</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>24/09/2023 11:56</t>
+          <t>24/09/2023 11:51</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-algeciras/hrJacvuo/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-ad-ceuta/r9TP3t2H/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>2.99</v>
+        <v>2.75</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>24/09/2023 11:51</t>
+          <t>24/09/2023 11:56</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>2.91</v>
+        <v>2.87</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.07</v>
+        <v>2.97</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>24/09/2023 11:51</t>
+          <t>24/09/2023 11:56</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.36</v>
+        <v>2.57</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>24/09/2023 11:51</t>
+          <t>24/09/2023 11:56</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-ad-ceuta/r9TP3t2H/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-algeciras/hrJacvuo/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,63 +5641,63 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.68</v>
+        <v>3.11</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.5</v>
+        <v>3.82</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.47</v>
+        <v>4.93</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,63 +5733,63 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.08</v>
+        <v>3.26</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.11</v>
+        <v>3.68</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.82</v>
+        <v>4.5</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.93</v>
+        <v>5.47</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>3.5</v>
+        <v>3.21</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3.19</v>
+        <v>3.42</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>07/10/2023 13:28</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.15</v>
+        <v>3.04</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>08/10/2023 10:51</t>
+          <t>08/10/2023 10:02</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.09</v>
+        <v>2.23</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>08/10/2023 11:26</t>
+          <t>08/10/2023 06:53</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>1</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>CF Intercity</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>2</v>
-      </c>
       <c r="J65" t="n">
-        <v>2.43</v>
+        <v>3.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.62</v>
+        <v>3.19</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>08/10/2023 10:51</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.93</v>
+        <v>2.09</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.05</v>
+        <v>2.34</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>08/10/2023 11:02</t>
+          <t>08/10/2023 11:26</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cf-intercity/tn6OMf8d/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-ad-ceuta/jHmFqIF9/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>3.21</v>
+        <v>2.43</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.42</v>
+        <v>2.62</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>07/10/2023 13:28</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.94</v>
+        <v>2.87</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.04</v>
+        <v>2.88</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>08/10/2023 10:02</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.23</v>
+        <v>2.93</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.24</v>
+        <v>3.05</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>08/10/2023 06:53</t>
+          <t>08/10/2023 11:02</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-murcia/8Y7GOGwp/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cf-intercity/tn6OMf8d/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>1.59</v>
+        <v>2.9</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.54</v>
+        <v>2.92</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="R75" t="n">
-        <v>5.47</v>
+        <v>2.45</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>6.68</v>
+        <v>2.43</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-recreativo-huelva/AXrkdeaF/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-castellon/xEL2zExd/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.9</v>
+        <v>1.97</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.92</v>
+        <v>2.37</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>15/10/2023 11:54</t>
+          <t>15/10/2023 11:58</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>2.96</v>
+        <v>3.07</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>15/10/2023 11:54</t>
+          <t>15/10/2023 11:58</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.45</v>
+        <v>3.74</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.43</v>
+        <v>3.33</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>15/10/2023 11:54</t>
+          <t>15/10/2023 11:58</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-castellon/xEL2zExd/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-algeciras/4KDlbHU2/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>1.97</v>
+        <v>1.59</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.37</v>
+        <v>1.54</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>15/10/2023 11:58</t>
+          <t>15/10/2023 11:54</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.07</v>
+        <v>3.55</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>2.98</v>
+        <v>3.85</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>15/10/2023 11:58</t>
+          <t>15/10/2023 11:54</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.74</v>
+        <v>5.47</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.33</v>
+        <v>6.68</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>15/10/2023 11:58</t>
+          <t>15/10/2023 11:54</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-algeciras/4KDlbHU2/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-recreativo-huelva/AXrkdeaF/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.96</v>
+        <v>1.75</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 06:00</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.91</v>
+        <v>3.24</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2.91</v>
+        <v>3.42</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.44</v>
+        <v>4.53</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.59</v>
+        <v>5.02</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 06:00</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-antequera/vBVRtyHP/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.75</v>
+        <v>4.18</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.75</v>
+        <v>4.16</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 10:38</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.42</v>
+        <v>3.14</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 10:01</t>
+          <t>22/10/2023 10:03</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.53</v>
+        <v>1.85</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>5.02</v>
+        <v>2</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 04:23</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>4.18</v>
+        <v>2.96</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>4.16</v>
+        <v>3</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>22/10/2023 10:38</t>
+          <t>22/10/2023 06:00</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.2</v>
+        <v>2.91</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.14</v>
+        <v>2.91</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>22/10/2023 10:03</t>
+          <t>22/10/2023 10:01</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>1.85</v>
+        <v>2.44</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2</v>
+        <v>2.59</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>22/10/2023 04:23</t>
+          <t>22/10/2023 06:00</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-antequera/vBVRtyHP/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>2.12</v>
+        <v>1.54</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.26</v>
+        <v>1.57</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>29/10/2023 11:31</t>
+          <t>29/10/2023 11:54</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>2.94</v>
+        <v>3.65</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.04</v>
+        <v>3.86</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>29/10/2023 11:31</t>
+          <t>29/10/2023 11:54</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.45</v>
+        <v>5.6</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.49</v>
+        <v>6.15</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>29/10/2023 11:31</t>
+          <t>29/10/2023 11:54</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-melilla/Mc3JWjgI/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-cf-intercity/0l2NVA8O/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.05</v>
+        <v>2.26</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:56</t>
+          <t>29/10/2023 11:31</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.14</v>
+        <v>2.94</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.36</v>
+        <v>3.04</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:56</t>
+          <t>29/10/2023 11:31</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.59</v>
+        <v>3.45</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>3.67</v>
+        <v>3.49</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:56</t>
+          <t>29/10/2023 11:31</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-ad-ceuta/CSRykY8n/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-melilla/Mc3JWjgI/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>1.54</v>
+        <v>1.98</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:54</t>
+          <t>29/10/2023 11:56</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.65</v>
+        <v>3.14</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.86</v>
+        <v>3.36</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:54</t>
+          <t>29/10/2023 11:56</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>5.6</v>
+        <v>3.59</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>6.15</v>
+        <v>3.67</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:54</t>
+          <t>29/10/2023 11:56</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-cf-intercity/0l2NVA8O/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-ad-ceuta/CSRykY8n/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>3.88</v>
+        <v>1.98</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>4.12</v>
+        <v>1.83</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>05/11/2023 09:42</t>
+          <t>05/11/2023 18:04</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.19</v>
+        <v>3.47</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.34</v>
+        <v>3.53</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>05/11/2023 18:02</t>
+          <t>05/11/2023 18:04</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>1.88</v>
+        <v>3.36</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>1.92</v>
+        <v>4.36</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>05/11/2023 09:42</t>
+          <t>05/11/2023 18:04</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-ud-ibiza/K6AI1Bhh/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-cordoba/Ct7A3XNu/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>1.98</v>
+        <v>3.88</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.83</v>
+        <v>4.12</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>05/11/2023 18:04</t>
+          <t>05/11/2023 09:42</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.47</v>
+        <v>3.19</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.53</v>
+        <v>3.34</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>05/11/2023 18:04</t>
+          <t>05/11/2023 18:02</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.36</v>
+        <v>1.88</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>4.36</v>
+        <v>1.92</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>05/11/2023 18:04</t>
+          <t>05/11/2023 09:42</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-cordoba/Ct7A3XNu/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-ud-ibiza/K6AI1Bhh/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,18 +10701,18 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>09/11/2023 09:13</t>
+          <t>11/11/2023 00:12</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -10720,44 +10720,44 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>12/11/2023 11:55</t>
+          <t>12/11/2023 11:45</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.12</v>
+        <v>3.21</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>09/11/2023 09:13</t>
+          <t>11/11/2023 00:12</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.15</v>
+        <v>3.47</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>12/11/2023 11:55</t>
+          <t>12/11/2023 11:45</t>
         </is>
       </c>
       <c r="R112" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>11/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
         <v>4.63</v>
       </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>09/11/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T112" t="n">
-        <v>5.34</v>
-      </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>12/11/2023 11:55</t>
+          <t>12/11/2023 11:45</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-melilla/bc9M0V7b/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-linares/x4dlFUMi/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J113" t="n">
-        <v>2.25</v>
+        <v>1.97</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.46</v>
+        <v>1.74</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>12/11/2023 11:30</t>
+          <t>12/11/2023 11:58</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>2.94</v>
+        <v>3.02</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>2.94</v>
+        <v>3.47</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>12/11/2023 10:01</t>
+          <t>12/11/2023 11:58</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.26</v>
+        <v>3.79</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.23</v>
+        <v>5.15</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>12/11/2023 11:30</t>
+          <t>12/11/2023 11:56</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-merida-ad/Sx1wcm7N/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-ad-ceuta/KSogElxb/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>1.97</v>
+        <v>2.25</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.74</v>
+        <v>2.46</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>12/11/2023 11:58</t>
+          <t>12/11/2023 11:30</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.02</v>
+        <v>2.94</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.47</v>
+        <v>2.94</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>12/11/2023 11:58</t>
+          <t>12/11/2023 10:01</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.79</v>
+        <v>3.26</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>5.15</v>
+        <v>3.23</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>12/11/2023 11:56</t>
+          <t>12/11/2023 11:30</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-ad-ceuta/KSogElxb/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-merida-ad/Sx1wcm7N/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,18 +10977,18 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>11/11/2023 00:12</t>
+          <t>09/11/2023 09:13</t>
         </is>
       </c>
       <c r="L115" t="n">
@@ -10996,44 +10996,44 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>12/11/2023 11:45</t>
+          <t>12/11/2023 11:55</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.21</v>
+        <v>3.12</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>11/11/2023 00:12</t>
+          <t>09/11/2023 09:13</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.47</v>
+        <v>3.15</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>12/11/2023 11:45</t>
+          <t>12/11/2023 11:55</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.95</v>
+        <v>4.63</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>11/11/2023 00:12</t>
+          <t>09/11/2023 09:13</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>4.63</v>
+        <v>5.34</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>12/11/2023 11:45</t>
+          <t>12/11/2023 11:55</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-linares/x4dlFUMi/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-melilla/bc9M0V7b/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1.55</v>
+        <v>2.48</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.52</v>
+        <v>2.3</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>18/11/2023 17:41</t>
+          <t>18/11/2023 17:04</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.51</v>
+        <v>2.86</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.72</v>
+        <v>2.88</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>18/11/2023 17:41</t>
+          <t>18/11/2023 17:04</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>5.82</v>
+        <v>2.87</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>7.82</v>
+        <v>3.64</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>18/11/2023 17:41</t>
+          <t>18/11/2023 17:04</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-alcoyano/WU3oiIz2/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-murcia/bJpcD8i4/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="n">
-        <v>2.48</v>
+        <v>1.55</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>2.3</v>
+        <v>1.52</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>18/11/2023 17:04</t>
+          <t>18/11/2023 17:41</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>2.86</v>
+        <v>3.51</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>2.88</v>
+        <v>3.72</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>18/11/2023 17:04</t>
+          <t>18/11/2023 17:41</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>2.87</v>
+        <v>5.82</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>3.64</v>
+        <v>7.82</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>18/11/2023 17:04</t>
+          <t>18/11/2023 17:41</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-murcia/bJpcD8i4/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-alcoyano/WU3oiIz2/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Baleares</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
         <v>2</v>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Castellon</t>
-        </is>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
       <c r="J132" t="n">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.69</v>
+        <v>2.05</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>26/11/2023 11:49</t>
+          <t>26/11/2023 10:57</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.08</v>
+        <v>2.91</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.13</v>
+        <v>3.03</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>26/11/2023 11:55</t>
+          <t>26/11/2023 10:03</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>2.73</v>
+        <v>4.19</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>26/11/2023 11:49</t>
+          <t>26/11/2023 10:57</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-castellon/vyRC7wLr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-baleares/MXLASvc8/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>1.75</v>
+        <v>2.17</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.69</v>
+        <v>2.69</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>26/11/2023 11:56</t>
+          <t>26/11/2023 11:49</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.46</v>
+        <v>3.13</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>26/11/2023 11:56</t>
+          <t>26/11/2023 11:55</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>4.59</v>
+        <v>3.17</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>5.63</v>
+        <v>2.73</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>26/11/2023 11:56</t>
+          <t>26/11/2023 11:49</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-melilla/IaFJQIRK/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-castellon/vyRC7wLr/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.05</v>
+        <v>1.69</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>26/11/2023 10:57</t>
+          <t>26/11/2023 11:56</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>2.91</v>
+        <v>3.21</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.03</v>
+        <v>3.46</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>26/11/2023 10:03</t>
+          <t>26/11/2023 11:56</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>3.2</v>
+        <v>4.59</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>4.19</v>
+        <v>5.63</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>26/11/2023 10:57</t>
+          <t>26/11/2023 11:56</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-baleares/MXLASvc8/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-melilla/IaFJQIRK/</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -12817,14 +12817,14 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>2.69</v>
+        <v>2.75</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>3.38</v>
+        <v>2.92</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>26/11/2023 17:13</t>
+          <t>26/11/2023 17:30</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>2.79</v>
+        <v>2.88</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>26/11/2023 17:51</t>
+          <t>26/11/2023 17:30</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>2.69</v>
+        <v>2.56</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>26/11/2023 17:51</t>
+          <t>26/11/2023 17:30</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-malaga/fRTO4y51/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-cf-intercity/YBuG6czk/</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -12909,14 +12909,14 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J136" t="n">
-        <v>2.75</v>
+        <v>2.69</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.92</v>
+        <v>3.38</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>26/11/2023 17:30</t>
+          <t>26/11/2023 17:13</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>2.88</v>
+        <v>2.79</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>26/11/2023 17:30</t>
+          <t>26/11/2023 17:51</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>2.56</v>
+        <v>2.69</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>2.72</v>
+        <v>2.44</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>26/11/2023 17:30</t>
+          <t>26/11/2023 17:51</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-cf-intercity/YBuG6czk/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-malaga/fRTO4y51/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>2.02</v>
+        <v>2.68</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>2.22</v>
+        <v>2.62</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>26/11/2023 09:42</t>
+          <t>26/11/2023 18:21</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.06</v>
+        <v>2.83</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         </is>
       </c>
       <c r="R137" t="n">
-        <v>3.7</v>
+        <v>2.67</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>3.57</v>
+        <v>3.15</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>26/11/2023 18:21</t>
+          <t>26/11/2023 13:28</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-atl-madrid/xSvoCJCR/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-recreativo-huelva/C2vK5Hke/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J138" t="n">
-        <v>2.68</v>
+        <v>2.02</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,48 +13108,48 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.62</v>
+        <v>2.22</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
+          <t>26/11/2023 09:42</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
           <t>26/11/2023 18:21</t>
         </is>
       </c>
-      <c r="N138" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="O138" t="inlineStr">
+      <c r="R138" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="S138" t="inlineStr">
         <is>
           <t>23/11/2023 09:13</t>
         </is>
       </c>
-      <c r="P138" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q138" t="inlineStr">
+      <c r="T138" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U138" t="inlineStr">
         <is>
           <t>26/11/2023 18:21</t>
         </is>
       </c>
-      <c r="R138" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="S138" t="inlineStr">
-        <is>
-          <t>23/11/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T138" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U138" t="inlineStr">
-        <is>
-          <t>26/11/2023 13:28</t>
-        </is>
-      </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-recreativo-huelva/C2vK5Hke/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-atl-madrid/xSvoCJCR/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>02/12/2023 14:14</t>
+          <t>02/12/2023 15:22</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.18</v>
+        <v>3.21</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.65</v>
+        <v>3.48</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>02/12/2023 14:41</t>
+          <t>02/12/2023 15:22</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>4.23</v>
+        <v>4.77</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>4.53</v>
+        <v>5.87</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>02/12/2023 14:14</t>
+          <t>02/12/2023 15:22</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-granada-cf/8UgbJzKf/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-merida-ad/EV0kLdkr/</t>
         </is>
       </c>
     </row>
@@ -13361,22 +13361,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,15 +13384,15 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>02/12/2023 15:22</t>
+          <t>02/12/2023 14:14</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.21</v>
+        <v>3.18</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.48</v>
+        <v>3.65</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>02/12/2023 15:22</t>
+          <t>02/12/2023 14:41</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>4.77</v>
+        <v>4.23</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>5.87</v>
+        <v>4.53</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>02/12/2023 15:22</t>
+          <t>02/12/2023 14:14</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-merida-ad/EV0kLdkr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-granada-cf/8UgbJzKf/</t>
         </is>
       </c>
     </row>
@@ -14465,22 +14465,22 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G153" t="n">
+        <v>3</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
         <v>2</v>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Melilla</t>
-        </is>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
       <c r="J153" t="n">
-        <v>1.81</v>
+        <v>2.36</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,15 +14488,15 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>1.93</v>
+        <v>2.85</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>10/12/2023 11:33</t>
+          <t>10/12/2023 11:40</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.14</v>
+        <v>2.83</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -14504,15 +14504,15 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.22</v>
+        <v>2.95</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>10/12/2023 11:33</t>
+          <t>10/12/2023 10:27</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>4.46</v>
+        <v>3.16</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -14520,16 +14520,16 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>4.4</v>
+        <v>2.72</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>10/12/2023 11:33</t>
+          <t>10/12/2023 11:31</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-melilla/Sf2anZms/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-ad-ceuta/MDPWjFuQ/</t>
         </is>
       </c>
     </row>
@@ -14557,22 +14557,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>2.36</v>
+        <v>1.81</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,15 +14580,15 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>2.85</v>
+        <v>1.93</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>10/12/2023 11:40</t>
+          <t>10/12/2023 11:33</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>2.83</v>
+        <v>3.14</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>2.95</v>
+        <v>3.22</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>10/12/2023 10:27</t>
+          <t>10/12/2023 11:33</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>3.16</v>
+        <v>4.46</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>2.72</v>
+        <v>4.4</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>10/12/2023 11:31</t>
+          <t>10/12/2023 11:33</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-ad-ceuta/MDPWjFuQ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-melilla/Sf2anZms/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>3.25</v>
+        <v>1.89</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>3.45</v>
+        <v>1.71</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>10/12/2023 11:31</t>
+          <t>10/12/2023 11:33</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>2.83</v>
+        <v>3.06</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>2.79</v>
+        <v>3.5</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>10/12/2023 11:31</t>
+          <t>10/12/2023 11:33</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>2.31</v>
+        <v>4.2</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>2.45</v>
+        <v>5.35</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>10/12/2023 11:31</t>
+          <t>10/12/2023 11:33</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-ud-ibiza/nysQXZYm/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-baleares/rNQSieQJ/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>1.89</v>
+        <v>3.25</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>1.71</v>
+        <v>3.45</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>10/12/2023 11:33</t>
+          <t>10/12/2023 11:31</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.06</v>
+        <v>2.83</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.5</v>
+        <v>2.79</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>10/12/2023 11:33</t>
+          <t>10/12/2023 11:31</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>4.2</v>
+        <v>2.31</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>5.35</v>
+        <v>2.45</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>10/12/2023 11:33</t>
+          <t>10/12/2023 11:31</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-baleares/rNQSieQJ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-ud-ibiza/nysQXZYm/</t>
         </is>
       </c>
     </row>
@@ -15293,7 +15293,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G162" t="n">
@@ -15301,14 +15301,14 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>1.71</v>
+        <v>2.51</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,15 +15316,15 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.6</v>
+        <v>2.48</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>17/12/2023 11:36</t>
+          <t>17/12/2023 10:02</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3.26</v>
+        <v>2.81</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -15332,15 +15332,15 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3.87</v>
+        <v>2.91</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>17/12/2023 11:36</t>
+          <t>17/12/2023 10:02</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>4.99</v>
+        <v>2.95</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
@@ -15348,16 +15348,16 @@
         </is>
       </c>
       <c r="T162" t="n">
-        <v>5.73</v>
+        <v>3.2</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>17/12/2023 11:36</t>
+          <t>17/12/2023 10:02</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-merida-ad/GUDFrim6/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-linares/ltHsnQgb/</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="n">
-        <v>5.99</v>
+        <v>1.71</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>5.15</v>
+        <v>1.6</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>17/12/2023 11:56</t>
+          <t>17/12/2023 11:36</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.67</v>
+        <v>3.26</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.47</v>
+        <v>3.87</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>17/12/2023 11:56</t>
+          <t>17/12/2023 11:36</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>1.53</v>
+        <v>4.99</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>1.74</v>
+        <v>5.73</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>17/12/2023 11:55</t>
+          <t>17/12/2023 11:36</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-cordoba/bgJAqXXa/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-merida-ad/GUDFrim6/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>2.51</v>
+        <v>5.99</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.48</v>
+        <v>5.15</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>17/12/2023 10:02</t>
+          <t>17/12/2023 11:56</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>2.81</v>
+        <v>3.67</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>2.91</v>
+        <v>3.47</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>17/12/2023 10:02</t>
+          <t>17/12/2023 11:56</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>2.95</v>
+        <v>1.53</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>3.2</v>
+        <v>1.74</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>17/12/2023 10:02</t>
+          <t>17/12/2023 11:55</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-linares/ltHsnQgb/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-cordoba/bgJAqXXa/</t>
         </is>
       </c>
     </row>
@@ -16278,6 +16278,466 @@
       <c r="V172" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-atl-madrid/tztLaqOc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45294.66666666666</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sanluqueno</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>2</v>
+      </c>
+      <c r="J173" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>01/01/2024 23:20</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>03/01/2024 15:31</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>01/01/2024 23:20</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>03/01/2024 15:31</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>01/01/2024 23:20</t>
+        </is>
+      </c>
+      <c r="T173" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>03/01/2024 15:31</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-castellon/UaxH0P8i/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45294.6875</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>3</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>2</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>01/01/2024 16:42</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>03/01/2024 16:25</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>01/01/2024 16:42</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>03/01/2024 16:25</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>01/01/2024 16:42</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>03/01/2024 16:25</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-cd-san-fernando/GdlZytWj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45294.70833333334</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Antequera</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>01/01/2024 17:12</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>03/01/2024 16:30</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>01/01/2024 17:12</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>03/01/2024 16:30</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>01/01/2024 17:12</t>
+        </is>
+      </c>
+      <c r="T175" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>03/01/2024 16:30</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-ad-ceuta/x6kVxMGp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45294.79166666666</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Alcoyano</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Merida AD</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>01/01/2024 19:12</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>03/01/2024 18:56</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>01/01/2024 19:12</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>03/01/2024 18:56</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>01/01/2024 19:12</t>
+        </is>
+      </c>
+      <c r="T176" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>03/01/2024 18:56</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-merida-ad/SWFoop94/</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45294.875</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Baleares</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>2</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>01/01/2024 21:12</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>03/01/2024 20:50</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>01/01/2024 21:12</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>03/01/2024 20:50</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>01/01/2024 21:12</t>
+        </is>
+      </c>
+      <c r="T177" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>03/01/2024 20:50</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-baleares/ObVPb3w4/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V177"/>
+  <dimension ref="A1:V178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,63 +5641,63 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.08</v>
+        <v>3.26</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.11</v>
+        <v>3.68</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.82</v>
+        <v>4.5</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>30/09/2023 05:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.93</v>
+        <v>5.47</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>01/10/2023 17:24</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,63 +5733,63 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.68</v>
+        <v>3.11</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.5</v>
+        <v>3.82</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>30/09/2023 05:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>5.47</v>
+        <v>4.93</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 17:24</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-melilla/EBnsAHOj/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/murcia-alcoyano/SEzPY01i/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J72" t="n">
-        <v>1.79</v>
+        <v>2.9</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.94</v>
+        <v>2.53</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>14/10/2023 15:32</t>
+          <t>14/10/2023 15:36</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.18</v>
+        <v>3.04</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.21</v>
+        <v>3.05</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>14/10/2023 15:32</t>
+          <t>14/10/2023 15:36</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>4.6</v>
+        <v>2.39</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>4.3</v>
+        <v>2.99</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>14/10/2023 15:32</t>
+          <t>14/10/2023 15:36</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-linares/2iiJrxVF/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-atl-madrid/jHP6ZXi2/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.9</v>
+        <v>1.79</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.53</v>
+        <v>1.94</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>14/10/2023 15:36</t>
+          <t>14/10/2023 15:32</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.04</v>
+        <v>3.18</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.05</v>
+        <v>3.21</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>14/10/2023 15:36</t>
+          <t>14/10/2023 15:32</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.39</v>
+        <v>4.6</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.99</v>
+        <v>4.3</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>14/10/2023 15:36</t>
+          <t>14/10/2023 15:32</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-atl-madrid/jHP6ZXi2/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-linares/2iiJrxVF/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1.75</v>
+        <v>2.96</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 06:00</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.42</v>
+        <v>2.91</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.53</v>
+        <v>2.44</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>5.02</v>
+        <v>2.59</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 09:56</t>
+          <t>22/10/2023 06:00</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-antequera/vBVRtyHP/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>4.18</v>
+        <v>1.75</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>4.16</v>
+        <v>1.75</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 10:38</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.14</v>
+        <v>3.42</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 10:03</t>
+          <t>22/10/2023 10:01</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.85</v>
+        <v>4.53</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2</v>
+        <v>5.02</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 04:23</t>
+          <t>22/10/2023 09:56</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-baleares/djIgxePt/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.96</v>
+        <v>4.18</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>4.16</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>22/10/2023 06:00</t>
+          <t>22/10/2023 10:38</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>2.91</v>
+        <v>3.2</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>2.91</v>
+        <v>3.14</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>22/10/2023 10:01</t>
+          <t>22/10/2023 10:03</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.44</v>
+        <v>1.85</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.59</v>
+        <v>2</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>22/10/2023 06:00</t>
+          <t>22/10/2023 04:23</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-antequera/vBVRtyHP/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-ud-ibiza/tK5Mwmql/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.54</v>
+        <v>2.12</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.57</v>
+        <v>2.26</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>29/10/2023 11:54</t>
+          <t>29/10/2023 11:31</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.65</v>
+        <v>2.94</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.86</v>
+        <v>3.04</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>29/10/2023 11:54</t>
+          <t>29/10/2023 11:31</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>5.6</v>
+        <v>3.45</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>6.15</v>
+        <v>3.49</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>29/10/2023 11:54</t>
+          <t>29/10/2023 11:31</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-cf-intercity/0l2NVA8O/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-melilla/Mc3JWjgI/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.26</v>
+        <v>2.05</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:31</t>
+          <t>29/10/2023 11:56</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>2.94</v>
+        <v>3.14</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.04</v>
+        <v>3.36</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:31</t>
+          <t>29/10/2023 11:56</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.45</v>
+        <v>3.59</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>3.49</v>
+        <v>3.67</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>29/10/2023 11:31</t>
+          <t>29/10/2023 11:56</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-melilla/Mc3JWjgI/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-ad-ceuta/CSRykY8n/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>1.98</v>
+        <v>1.54</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:56</t>
+          <t>29/10/2023 11:54</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.14</v>
+        <v>3.65</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.36</v>
+        <v>3.86</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:56</t>
+          <t>29/10/2023 11:54</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.59</v>
+        <v>5.6</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.67</v>
+        <v>6.15</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>29/10/2023 11:56</t>
+          <t>29/10/2023 11:54</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-ad-ceuta/CSRykY8n/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-cf-intercity/0l2NVA8O/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>1.74</v>
+        <v>3.11</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.52</v>
+        <v>2.7</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.29</v>
+        <v>2.9</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4.03</v>
+        <v>2.74</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.71</v>
+        <v>2.3</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>6.68</v>
+        <v>3.1</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:40</t>
+          <t>29/10/2023 17:46</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-recreativo-huelva/W8A6Zh9a/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-malaga/vZDEXWwC/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Recreativo Huelva</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Malaga</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
-        <v>2</v>
-      </c>
       <c r="J97" t="n">
-        <v>3.11</v>
+        <v>1.74</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.7</v>
+        <v>1.52</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2.9</v>
+        <v>3.29</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>2.74</v>
+        <v>4.03</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.3</v>
+        <v>4.71</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.1</v>
+        <v>6.68</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:46</t>
+          <t>29/10/2023 17:40</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/antequera-malaga/vZDEXWwC/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-recreativo-huelva/W8A6Zh9a/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,34 +10701,34 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J112" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>11/11/2023 00:12</t>
+          <t>09/11/2023 09:13</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>12/11/2023 11:45</t>
+          <t>12/11/2023 11:58</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.21</v>
+        <v>3.02</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>11/11/2023 00:12</t>
+          <t>09/11/2023 09:13</t>
         </is>
       </c>
       <c r="P112" t="n">
@@ -10736,28 +10736,28 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>12/11/2023 11:45</t>
+          <t>12/11/2023 11:58</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.95</v>
+        <v>3.79</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>11/11/2023 00:12</t>
+          <t>09/11/2023 09:13</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>4.63</v>
+        <v>5.15</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>12/11/2023 11:45</t>
+          <t>12/11/2023 11:56</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-linares/x4dlFUMi/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-ad-ceuta/KSogElxb/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,34 +10793,34 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>09/11/2023 09:13</t>
+          <t>11/11/2023 00:12</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>12/11/2023 11:58</t>
+          <t>12/11/2023 11:45</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.02</v>
+        <v>3.21</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>09/11/2023 09:13</t>
+          <t>11/11/2023 00:12</t>
         </is>
       </c>
       <c r="P113" t="n">
@@ -10828,28 +10828,28 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>12/11/2023 11:58</t>
+          <t>12/11/2023 11:45</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.79</v>
+        <v>3.95</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>09/11/2023 09:13</t>
+          <t>11/11/2023 00:12</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>5.15</v>
+        <v>4.63</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>12/11/2023 11:56</t>
+          <t>12/11/2023 11:45</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-ad-ceuta/KSogElxb/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-linares/x4dlFUMi/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>2.17</v>
+        <v>1.75</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.69</v>
+        <v>1.69</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>26/11/2023 11:49</t>
+          <t>26/11/2023 11:56</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.08</v>
+        <v>3.21</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.13</v>
+        <v>3.46</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>26/11/2023 11:55</t>
+          <t>26/11/2023 11:56</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>3.17</v>
+        <v>4.59</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>2.73</v>
+        <v>5.63</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>26/11/2023 11:49</t>
+          <t>26/11/2023 11:56</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-castellon/vyRC7wLr/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-melilla/IaFJQIRK/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>1.75</v>
+        <v>2.17</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.69</v>
+        <v>2.69</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>26/11/2023 11:56</t>
+          <t>26/11/2023 11:49</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.46</v>
+        <v>3.13</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>26/11/2023 11:56</t>
+          <t>26/11/2023 11:55</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>4.59</v>
+        <v>3.17</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>5.63</v>
+        <v>2.73</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>26/11/2023 11:56</t>
+          <t>26/11/2023 11:49</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-melilla/IaFJQIRK/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-castellon/vyRC7wLr/</t>
         </is>
       </c>
     </row>
@@ -14465,22 +14465,22 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>2.36</v>
+        <v>1.81</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,15 +14488,15 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>2.85</v>
+        <v>1.93</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>10/12/2023 11:40</t>
+          <t>10/12/2023 11:33</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>2.83</v>
+        <v>3.14</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -14504,15 +14504,15 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>2.95</v>
+        <v>3.22</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>10/12/2023 10:27</t>
+          <t>10/12/2023 11:33</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>3.16</v>
+        <v>4.46</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -14520,16 +14520,16 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>2.72</v>
+        <v>4.4</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>10/12/2023 11:31</t>
+          <t>10/12/2023 11:33</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-ad-ceuta/MDPWjFuQ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-melilla/Sf2anZms/</t>
         </is>
       </c>
     </row>
@@ -14557,22 +14557,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G154" t="n">
+        <v>3</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
         <v>2</v>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Melilla</t>
-        </is>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
       <c r="J154" t="n">
-        <v>1.81</v>
+        <v>2.36</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,15 +14580,15 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>1.93</v>
+        <v>2.85</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>10/12/2023 11:33</t>
+          <t>10/12/2023 11:40</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.14</v>
+        <v>2.83</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.22</v>
+        <v>2.95</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>10/12/2023 11:33</t>
+          <t>10/12/2023 10:27</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>4.46</v>
+        <v>3.16</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>4.4</v>
+        <v>2.72</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>10/12/2023 11:33</t>
+          <t>10/12/2023 11:31</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-melilla/Sf2anZms/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-ad-ceuta/MDPWjFuQ/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>1.89</v>
+        <v>3.25</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>1.71</v>
+        <v>3.45</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>10/12/2023 11:33</t>
+          <t>10/12/2023 11:31</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.06</v>
+        <v>2.83</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.5</v>
+        <v>2.79</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>10/12/2023 11:33</t>
+          <t>10/12/2023 11:31</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>4.2</v>
+        <v>2.31</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>5.35</v>
+        <v>2.45</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>10/12/2023 11:33</t>
+          <t>10/12/2023 11:31</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-baleares/rNQSieQJ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-ud-ibiza/nysQXZYm/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>3.25</v>
+        <v>1.89</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>3.45</v>
+        <v>1.71</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>10/12/2023 11:31</t>
+          <t>10/12/2023 11:33</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>2.83</v>
+        <v>3.06</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>2.79</v>
+        <v>3.5</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>10/12/2023 11:31</t>
+          <t>10/12/2023 11:33</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>2.31</v>
+        <v>4.2</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>2.45</v>
+        <v>5.35</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>10/12/2023 11:31</t>
+          <t>10/12/2023 11:33</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-ud-ibiza/nysQXZYm/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-baleares/rNQSieQJ/</t>
         </is>
       </c>
     </row>
@@ -15293,22 +15293,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>2.51</v>
+        <v>1.83</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,15 +15316,15 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>2.48</v>
+        <v>1.68</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>17/12/2023 10:02</t>
+          <t>17/12/2023 11:58</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>2.81</v>
+        <v>3.2</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -15332,15 +15332,15 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>2.91</v>
+        <v>3.61</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>17/12/2023 10:02</t>
+          <t>17/12/2023 11:58</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>2.95</v>
+        <v>4.3</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
@@ -15348,16 +15348,16 @@
         </is>
       </c>
       <c r="T162" t="n">
-        <v>3.2</v>
+        <v>5.35</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>17/12/2023 10:02</t>
+          <t>17/12/2023 11:58</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-linares/ltHsnQgb/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-antequera/tGHwm6vh/</t>
         </is>
       </c>
     </row>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -15393,14 +15393,14 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>1.71</v>
+        <v>2.51</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>1.6</v>
+        <v>2.48</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>17/12/2023 11:36</t>
+          <t>17/12/2023 10:02</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.26</v>
+        <v>2.81</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.87</v>
+        <v>2.91</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>17/12/2023 11:36</t>
+          <t>17/12/2023 10:02</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>4.99</v>
+        <v>2.95</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>5.73</v>
+        <v>3.2</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>17/12/2023 11:36</t>
+          <t>17/12/2023 10:02</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-merida-ad/GUDFrim6/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-linares/ltHsnQgb/</t>
         </is>
       </c>
     </row>
@@ -15569,22 +15569,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -15592,15 +15592,15 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>17/12/2023 11:58</t>
+          <t>17/12/2023 11:36</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -15608,15 +15608,15 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>3.61</v>
+        <v>3.87</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>17/12/2023 11:58</t>
+          <t>17/12/2023 11:36</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>4.3</v>
+        <v>4.99</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -15624,16 +15624,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>5.35</v>
+        <v>5.73</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>17/12/2023 11:58</t>
+          <t>17/12/2023 11:36</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ud-ibiza-antequera/tGHwm6vh/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/ad-ceuta-merida-ad/GUDFrim6/</t>
         </is>
       </c>
     </row>
@@ -15845,22 +15845,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1.83</v>
+        <v>1.47</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>17/12/2023 19:59</t>
+          <t>17/12/2023 19:34</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.47</v>
+        <v>3.97</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>17/12/2023 19:59</t>
+          <t>17/12/2023 19:34</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>3.73</v>
+        <v>4.6</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>4.45</v>
+        <v>8.15</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>17/12/2023 19:56</t>
+          <t>17/12/2023 19:34</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-sanluqueno/K2K6pDIg/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-algeciras/0KviP2no/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,15 +15960,15 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>1.47</v>
+        <v>1.83</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>17/12/2023 19:34</t>
+          <t>17/12/2023 19:59</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3.97</v>
+        <v>3.47</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>17/12/2023 19:34</t>
+          <t>17/12/2023 19:59</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>4.6</v>
+        <v>3.73</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>8.15</v>
+        <v>4.45</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>17/12/2023 19:34</t>
+          <t>17/12/2023 19:56</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/malaga-algeciras/0KviP2no/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/atl-madrid-sanluqueno/K2K6pDIg/</t>
         </is>
       </c>
     </row>
@@ -16738,6 +16738,98 @@
       <c r="V177" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/linares-baleares/ObVPb3w4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45295.47916666666</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Granada CF B</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Melilla</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>02/01/2024 11:42</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>04/01/2024 11:27</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>02/01/2024 11:42</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>04/01/2024 11:25</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>02/01/2024 11:42</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>04/01/2024 11:25</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-melilla/dC72s28T/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_primera-rfef-group-2_2023-2024.xlsx
+++ b/2023/spain_primera-rfef-group-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V178"/>
+  <dimension ref="A1:V179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,34 +10701,34 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J112" t="n">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>09/11/2023 09:13</t>
+          <t>11/11/2023 00:12</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>12/11/2023 11:58</t>
+          <t>12/11/2023 11:45</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.02</v>
+        <v>3.21</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>09/11/2023 09:13</t>
+          <t>11/11/2023 00:12</t>
         </is>
       </c>
       <c r="P112" t="n">
@@ -10736,28 +10736,28 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>12/11/2023 11:58</t>
+          <t>12/11/2023 11:45</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.79</v>
+        <v>3.95</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>09/11/2023 09:13</t>
+          <t>11/11/2023 00:12</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>5.15</v>
+        <v>4.63</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>12/11/2023 11:56</t>
+          <t>12/11/2023 11:45</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-ad-ceuta/KSogElxb/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-linares/x4dlFUMi/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,34 +10793,34 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J113" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>11/11/2023 00:12</t>
+          <t>09/11/2023 09:13</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>12/11/2023 11:45</t>
+          <t>12/11/2023 11:58</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.21</v>
+        <v>3.02</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>11/11/2023 00:12</t>
+          <t>09/11/2023 09:13</t>
         </is>
       </c>
       <c r="P113" t="n">
@@ -10828,28 +10828,28 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>12/11/2023 11:45</t>
+          <t>12/11/2023 11:58</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.95</v>
+        <v>3.79</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>11/11/2023 00:12</t>
+          <t>09/11/2023 09:13</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>4.63</v>
+        <v>5.15</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>12/11/2023 11:45</t>
+          <t>12/11/2023 11:56</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-linares/x4dlFUMi/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-ad-ceuta/KSogElxb/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>2.25</v>
+        <v>1.77</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.46</v>
+        <v>1.81</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>12/11/2023 11:30</t>
+          <t>12/11/2023 11:55</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>2.94</v>
+        <v>3.12</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>12/11/2023 10:01</t>
+          <t>12/11/2023 11:55</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.26</v>
+        <v>4.63</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>3.23</v>
+        <v>5.34</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>12/11/2023 11:30</t>
+          <t>12/11/2023 11:55</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-merida-ad/Sx1wcm7N/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-melilla/bc9M0V7b/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>1.77</v>
+        <v>2.25</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.81</v>
+        <v>2.46</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>12/11/2023 11:55</t>
+          <t>12/11/2023 11:30</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>12/11/2023 11:55</t>
+          <t>12/11/2023 10:01</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>4.63</v>
+        <v>3.26</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>5.34</v>
+        <v>3.23</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>12/11/2023 11:55</t>
+          <t>12/11/2023 11:30</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/alcoyano-melilla/bc9M0V7b/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-merida-ad/Sx1wcm7N/</t>
         </is>
       </c>
     </row>
@@ -11981,30 +11981,30 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Real Madrid B</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J126" t="n">
-        <v>4.37</v>
+        <v>2.3</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>16/11/2023 09:13</t>
+          <t>19/11/2023 10:27</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>5.05</v>
+        <v>2.2</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
@@ -12012,31 +12012,31 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>16/11/2023 09:13</t>
+          <t>19/11/2023 10:27</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.36</v>
+        <v>3.13</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>19/11/2023 19:58</t>
+          <t>19/11/2023 19:57</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>1.81</v>
+        <v>3.39</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>16/11/2023 09:13</t>
+          <t>19/11/2023 10:27</t>
         </is>
       </c>
       <c r="T126" t="n">
-        <v>1.78</v>
+        <v>3.54</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-ud-ibiza/t0oxEurF/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-algeciras/8nmUF1D2/</t>
         </is>
       </c>
     </row>
@@ -12073,30 +12073,30 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Real Madrid B</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J127" t="n">
-        <v>2.3</v>
+        <v>4.37</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>19/11/2023 10:27</t>
+          <t>16/11/2023 09:13</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2.2</v>
+        <v>5.05</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -12104,40 +12104,40 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>19/11/2023 10:27</t>
+          <t>16/11/2023 09:13</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.13</v>
+        <v>3.36</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
+          <t>19/11/2023 19:58</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
           <t>19/11/2023 19:57</t>
         </is>
       </c>
-      <c r="R127" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="S127" t="inlineStr">
-        <is>
-          <t>19/11/2023 10:27</t>
-        </is>
-      </c>
-      <c r="T127" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="U127" t="inlineStr">
-        <is>
-          <t>19/11/2023 19:57</t>
-        </is>
-      </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/real-madrid-algeciras/8nmUF1D2/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-ud-ibiza/t0oxEurF/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Granada CF B</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.05</v>
+        <v>1.69</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>26/11/2023 10:57</t>
+          <t>26/11/2023 11:56</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>2.91</v>
+        <v>3.21</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.03</v>
+        <v>3.46</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>26/11/2023 10:03</t>
+          <t>26/11/2023 11:56</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>3.2</v>
+        <v>4.59</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>4.19</v>
+        <v>5.63</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>26/11/2023 10:57</t>
+          <t>26/11/2023 11:56</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-baleares/MXLASvc8/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-melilla/IaFJQIRK/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Granada CF B</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.69</v>
+        <v>2.05</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>26/11/2023 11:56</t>
+          <t>26/11/2023 10:57</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.21</v>
+        <v>2.91</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.46</v>
+        <v>3.03</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>26/11/2023 11:56</t>
+          <t>26/11/2023 10:03</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>4.59</v>
+        <v>3.2</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>5.63</v>
+        <v>4.19</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>26/11/2023 11:56</t>
+          <t>26/11/2023 10:57</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-melilla/IaFJQIRK/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-baleares/MXLASvc8/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Merida AD</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Recreativo Huelva</t>
+          <t>Atl. Madrid B</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="n">
-        <v>2.68</v>
+        <v>2.02</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,48 +13016,48 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>2.62</v>
+        <v>2.22</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
+          <t>26/11/2023 09:42</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
           <t>26/11/2023 18:21</t>
         </is>
       </c>
-      <c r="N137" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="O137" t="inlineStr">
+      <c r="R137" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="S137" t="inlineStr">
         <is>
           <t>23/11/2023 09:13</t>
         </is>
       </c>
-      <c r="P137" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q137" t="inlineStr">
+      <c r="T137" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U137" t="inlineStr">
         <is>
           <t>26/11/2023 18:21</t>
         </is>
       </c>
-      <c r="R137" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>23/11/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T137" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U137" t="inlineStr">
-        <is>
-          <t>26/11/2023 13:28</t>
-        </is>
-      </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-recreativo-huelva/C2vK5Hke/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-atl-madrid/xSvoCJCR/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Merida AD</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Atl. Madrid B</t>
+          <t>Recreativo Huelva</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>2.02</v>
+        <v>2.68</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,15 +13108,15 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.22</v>
+        <v>2.62</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>26/11/2023 09:42</t>
+          <t>26/11/2023 18:21</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.06</v>
+        <v>2.83</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         </is>
       </c>
       <c r="R138" t="n">
-        <v>3.7</v>
+        <v>2.67</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>3.57</v>
+        <v>3.15</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>26/11/2023 18:21</t>
+          <t>26/11/2023 13:28</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-atl-madrid/xSvoCJCR/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/merida-ad-recreativo-huelva/C2vK5Hke/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>4.93</v>
+        <v>3.04</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,7 +13660,7 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>5.5</v>
+        <v>3.21</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.27</v>
+        <v>2.79</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.5</v>
+        <v>2.87</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         </is>
       </c>
       <c r="R144" t="n">
-        <v>1.71</v>
+        <v>2.46</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>1.69</v>
+        <v>2.52</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cordoba/4Gw1wdBQ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-alcoyano/djzguItE/</t>
         </is>
       </c>
     </row>
@@ -13729,22 +13729,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Alcoyano</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="I145" t="n">
         <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>3.04</v>
+        <v>4.93</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>3.21</v>
+        <v>5.5</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>2.79</v>
+        <v>3.27</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>2.87</v>
+        <v>3.5</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         </is>
       </c>
       <c r="R145" t="n">
-        <v>2.46</v>
+        <v>1.71</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>2.52</v>
+        <v>1.69</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/baleares-alcoyano/djzguItE/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/melilla-cordoba/4Gw1wdBQ/</t>
         </is>
       </c>
     </row>
@@ -14465,22 +14465,22 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Sanluqueno</t>
+          <t>CF Intercity</t>
         </is>
       </c>
       <c r="G153" t="n">
+        <v>3</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
         <v>2</v>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Melilla</t>
-        </is>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
       <c r="J153" t="n">
-        <v>1.81</v>
+        <v>2.36</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,15 +14488,15 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>1.93</v>
+        <v>2.85</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>10/12/2023 11:33</t>
+          <t>10/12/2023 11:40</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.14</v>
+        <v>2.83</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -14504,15 +14504,15 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.22</v>
+        <v>2.95</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>10/12/2023 11:33</t>
+          <t>10/12/2023 10:27</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>4.46</v>
+        <v>3.16</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -14520,16 +14520,16 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>4.4</v>
+        <v>2.72</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>10/12/2023 11:33</t>
+          <t>10/12/2023 11:31</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-melilla/Sf2anZms/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-ad-ceuta/MDPWjFuQ/</t>
         </is>
       </c>
     </row>
@@ -14557,22 +14557,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>CF Intercity</t>
+          <t>Sanluqueno</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>2.36</v>
+        <v>1.81</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,15 +14580,15 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>2.85</v>
+        <v>1.93</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>10/12/2023 11:40</t>
+          <t>10/12/2023 11:33</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>2.83</v>
+        <v>3.14</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>2.95</v>
+        <v>3.22</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>10/12/2023 10:27</t>
+          <t>10/12/2023 11:33</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>3.16</v>
+        <v>4.46</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>2.72</v>
+        <v>4.4</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>10/12/2023 11:31</t>
+          <t>10/12/2023 11:33</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cf-intercity-ad-ceuta/MDPWjFuQ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/sanluqueno-melilla/Sf2anZms/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Baleares</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>3.25</v>
+        <v>1.89</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>3.45</v>
+        <v>1.71</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>10/12/2023 11:31</t>
+          <t>10/12/2023 11:33</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>2.83</v>
+        <v>3.06</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>2.79</v>
+        <v>3.5</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>10/12/2023 11:31</t>
+          <t>10/12/2023 11:33</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>2.31</v>
+        <v>4.2</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>2.45</v>
+        <v>5.35</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>10/12/2023 11:31</t>
+          <t>10/12/2023 11:33</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-ud-ibiza/nysQXZYm/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-baleares/rNQSieQJ/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Baleares</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>1.89</v>
+        <v>3.25</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>1.71</v>
+        <v>3.45</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>10/12/2023 11:33</t>
+          <t>10/12/2023 11:31</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.06</v>
+        <v>2.83</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.5</v>
+        <v>2.79</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>10/12/2023 11:33</t>
+          <t>10/12/2023 11:31</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>4.2</v>
+        <v>2.31</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>5.35</v>
+        <v>2.45</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>10/12/2023 11:33</t>
+          <t>10/12/2023 11:31</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cd-san-fernando-baleares/rNQSieQJ/</t>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/algeciras-ud-ibiza/nysQXZYm/</t>
         </is>
       </c>
     </row>
@@ -16830,6 +16830,98 @@
       <c r="V178" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/granada-cf-melilla/dC72s28T/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>primera-rfef-group-2</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45295.875</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Real Madrid B</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>2</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>02/01/2024 21:12</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>04/01/2024 20:50</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>02/01/2024 21:12</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>04/01/2024 20:10</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>02/01/2024 21:12</t>
+        </is>
+      </c>
+      <c r="T179" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>04/01/2024 20:50</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/primera-rfef-group-2/cordoba-real-madrid/IL8brrgN/</t>
         </is>
       </c>
     </row>
